--- a/dsfd.xlsx
+++ b/dsfd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7114D-C7F8-4160-BB39-A3BA6E52D575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA6E02-52D2-487B-8A81-BD7632F6E021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30015" yWindow="1905" windowWidth="20550" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="2385" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="254">
   <si>
     <t>question</t>
   </si>
@@ -406,6 +406,390 @@
   </si>
   <si>
     <t>nok</t>
+  </si>
+  <si>
+    <t>Область применения системы ЛО/ТО:</t>
+  </si>
+  <si>
+    <t>Плановые, регламентированные действия при эксплуатации оборудования, при которых исключаетсявоздействие опасной энергии на людей, производящих работы.</t>
+  </si>
+  <si>
+    <t>Плановые, регламентированные действия при обслуживании, ремонте настройке оборудования, которые ввиду конструктивных особенностей или специфики технологического процесса производятся на работающем оборудовании.</t>
+  </si>
+  <si>
+    <t>Все вышеперечисленное.</t>
+  </si>
+  <si>
+    <t>Метод контроля кинетической энергии:</t>
+  </si>
+  <si>
+    <t>Остановить работу оборудования органами оперативного управления, разобрать электрическую схему (при необходимости откинуть концы проводов), заблокировать. Произвести пробный пуск органами оперативного управления.</t>
+  </si>
+  <si>
+    <t>Каждый случай должен быть индивидуально проанализирован (блокировка нагнетающего насоса, изоляция труб, очистка линий и резервуаров).</t>
+  </si>
+  <si>
+    <t>Высвобождение накопленной энергии в процессе подготовки рабочего места, блокировка ЛО/ТО-точек, потенциально влияющих на участок производства работ.</t>
+  </si>
+  <si>
+    <t>В случае использования многоразовой не персонализированной бирки маркером заполняются соответствующие строки и вписывается следующая информация:</t>
+  </si>
+  <si>
+    <t>Только ФИО, должность, установившего данный замок.</t>
+  </si>
+  <si>
+    <t>Только служба (цех, подразделение), в которой работает установивший.</t>
+  </si>
+  <si>
+    <t>Нет правильных ответов.</t>
+  </si>
+  <si>
+    <t>Цвет замков электротехнического персонала:</t>
+  </si>
+  <si>
+    <t>Желтый.</t>
+  </si>
+  <si>
+    <t>Синий.</t>
+  </si>
+  <si>
+    <t>Красный.</t>
+  </si>
+  <si>
+    <t>Мастер смены является ответственным за:</t>
+  </si>
+  <si>
+    <t>Определение перечня, организацию мест, механизма хранения и выдачи ЛО/ТО-оборудования.</t>
+  </si>
+  <si>
+    <t>Сохранность выданного оборудования ЛО/ТО.</t>
+  </si>
+  <si>
+    <t>Методическую помощь в эксплуатации системы ЛО/ТО.</t>
+  </si>
+  <si>
+    <t>Вторичные (аккумулированные) виды энергий, которые могут стать источником опасных и вредных факторов со стороны оборудования:</t>
+  </si>
+  <si>
+    <t>Электрическая; гидравлическая (жидкости под давлением).</t>
+  </si>
+  <si>
+    <t>Газа (природного, технического); химическая энергия (химические вещества); механическая.</t>
+  </si>
+  <si>
+    <t>Механическая;  гидравлическая (жидкости под давлением).</t>
+  </si>
+  <si>
+    <t>ЛО/ТО-карты должны содержать следующую минимальную инфромацию:</t>
+  </si>
+  <si>
+    <t>Порядковый номер ЛО/ТО-карты; период действия ЛО/ТО-карты; отдельные указания по ЛО/ТО-карте.</t>
+  </si>
+  <si>
+    <t>Фотографию ЛО/ТО-точки; обозначение и номер блокируемой энергии в ЛО/ТО-точке (идентификационный номер ЛО/ТО-точки); место размещения ЛО/ТО-точки.</t>
+  </si>
+  <si>
+    <t>Название оборудования/вида ремонта; месторасположения оборудования/производства работ;  сводные данные по опасностям на месте производства работ.</t>
+  </si>
+  <si>
+    <t>Что означает термин LO/TO-точка?</t>
+  </si>
+  <si>
+    <t>Место, где хранится групповой ЛОК-Бокс с ключами от заблокированного оборудования.</t>
+  </si>
+  <si>
+    <t>Место крепления таблички об опасности.</t>
+  </si>
+  <si>
+    <t>Нет правильного варианта.</t>
+  </si>
+  <si>
+    <t>Дайте определение понятию "ЛОК-БОКС":</t>
+  </si>
+  <si>
+    <t>Блокировочное устройство с несколькими отверстиями, позволяющее блокировать LO/TO-точку.</t>
+  </si>
+  <si>
+    <t>Ящик для хранения блокираторов, замков и бирок информационных</t>
+  </si>
+  <si>
+    <t>Организованное и визуально обозначенное место хранения устройств ЛО/ТО и документации, относящейся к процедуре ЛО/ТО.</t>
+  </si>
+  <si>
+    <t>Цвет блокировочного замка:</t>
+  </si>
+  <si>
+    <t>Черный.</t>
+  </si>
+  <si>
+    <t>Может ли непосредственный руководитель забрать ключ от индивидуального замка у члена бригады, пока тот находится в опасной зоне производства работ?</t>
+  </si>
+  <si>
+    <t>Да, так как он занимает руководящую должность.</t>
+  </si>
+  <si>
+    <t>Да, так как является ответственным лицом.</t>
+  </si>
+  <si>
+    <t>Да, если поступит такое распоряжение.</t>
+  </si>
+  <si>
+    <t>Белые замки - это..</t>
+  </si>
+  <si>
+    <t>Замки подрядной организации.</t>
+  </si>
+  <si>
+    <t>Замки ремнотного персонала.</t>
+  </si>
+  <si>
+    <t>Где находятся ключи от индивидуальных замков во время работ, выполняемых с несколькими ЛО/ТО-точками и несколькими членами бригады или несколькими бригадами?</t>
+  </si>
+  <si>
+    <t>У руководителя работ.</t>
+  </si>
+  <si>
+    <t>У лица, ответственного за безопасность производства работ.</t>
+  </si>
+  <si>
+    <t>В ЛОК-БОКСе.</t>
+  </si>
+  <si>
+    <t>Дайте определение понятию "предупреждающая бирка":</t>
+  </si>
+  <si>
+    <t>Бирка, расположенная в месте отключения источника энергии и содержащая графическую информацию о типе энергии, цветовое обозначение риска, буквенную аббревиатуру типа энергии  и номер LO/TO-точки</t>
+  </si>
+  <si>
+    <t>Табличка, информирующая о проведении ремонтных работ на оборудовании.</t>
+  </si>
+  <si>
+    <t>На какие группы делятся замки в системе LO/TO?</t>
+  </si>
+  <si>
+    <t>Стандартные / Индивидуальные.</t>
+  </si>
+  <si>
+    <t>Стандартные / Диэлектрические.</t>
+  </si>
+  <si>
+    <t>Контрольные / Блокирующие.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо строго соблюдать последовательность выполнения.. </t>
+  </si>
+  <si>
+    <t>Проверки- маркировки - блокировки.</t>
+  </si>
+  <si>
+    <t>Наряда-допуска  - маркировки - блокировки.</t>
+  </si>
+  <si>
+    <t>Блокировки - маркировки - проверки.</t>
+  </si>
+  <si>
+    <t>Вы ответственный за безопасность производства работ, но в работах участвовать не будете, Ваши действия?</t>
+  </si>
+  <si>
+    <t>Не буду блокировать замковый множитель или ЛОК-Бокс контрольным белым замком или индивидуальным синим, ведь меня не будет в опасной зоне производства работ.</t>
+  </si>
+  <si>
+    <t>Назначу другого ответственного.</t>
+  </si>
+  <si>
+    <t>Что означает наличие замка красного цвета?</t>
+  </si>
+  <si>
+    <t>Оборудование отремонтировано.</t>
+  </si>
+  <si>
+    <t>Оборудование неисправно.</t>
+  </si>
+  <si>
+    <t>Что делать, если на ЛО/ТО-точку не установить замок блокиратор или индивидуальный замок?</t>
+  </si>
+  <si>
+    <t>Необходимо спросить у непосредственного руководителя.</t>
+  </si>
+  <si>
+    <t>Нет необходимости блокировать, ведь ЛО/ТО-точка не приспособлена для этого.</t>
+  </si>
+  <si>
+    <t>Какого цвета замки подрядчиков АО “Кавминстекло”?</t>
+  </si>
+  <si>
+    <t>Белые.</t>
+  </si>
+  <si>
+    <t>Желтые.</t>
+  </si>
+  <si>
+    <t>Синие.</t>
+  </si>
+  <si>
+    <t>Блокиратор, блокирующее устройство - это..</t>
+  </si>
+  <si>
+    <t>Устройство, позволяющее устанавливать несколько замков на одной проушине. Применяется в случаях, когда блокировка одной ЛО/ТО-точки должна быть выполнена несколькими сотрудниками или когда на ЛОК-БОКСе не хватает проушин.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Замки красного цвета, выдающиеся вместе с блокираторами (и по количеству блокираторов), навешиваемые на блокирующие устройства. </t>
+  </si>
+  <si>
+    <t>Блокировочный ЛОК-БОКС для хранения ключей от заблокированных ЛО/ТО-точек, блокируемый персональными замками для предотвращения несанкционированного доступа к ключам от блокировочных замков красного цвета.</t>
+  </si>
+  <si>
+    <t>Как узнать какой блокиратор потребуется для блокировки LO/TO-точки?</t>
+  </si>
+  <si>
+    <t>Выдающий наряд/распоряжение/задание должен указать какой блокиратор потребуется.</t>
+  </si>
+  <si>
+    <t>В наряде-допуске/распоряжении/задании будет указан тип блокирующего устройства.</t>
+  </si>
+  <si>
+    <t>Нет правильного ответа.</t>
+  </si>
+  <si>
+    <t>Идентификационный номер ЛО/ТО-точки состоит из..</t>
+  </si>
+  <si>
+    <t>Уникального номера из десяти цифр.</t>
+  </si>
+  <si>
+    <t>Буквенного обозначения энергии.</t>
+  </si>
+  <si>
+    <t>Порядкового номера ЛО/ТО-точки.</t>
+  </si>
+  <si>
+    <t>Где находятся ключи от красных блокировочных замков во время работ, выполняемых с несколькими ЛО/ТО-точками и несколькими членами бригады или несколькими бригадами?</t>
+  </si>
+  <si>
+    <t>У сотрудника, установившего этот замок.</t>
+  </si>
+  <si>
+    <t>Где находятся ключи от индивидуальных замков во время работ, выполняемых единолично с одной ЛО/ТО-точкой (запорная арматура)?</t>
+  </si>
+  <si>
+    <t>Надо ли снимать члену бригады индивидуальный замок с LOCK-BOX или замкового множителя при окончании рабочего дня, если работы еще не закончены и будут продолжены в следующую смену?</t>
+  </si>
+  <si>
+    <t>На усмотрение мастера смены.</t>
+  </si>
+  <si>
+    <t>Не надо, ведь работы еще не окончены и будут продолжены в следующую смену.</t>
+  </si>
+  <si>
+    <t>В зависимости от обстоятельств.</t>
+  </si>
+  <si>
+    <t>Нужна ли LO/TO-карта, если есть наряд-допуск?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет не нужна, потому что в наряде-допуске описано что необходимо блокировать. </t>
+  </si>
+  <si>
+    <t>Нужна, если работы ведутся подрядной организацией.</t>
+  </si>
+  <si>
+    <t>Кто является производителем работ?</t>
+  </si>
+  <si>
+    <t>Лица, отвечающие за выдачу задания на проведение работ.</t>
+  </si>
+  <si>
+    <t>И те, и другие.</t>
+  </si>
+  <si>
+    <t>Метод контроля химической энергии:</t>
+  </si>
+  <si>
+    <t>Позволить узлам оборудования полностью остановиться, предотвратить самопроизвольное движение под воздействием внешних сил, заблокировать ЛО/ТО-точку.</t>
+  </si>
+  <si>
+    <t>Руководитель структурного подразделения является ответственным за:</t>
+  </si>
+  <si>
+    <t>Осуществление контроля за исполнением системы ЛО/ТО, применение персоналом исправного ЛО/ТО-оборудования, в т.ч. наличия необходимого кол-ва.</t>
+  </si>
+  <si>
+    <t>Ответственность за несанкционированное снятие блокировки и маркировки.</t>
+  </si>
+  <si>
+    <t>ЛОТО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест на знание системы ЛОТО </t>
+  </si>
+  <si>
+    <t>Проведение плановых, капитальных ремонтов, а также при техническом, сервисном обслуживании оборудования, аварийных ремонтах оборудования, подключенного к любому источнику энергии.</t>
+  </si>
+  <si>
+    <t>И то, и другое.</t>
+  </si>
+  <si>
+    <t>Оранжевый.</t>
+  </si>
+  <si>
+    <t>Действия авторизированного и вовлеченного персонала, организацию и контроль выполнения всех мероприятий системы ЛО/ТО.</t>
+  </si>
+  <si>
+    <t>Механическая; повышенная температура; остаточное давление (жидкости, воздух, природный газ).</t>
+  </si>
+  <si>
+    <t>Место, в котором производится отключение источника энергии и выполнение блокировки.</t>
+  </si>
+  <si>
+    <t>Ящик для хранения ключей от заблокированных LO/TO-точек с возможностью установки индивидуальных замков безопасности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет, так как ключ от закрытого индивидуального замка хранится только у сотрудника, его установившего, и не передается третьим лицам.  </t>
+  </si>
+  <si>
+    <t>Замки Ответственного за безопасность производства работ.</t>
+  </si>
+  <si>
+    <t>Бирка, навешиваемая вместе с  блокираторами на LO/TO-точку, содержащая контактную информацию о сотруднике произведшим блокировку.</t>
+  </si>
+  <si>
+    <t>Индивидуальные / Блокирующие (замки-блокираторы).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверки - блокировки – маркировки. </t>
+  </si>
+  <si>
+    <t>Первым заблокирую замковый множитель или ЛОК-Бокс контрольным белым замком.</t>
+  </si>
+  <si>
+    <t>Оборудование заблокировано, ведутся работы.</t>
+  </si>
+  <si>
+    <t>Необходимо использовать специальное блокирующее устройство.</t>
+  </si>
+  <si>
+    <t>Черные.</t>
+  </si>
+  <si>
+    <t>Устройство, которое позволяет зафиксировать «устройство отключения энергии» в безопасном положении.</t>
+  </si>
+  <si>
+    <t>Для определения места расположения LO/TO-точки и типа блокирующего устройства используется LO/TO-карта.</t>
+  </si>
+  <si>
+    <t>Буквенно-цифрового обозначения типа энергии и порядкового номера ЛО/ТО-точки.</t>
+  </si>
+  <si>
+    <t>По окончании смены члены уходящей смены снимают свои индивидуальные замки с замкового множителя или ЛОК-БОКСа и размещают их в ЛО/ТО-пост.</t>
+  </si>
+  <si>
+    <t>Нужна, так как она содержит информацию о видах опасных энергий, полный перечень точек отключения и блокировки этих энергий, а также информацию о способе их блокировки.</t>
+  </si>
+  <si>
+    <t>Лица из числа работников структурного подразделения, отвечающего за техническое обслуживание закрепленного за ним оборудования, либо из числа сотрудников подрядной организации.</t>
+  </si>
+  <si>
+    <t>Разработку и актуализацию ЛО/ТО-карт при изменении конструкции ЛО/ТО-точек и необходимой документации, обучение персонала инструктаж.</t>
   </si>
 </sst>
 </file>
@@ -726,17 +1110,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C199" workbookViewId="0">
+      <selection activeCell="I208" sqref="I208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="124.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,6 +3095,2046 @@
       </c>
       <c r="E116" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" t="s">
+        <v>229</v>
+      </c>
+      <c r="E117" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>229</v>
+      </c>
+      <c r="E118" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" t="s">
+        <v>229</v>
+      </c>
+      <c r="E119" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" t="s">
+        <v>229</v>
+      </c>
+      <c r="E120" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" t="s">
+        <v>229</v>
+      </c>
+      <c r="E121" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>229</v>
+      </c>
+      <c r="E122" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" t="s">
+        <v>229</v>
+      </c>
+      <c r="E123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" t="s">
+        <v>229</v>
+      </c>
+      <c r="E124" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" t="s">
+        <v>229</v>
+      </c>
+      <c r="E125" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" t="s">
+        <v>125</v>
+      </c>
+      <c r="D126" t="s">
+        <v>229</v>
+      </c>
+      <c r="E126" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>229</v>
+      </c>
+      <c r="E127" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>125</v>
+      </c>
+      <c r="D128" t="s">
+        <v>229</v>
+      </c>
+      <c r="E128" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129" t="s">
+        <v>229</v>
+      </c>
+      <c r="E129" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" t="s">
+        <v>125</v>
+      </c>
+      <c r="D130" t="s">
+        <v>229</v>
+      </c>
+      <c r="E130" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" t="s">
+        <v>229</v>
+      </c>
+      <c r="E131" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>229</v>
+      </c>
+      <c r="E132" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>229</v>
+      </c>
+      <c r="E134" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" t="s">
+        <v>125</v>
+      </c>
+      <c r="D135" t="s">
+        <v>229</v>
+      </c>
+      <c r="E135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" t="s">
+        <v>125</v>
+      </c>
+      <c r="D136" t="s">
+        <v>229</v>
+      </c>
+      <c r="E136" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C137" t="s">
+        <v>125</v>
+      </c>
+      <c r="D137" t="s">
+        <v>229</v>
+      </c>
+      <c r="E137" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" t="s">
+        <v>125</v>
+      </c>
+      <c r="D138" t="s">
+        <v>229</v>
+      </c>
+      <c r="E138" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" t="s">
+        <v>125</v>
+      </c>
+      <c r="D139" t="s">
+        <v>229</v>
+      </c>
+      <c r="E139" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>229</v>
+      </c>
+      <c r="E140" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" t="s">
+        <v>229</v>
+      </c>
+      <c r="E141" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" t="s">
+        <v>125</v>
+      </c>
+      <c r="D142" t="s">
+        <v>229</v>
+      </c>
+      <c r="E142" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" t="s">
+        <v>125</v>
+      </c>
+      <c r="D143" t="s">
+        <v>229</v>
+      </c>
+      <c r="E143" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>229</v>
+      </c>
+      <c r="E144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" t="s">
+        <v>125</v>
+      </c>
+      <c r="D145" t="s">
+        <v>229</v>
+      </c>
+      <c r="E145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>229</v>
+      </c>
+      <c r="E146" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" t="s">
+        <v>125</v>
+      </c>
+      <c r="D147" t="s">
+        <v>229</v>
+      </c>
+      <c r="E147" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" t="s">
+        <v>125</v>
+      </c>
+      <c r="D148" t="s">
+        <v>229</v>
+      </c>
+      <c r="E148" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C149" t="s">
+        <v>125</v>
+      </c>
+      <c r="D149" t="s">
+        <v>229</v>
+      </c>
+      <c r="E149" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>229</v>
+      </c>
+      <c r="E150" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" t="s">
+        <v>125</v>
+      </c>
+      <c r="D151" t="s">
+        <v>229</v>
+      </c>
+      <c r="E151" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" t="s">
+        <v>125</v>
+      </c>
+      <c r="D152" t="s">
+        <v>229</v>
+      </c>
+      <c r="E152" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" t="s">
+        <v>125</v>
+      </c>
+      <c r="D153" t="s">
+        <v>229</v>
+      </c>
+      <c r="E153" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" t="s">
+        <v>125</v>
+      </c>
+      <c r="D154" t="s">
+        <v>229</v>
+      </c>
+      <c r="E154" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C155" t="s">
+        <v>125</v>
+      </c>
+      <c r="D155" t="s">
+        <v>229</v>
+      </c>
+      <c r="E155" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>229</v>
+      </c>
+      <c r="E156" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>229</v>
+      </c>
+      <c r="E157" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" t="s">
+        <v>125</v>
+      </c>
+      <c r="D158" t="s">
+        <v>229</v>
+      </c>
+      <c r="E158" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C159" t="s">
+        <v>125</v>
+      </c>
+      <c r="D159" t="s">
+        <v>229</v>
+      </c>
+      <c r="E159" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" t="s">
+        <v>125</v>
+      </c>
+      <c r="D160" t="s">
+        <v>229</v>
+      </c>
+      <c r="E160" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>229</v>
+      </c>
+      <c r="E161" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" t="s">
+        <v>125</v>
+      </c>
+      <c r="D162" t="s">
+        <v>229</v>
+      </c>
+      <c r="E162" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" t="s">
+        <v>125</v>
+      </c>
+      <c r="D163" t="s">
+        <v>229</v>
+      </c>
+      <c r="E163" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" t="s">
+        <v>125</v>
+      </c>
+      <c r="D164" t="s">
+        <v>229</v>
+      </c>
+      <c r="E164" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165" t="s">
+        <v>125</v>
+      </c>
+      <c r="D165" t="s">
+        <v>229</v>
+      </c>
+      <c r="E165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166" t="s">
+        <v>125</v>
+      </c>
+      <c r="D166" t="s">
+        <v>229</v>
+      </c>
+      <c r="E166" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>229</v>
+      </c>
+      <c r="E167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C168" t="s">
+        <v>125</v>
+      </c>
+      <c r="D168" t="s">
+        <v>229</v>
+      </c>
+      <c r="E168" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" t="s">
+        <v>125</v>
+      </c>
+      <c r="D169" t="s">
+        <v>229</v>
+      </c>
+      <c r="E169" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>229</v>
+      </c>
+      <c r="E170" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C171" t="s">
+        <v>125</v>
+      </c>
+      <c r="D171" t="s">
+        <v>229</v>
+      </c>
+      <c r="E171" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C172" t="s">
+        <v>125</v>
+      </c>
+      <c r="D172" t="s">
+        <v>229</v>
+      </c>
+      <c r="E172" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>229</v>
+      </c>
+      <c r="E173" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174" t="s">
+        <v>125</v>
+      </c>
+      <c r="D174" t="s">
+        <v>229</v>
+      </c>
+      <c r="E174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" t="s">
+        <v>125</v>
+      </c>
+      <c r="D175" t="s">
+        <v>229</v>
+      </c>
+      <c r="E175" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176" t="s">
+        <v>125</v>
+      </c>
+      <c r="D176" t="s">
+        <v>229</v>
+      </c>
+      <c r="E176" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>229</v>
+      </c>
+      <c r="E177" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178" t="s">
+        <v>125</v>
+      </c>
+      <c r="D178" t="s">
+        <v>229</v>
+      </c>
+      <c r="E178" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" t="s">
+        <v>125</v>
+      </c>
+      <c r="D179" t="s">
+        <v>229</v>
+      </c>
+      <c r="E179" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" t="s">
+        <v>125</v>
+      </c>
+      <c r="D180" t="s">
+        <v>229</v>
+      </c>
+      <c r="E180" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>229</v>
+      </c>
+      <c r="E181" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" t="s">
+        <v>125</v>
+      </c>
+      <c r="D182" t="s">
+        <v>229</v>
+      </c>
+      <c r="E182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" t="s">
+        <v>125</v>
+      </c>
+      <c r="D183" t="s">
+        <v>229</v>
+      </c>
+      <c r="E183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C184" t="s">
+        <v>125</v>
+      </c>
+      <c r="D184" t="s">
+        <v>229</v>
+      </c>
+      <c r="E184" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>229</v>
+      </c>
+      <c r="E185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186" t="s">
+        <v>125</v>
+      </c>
+      <c r="D186" t="s">
+        <v>229</v>
+      </c>
+      <c r="E186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C187" t="s">
+        <v>125</v>
+      </c>
+      <c r="D187" t="s">
+        <v>229</v>
+      </c>
+      <c r="E187" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C188" t="s">
+        <v>125</v>
+      </c>
+      <c r="D188" t="s">
+        <v>229</v>
+      </c>
+      <c r="E188" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C189" t="s">
+        <v>125</v>
+      </c>
+      <c r="D189" t="s">
+        <v>229</v>
+      </c>
+      <c r="E189" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>229</v>
+      </c>
+      <c r="E190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191" t="s">
+        <v>125</v>
+      </c>
+      <c r="D191" t="s">
+        <v>229</v>
+      </c>
+      <c r="E191" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C192" t="s">
+        <v>125</v>
+      </c>
+      <c r="D192" t="s">
+        <v>229</v>
+      </c>
+      <c r="E192" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C193" t="s">
+        <v>125</v>
+      </c>
+      <c r="D193" t="s">
+        <v>229</v>
+      </c>
+      <c r="E193" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194" t="s">
+        <v>125</v>
+      </c>
+      <c r="D194" t="s">
+        <v>229</v>
+      </c>
+      <c r="E194" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195" t="s">
+        <v>125</v>
+      </c>
+      <c r="D195" t="s">
+        <v>229</v>
+      </c>
+      <c r="E195" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>229</v>
+      </c>
+      <c r="E196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>229</v>
+      </c>
+      <c r="E197" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C198" t="s">
+        <v>125</v>
+      </c>
+      <c r="D198" t="s">
+        <v>229</v>
+      </c>
+      <c r="E198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" t="s">
+        <v>125</v>
+      </c>
+      <c r="D199" t="s">
+        <v>229</v>
+      </c>
+      <c r="E199" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" t="s">
+        <v>125</v>
+      </c>
+      <c r="D200" t="s">
+        <v>229</v>
+      </c>
+      <c r="E200" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C201" t="s">
+        <v>125</v>
+      </c>
+      <c r="D201" t="s">
+        <v>229</v>
+      </c>
+      <c r="E201" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202" t="s">
+        <v>125</v>
+      </c>
+      <c r="D202" t="s">
+        <v>229</v>
+      </c>
+      <c r="E202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>229</v>
+      </c>
+      <c r="E203" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" t="s">
+        <v>125</v>
+      </c>
+      <c r="D204" t="s">
+        <v>229</v>
+      </c>
+      <c r="E204" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C205" t="s">
+        <v>125</v>
+      </c>
+      <c r="D205" t="s">
+        <v>229</v>
+      </c>
+      <c r="E205" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206" t="s">
+        <v>125</v>
+      </c>
+      <c r="D206" t="s">
+        <v>229</v>
+      </c>
+      <c r="E206" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>229</v>
+      </c>
+      <c r="E207" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" t="s">
+        <v>125</v>
+      </c>
+      <c r="D208" t="s">
+        <v>229</v>
+      </c>
+      <c r="E208" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C209" t="s">
+        <v>125</v>
+      </c>
+      <c r="D209" t="s">
+        <v>229</v>
+      </c>
+      <c r="E209" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C210" t="s">
+        <v>125</v>
+      </c>
+      <c r="D210" t="s">
+        <v>229</v>
+      </c>
+      <c r="E210" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211" t="s">
+        <v>125</v>
+      </c>
+      <c r="D211" t="s">
+        <v>229</v>
+      </c>
+      <c r="E211" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>229</v>
+      </c>
+      <c r="E212" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C213" t="s">
+        <v>125</v>
+      </c>
+      <c r="D213" t="s">
+        <v>229</v>
+      </c>
+      <c r="E213" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>229</v>
+      </c>
+      <c r="E214" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C215" t="s">
+        <v>125</v>
+      </c>
+      <c r="D215" t="s">
+        <v>229</v>
+      </c>
+      <c r="E215" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C216" t="s">
+        <v>125</v>
+      </c>
+      <c r="D216" t="s">
+        <v>229</v>
+      </c>
+      <c r="E216" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C217" t="s">
+        <v>125</v>
+      </c>
+      <c r="D217" t="s">
+        <v>229</v>
+      </c>
+      <c r="E217" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>214</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C218" t="s">
+        <v>125</v>
+      </c>
+      <c r="D218" t="s">
+        <v>229</v>
+      </c>
+      <c r="E218" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>214</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C219" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" t="s">
+        <v>229</v>
+      </c>
+      <c r="E219" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>214</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C220" t="s">
+        <v>125</v>
+      </c>
+      <c r="D220" t="s">
+        <v>229</v>
+      </c>
+      <c r="E220" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C221" t="s">
+        <v>125</v>
+      </c>
+      <c r="D221" t="s">
+        <v>229</v>
+      </c>
+      <c r="E221" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>218</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C222" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>229</v>
+      </c>
+      <c r="E222" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>218</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C223" t="s">
+        <v>125</v>
+      </c>
+      <c r="D223" t="s">
+        <v>229</v>
+      </c>
+      <c r="E223" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>218</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C224" t="s">
+        <v>125</v>
+      </c>
+      <c r="D224" t="s">
+        <v>229</v>
+      </c>
+      <c r="E224" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C225" t="s">
+        <v>125</v>
+      </c>
+      <c r="D225" t="s">
+        <v>229</v>
+      </c>
+      <c r="E225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>221</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>229</v>
+      </c>
+      <c r="E226" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>221</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C227" t="s">
+        <v>125</v>
+      </c>
+      <c r="D227" t="s">
+        <v>229</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>221</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C228" t="s">
+        <v>125</v>
+      </c>
+      <c r="D228" t="s">
+        <v>229</v>
+      </c>
+      <c r="E228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>224</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C229" t="s">
+        <v>125</v>
+      </c>
+      <c r="D229" t="s">
+        <v>229</v>
+      </c>
+      <c r="E229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>224</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C230" t="s">
+        <v>125</v>
+      </c>
+      <c r="D230" t="s">
+        <v>229</v>
+      </c>
+      <c r="E230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>224</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C231" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" t="s">
+        <v>229</v>
+      </c>
+      <c r="E231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>224</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C232" t="s">
+        <v>125</v>
+      </c>
+      <c r="D232" t="s">
+        <v>229</v>
+      </c>
+      <c r="E232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>226</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C233" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" t="s">
+        <v>229</v>
+      </c>
+      <c r="E233" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>226</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C234" t="s">
+        <v>125</v>
+      </c>
+      <c r="D234" t="s">
+        <v>229</v>
+      </c>
+      <c r="E234" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>226</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C235" t="s">
+        <v>125</v>
+      </c>
+      <c r="D235" t="s">
+        <v>229</v>
+      </c>
+      <c r="E235" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>226</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C236" t="s">
+        <v>125</v>
+      </c>
+      <c r="D236" t="s">
+        <v>229</v>
+      </c>
+      <c r="E236" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/dsfd.xlsx
+++ b/dsfd.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA6E02-52D2-487B-8A81-BD7632F6E021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F933DB5C-97C8-4BFA-9074-6AE2EA48095A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2385" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">questions!$A$1:$E$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">questions!$A$1:$F$116</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="255">
   <si>
     <t>question</t>
   </si>
@@ -790,16 +790,25 @@
   </si>
   <si>
     <t>Разработку и актуализацию ЛО/ТО-карт при изменении конструкции ЛО/ТО-точек и необходимой документации, обучение персонала инструктаж.</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1110,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C199" workbookViewId="0">
-      <selection activeCell="I208" sqref="I208"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,11 +1130,12 @@
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="124.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,13 +1146,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1152,14 +1165,17 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1169,14 +1185,17 @@
       <c r="C3" t="s">
         <v>125</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1186,14 +1205,17 @@
       <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1203,14 +1225,17 @@
       <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1220,14 +1245,17 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1237,14 +1265,17 @@
       <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1254,14 +1285,17 @@
       <c r="C8" t="s">
         <v>125</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1271,14 +1305,17 @@
       <c r="C9" t="s">
         <v>125</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1288,14 +1325,17 @@
       <c r="C10" t="s">
         <v>125</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1305,14 +1345,17 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1322,14 +1365,17 @@
       <c r="C12" t="s">
         <v>125</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1339,14 +1385,17 @@
       <c r="C13" t="s">
         <v>125</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1356,14 +1405,17 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1373,14 +1425,17 @@
       <c r="C15" t="s">
         <v>125</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1390,14 +1445,17 @@
       <c r="C16" t="s">
         <v>125</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1407,14 +1465,17 @@
       <c r="C17" t="s">
         <v>125</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1424,14 +1485,17 @@
       <c r="C18" t="s">
         <v>125</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1441,14 +1505,17 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1458,14 +1525,17 @@
       <c r="C20" t="s">
         <v>125</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1475,14 +1545,17 @@
       <c r="C21" t="s">
         <v>125</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1492,14 +1565,17 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1509,14 +1585,17 @@
       <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1526,14 +1605,17 @@
       <c r="C24" t="s">
         <v>125</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1543,14 +1625,17 @@
       <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1560,14 +1645,17 @@
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1577,14 +1665,17 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1594,14 +1685,17 @@
       <c r="C28" t="s">
         <v>125</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1611,14 +1705,17 @@
       <c r="C29" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1628,14 +1725,17 @@
       <c r="C30" t="s">
         <v>125</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1645,14 +1745,17 @@
       <c r="C31" t="s">
         <v>125</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1662,14 +1765,17 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1679,14 +1785,17 @@
       <c r="C33" t="s">
         <v>125</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1696,14 +1805,17 @@
       <c r="C34" t="s">
         <v>125</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1713,14 +1825,17 @@
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1730,14 +1845,17 @@
       <c r="C36" t="s">
         <v>125</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1747,14 +1865,17 @@
       <c r="C37" t="s">
         <v>125</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1764,14 +1885,17 @@
       <c r="C38" t="s">
         <v>125</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1781,14 +1905,17 @@
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1798,14 +1925,17 @@
       <c r="C40" t="s">
         <v>125</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1815,14 +1945,17 @@
       <c r="C41" t="s">
         <v>125</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
         <v>8</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1832,14 +1965,17 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
-        <v>45</v>
+      <c r="D42">
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1849,14 +1985,17 @@
       <c r="C43" t="s">
         <v>125</v>
       </c>
-      <c r="D43" t="s">
-        <v>45</v>
+      <c r="D43">
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1866,14 +2005,17 @@
       <c r="C44" t="s">
         <v>125</v>
       </c>
-      <c r="D44" t="s">
-        <v>45</v>
+      <c r="D44">
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1883,14 +2025,17 @@
       <c r="C45" t="s">
         <v>125</v>
       </c>
-      <c r="D45" t="s">
-        <v>45</v>
+      <c r="D45">
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1900,14 +2045,17 @@
       <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="D46" t="s">
-        <v>45</v>
+      <c r="D46">
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1917,14 +2065,17 @@
       <c r="C47" t="s">
         <v>125</v>
       </c>
-      <c r="D47" t="s">
-        <v>45</v>
+      <c r="D47">
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1934,14 +2085,17 @@
       <c r="C48" t="s">
         <v>125</v>
       </c>
-      <c r="D48" t="s">
-        <v>45</v>
+      <c r="D48">
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1951,14 +2105,17 @@
       <c r="C49" t="s">
         <v>125</v>
       </c>
-      <c r="D49" t="s">
-        <v>45</v>
+      <c r="D49">
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1968,14 +2125,17 @@
       <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="D50" t="s">
-        <v>45</v>
+      <c r="D50">
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1985,14 +2145,17 @@
       <c r="C51" t="s">
         <v>125</v>
       </c>
-      <c r="D51" t="s">
-        <v>45</v>
+      <c r="D51">
+        <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2002,14 +2165,17 @@
       <c r="C52" t="s">
         <v>125</v>
       </c>
-      <c r="D52" t="s">
-        <v>45</v>
+      <c r="D52">
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2019,14 +2185,17 @@
       <c r="C53" t="s">
         <v>125</v>
       </c>
-      <c r="D53" t="s">
-        <v>45</v>
+      <c r="D53">
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2036,14 +2205,17 @@
       <c r="C54" t="s">
         <v>125</v>
       </c>
-      <c r="D54" t="s">
-        <v>45</v>
+      <c r="D54">
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2053,14 +2225,17 @@
       <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="D55" t="s">
-        <v>45</v>
+      <c r="D55">
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2070,14 +2245,17 @@
       <c r="C56" t="s">
         <v>125</v>
       </c>
-      <c r="D56" t="s">
-        <v>45</v>
+      <c r="D56">
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2087,14 +2265,17 @@
       <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57" t="s">
-        <v>45</v>
+      <c r="D57">
+        <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2104,14 +2285,17 @@
       <c r="C58" t="s">
         <v>125</v>
       </c>
-      <c r="D58" t="s">
-        <v>45</v>
+      <c r="D58">
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2121,14 +2305,17 @@
       <c r="C59" t="s">
         <v>125</v>
       </c>
-      <c r="D59" t="s">
-        <v>45</v>
+      <c r="D59">
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2138,14 +2325,17 @@
       <c r="C60" t="s">
         <v>125</v>
       </c>
-      <c r="D60" t="s">
-        <v>45</v>
+      <c r="D60">
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2155,14 +2345,17 @@
       <c r="C61" t="s">
         <v>125</v>
       </c>
-      <c r="D61" t="s">
-        <v>45</v>
+      <c r="D61">
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2172,14 +2365,17 @@
       <c r="C62" t="s">
         <v>125</v>
       </c>
-      <c r="D62" t="s">
-        <v>45</v>
+      <c r="D62">
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2189,14 +2385,17 @@
       <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D63" t="s">
-        <v>45</v>
+      <c r="D63">
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2206,14 +2405,17 @@
       <c r="C64" t="s">
         <v>125</v>
       </c>
-      <c r="D64" t="s">
-        <v>45</v>
+      <c r="D64">
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2223,14 +2425,17 @@
       <c r="C65" t="s">
         <v>125</v>
       </c>
-      <c r="D65" t="s">
-        <v>45</v>
+      <c r="D65">
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2240,14 +2445,17 @@
       <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="D66" t="s">
-        <v>45</v>
+      <c r="D66">
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2257,14 +2465,17 @@
       <c r="C67" t="s">
         <v>125</v>
       </c>
-      <c r="D67" t="s">
-        <v>45</v>
+      <c r="D67">
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2274,14 +2485,17 @@
       <c r="C68" t="s">
         <v>125</v>
       </c>
-      <c r="D68" t="s">
-        <v>45</v>
+      <c r="D68">
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2291,14 +2505,17 @@
       <c r="C69" t="s">
         <v>125</v>
       </c>
-      <c r="D69" t="s">
-        <v>45</v>
+      <c r="D69">
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2308,14 +2525,17 @@
       <c r="C70" t="s">
         <v>7</v>
       </c>
-      <c r="D70" t="s">
-        <v>45</v>
+      <c r="D70">
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2325,14 +2545,17 @@
       <c r="C71" t="s">
         <v>125</v>
       </c>
-      <c r="D71" t="s">
-        <v>45</v>
+      <c r="D71">
+        <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2342,14 +2565,17 @@
       <c r="C72" t="s">
         <v>125</v>
       </c>
-      <c r="D72" t="s">
-        <v>45</v>
+      <c r="D72">
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2359,14 +2585,17 @@
       <c r="C73" t="s">
         <v>7</v>
       </c>
-      <c r="D73" t="s">
-        <v>45</v>
+      <c r="D73">
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2376,14 +2605,17 @@
       <c r="C74" t="s">
         <v>125</v>
       </c>
-      <c r="D74" t="s">
-        <v>45</v>
+      <c r="D74">
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2393,14 +2625,17 @@
       <c r="C75" t="s">
         <v>125</v>
       </c>
-      <c r="D75" t="s">
-        <v>45</v>
+      <c r="D75">
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2410,14 +2645,17 @@
       <c r="C76" t="s">
         <v>125</v>
       </c>
-      <c r="D76" t="s">
-        <v>45</v>
+      <c r="D76">
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2427,14 +2665,17 @@
       <c r="C77" t="s">
         <v>7</v>
       </c>
-      <c r="D77" t="s">
-        <v>45</v>
+      <c r="D77">
+        <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2444,14 +2685,17 @@
       <c r="C78" t="s">
         <v>125</v>
       </c>
-      <c r="D78" t="s">
-        <v>45</v>
+      <c r="D78">
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2461,14 +2705,17 @@
       <c r="C79" t="s">
         <v>125</v>
       </c>
-      <c r="D79" t="s">
-        <v>45</v>
+      <c r="D79">
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2478,14 +2725,17 @@
       <c r="C80" t="s">
         <v>125</v>
       </c>
-      <c r="D80" t="s">
-        <v>45</v>
+      <c r="D80">
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2495,14 +2745,17 @@
       <c r="C81" t="s">
         <v>7</v>
       </c>
-      <c r="D81" t="s">
-        <v>45</v>
+      <c r="D81">
+        <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2512,14 +2765,17 @@
       <c r="C82" t="s">
         <v>125</v>
       </c>
-      <c r="D82" t="s">
-        <v>45</v>
+      <c r="D82">
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2529,14 +2785,17 @@
       <c r="C83" t="s">
         <v>125</v>
       </c>
-      <c r="D83" t="s">
-        <v>45</v>
+      <c r="D83">
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2546,14 +2805,17 @@
       <c r="C84" t="s">
         <v>125</v>
       </c>
-      <c r="D84" t="s">
-        <v>45</v>
+      <c r="D84">
+        <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2563,14 +2825,17 @@
       <c r="C85" t="s">
         <v>7</v>
       </c>
-      <c r="D85" t="s">
-        <v>45</v>
+      <c r="D85">
+        <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2580,14 +2845,17 @@
       <c r="C86" t="s">
         <v>125</v>
       </c>
-      <c r="D86" t="s">
-        <v>45</v>
+      <c r="D86">
+        <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2597,14 +2865,17 @@
       <c r="C87" t="s">
         <v>125</v>
       </c>
-      <c r="D87" t="s">
-        <v>45</v>
+      <c r="D87">
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2614,14 +2885,17 @@
       <c r="C88" t="s">
         <v>125</v>
       </c>
-      <c r="D88" t="s">
-        <v>45</v>
+      <c r="D88">
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -2631,14 +2905,17 @@
       <c r="C89" t="s">
         <v>125</v>
       </c>
-      <c r="D89" t="s">
-        <v>45</v>
+      <c r="D89">
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2648,14 +2925,17 @@
       <c r="C90" t="s">
         <v>125</v>
       </c>
-      <c r="D90" t="s">
-        <v>45</v>
+      <c r="D90">
+        <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -2665,14 +2945,17 @@
       <c r="C91" t="s">
         <v>7</v>
       </c>
-      <c r="D91" t="s">
-        <v>45</v>
+      <c r="D91">
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2682,14 +2965,17 @@
       <c r="C92" t="s">
         <v>125</v>
       </c>
-      <c r="D92" t="s">
-        <v>45</v>
+      <c r="D92">
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -2699,14 +2985,17 @@
       <c r="C93" t="s">
         <v>125</v>
       </c>
-      <c r="D93" t="s">
-        <v>45</v>
+      <c r="D93">
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -2716,14 +3005,17 @@
       <c r="C94" t="s">
         <v>125</v>
       </c>
-      <c r="D94" t="s">
-        <v>45</v>
+      <c r="D94">
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2733,14 +3025,17 @@
       <c r="C95" t="s">
         <v>7</v>
       </c>
-      <c r="D95" t="s">
-        <v>45</v>
+      <c r="D95">
+        <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -2750,14 +3045,17 @@
       <c r="C96" t="s">
         <v>125</v>
       </c>
-      <c r="D96" t="s">
-        <v>45</v>
+      <c r="D96">
+        <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -2767,14 +3065,17 @@
       <c r="C97" t="s">
         <v>125</v>
       </c>
-      <c r="D97" t="s">
-        <v>45</v>
+      <c r="D97">
+        <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2784,14 +3085,17 @@
       <c r="C98" t="s">
         <v>7</v>
       </c>
-      <c r="D98" t="s">
-        <v>45</v>
+      <c r="D98">
+        <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2801,14 +3105,17 @@
       <c r="C99" t="s">
         <v>125</v>
       </c>
-      <c r="D99" t="s">
-        <v>45</v>
+      <c r="D99">
+        <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2818,14 +3125,17 @@
       <c r="C100" t="s">
         <v>125</v>
       </c>
-      <c r="D100" t="s">
-        <v>45</v>
+      <c r="D100">
+        <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2835,14 +3145,17 @@
       <c r="C101" t="s">
         <v>125</v>
       </c>
-      <c r="D101" t="s">
-        <v>45</v>
+      <c r="D101">
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -2852,14 +3165,17 @@
       <c r="C102" t="s">
         <v>7</v>
       </c>
-      <c r="D102" t="s">
-        <v>45</v>
+      <c r="D102">
+        <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2869,14 +3185,17 @@
       <c r="C103" t="s">
         <v>125</v>
       </c>
-      <c r="D103" t="s">
-        <v>45</v>
+      <c r="D103">
+        <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2886,14 +3205,17 @@
       <c r="C104" t="s">
         <v>125</v>
       </c>
-      <c r="D104" t="s">
-        <v>45</v>
+      <c r="D104">
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -2903,14 +3225,17 @@
       <c r="C105" t="s">
         <v>7</v>
       </c>
-      <c r="D105" t="s">
-        <v>45</v>
+      <c r="D105">
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2920,14 +3245,17 @@
       <c r="C106" t="s">
         <v>125</v>
       </c>
-      <c r="D106" t="s">
-        <v>45</v>
+      <c r="D106">
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -2937,14 +3265,17 @@
       <c r="C107" t="s">
         <v>125</v>
       </c>
-      <c r="D107" t="s">
-        <v>45</v>
+      <c r="D107">
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -2954,14 +3285,17 @@
       <c r="C108" t="s">
         <v>125</v>
       </c>
-      <c r="D108" t="s">
-        <v>45</v>
+      <c r="D108">
+        <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -2971,14 +3305,17 @@
       <c r="C109" t="s">
         <v>7</v>
       </c>
-      <c r="D109" t="s">
-        <v>45</v>
+      <c r="D109">
+        <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -2988,14 +3325,17 @@
       <c r="C110" t="s">
         <v>125</v>
       </c>
-      <c r="D110" t="s">
-        <v>45</v>
+      <c r="D110">
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3005,14 +3345,17 @@
       <c r="C111" t="s">
         <v>125</v>
       </c>
-      <c r="D111" t="s">
-        <v>45</v>
+      <c r="D111">
+        <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3022,14 +3365,17 @@
       <c r="C112" t="s">
         <v>7</v>
       </c>
-      <c r="D112" t="s">
-        <v>45</v>
+      <c r="D112">
+        <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -3039,14 +3385,17 @@
       <c r="C113" t="s">
         <v>125</v>
       </c>
-      <c r="D113" t="s">
-        <v>45</v>
+      <c r="D113">
+        <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -3056,14 +3405,17 @@
       <c r="C114" t="s">
         <v>125</v>
       </c>
-      <c r="D114" t="s">
-        <v>45</v>
+      <c r="D114">
+        <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -3073,14 +3425,17 @@
       <c r="C115" t="s">
         <v>7</v>
       </c>
-      <c r="D115" t="s">
-        <v>45</v>
+      <c r="D115">
+        <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3090,14 +3445,17 @@
       <c r="C116" t="s">
         <v>125</v>
       </c>
-      <c r="D116" t="s">
-        <v>45</v>
+      <c r="D116">
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -3107,14 +3465,17 @@
       <c r="C117" t="s">
         <v>125</v>
       </c>
-      <c r="D117" t="s">
-        <v>229</v>
+      <c r="D117">
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F117" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -3124,14 +3485,17 @@
       <c r="C118" t="s">
         <v>7</v>
       </c>
-      <c r="D118" t="s">
-        <v>229</v>
+      <c r="D118">
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F118" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -3141,14 +3505,17 @@
       <c r="C119" t="s">
         <v>125</v>
       </c>
-      <c r="D119" t="s">
-        <v>229</v>
+      <c r="D119">
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F119" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -3158,14 +3525,17 @@
       <c r="C120" t="s">
         <v>125</v>
       </c>
-      <c r="D120" t="s">
-        <v>229</v>
+      <c r="D120">
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F120" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -3175,14 +3545,17 @@
       <c r="C121" t="s">
         <v>125</v>
       </c>
-      <c r="D121" t="s">
-        <v>229</v>
+      <c r="D121">
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F121" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -3192,14 +3565,17 @@
       <c r="C122" t="s">
         <v>7</v>
       </c>
-      <c r="D122" t="s">
-        <v>229</v>
+      <c r="D122">
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F122" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -3209,14 +3585,17 @@
       <c r="C123" t="s">
         <v>125</v>
       </c>
-      <c r="D123" t="s">
-        <v>229</v>
+      <c r="D123">
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -3226,14 +3605,17 @@
       <c r="C124" t="s">
         <v>125</v>
       </c>
-      <c r="D124" t="s">
-        <v>229</v>
+      <c r="D124">
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F124" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -3243,14 +3625,17 @@
       <c r="C125" t="s">
         <v>125</v>
       </c>
-      <c r="D125" t="s">
-        <v>229</v>
+      <c r="D125">
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F125" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -3260,14 +3645,17 @@
       <c r="C126" t="s">
         <v>125</v>
       </c>
-      <c r="D126" t="s">
-        <v>229</v>
+      <c r="D126">
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F126" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -3277,14 +3665,17 @@
       <c r="C127" t="s">
         <v>7</v>
       </c>
-      <c r="D127" t="s">
-        <v>229</v>
+      <c r="D127">
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F127" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -3294,14 +3685,17 @@
       <c r="C128" t="s">
         <v>125</v>
       </c>
-      <c r="D128" t="s">
-        <v>229</v>
+      <c r="D128">
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F128" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -3311,14 +3705,17 @@
       <c r="C129" t="s">
         <v>125</v>
       </c>
-      <c r="D129" t="s">
-        <v>229</v>
+      <c r="D129">
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F129" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -3328,14 +3725,17 @@
       <c r="C130" t="s">
         <v>125</v>
       </c>
-      <c r="D130" t="s">
-        <v>229</v>
+      <c r="D130">
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F130" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -3345,14 +3745,17 @@
       <c r="C131" t="s">
         <v>125</v>
       </c>
-      <c r="D131" t="s">
-        <v>229</v>
+      <c r="D131">
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F131" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -3362,14 +3765,17 @@
       <c r="C132" t="s">
         <v>7</v>
       </c>
-      <c r="D132" t="s">
-        <v>229</v>
+      <c r="D132">
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F132" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -3379,14 +3785,17 @@
       <c r="C133" t="s">
         <v>125</v>
       </c>
-      <c r="D133" t="s">
-        <v>229</v>
+      <c r="D133">
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -3396,14 +3805,17 @@
       <c r="C134" t="s">
         <v>7</v>
       </c>
-      <c r="D134" t="s">
-        <v>229</v>
+      <c r="D134">
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F134" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -3413,14 +3825,17 @@
       <c r="C135" t="s">
         <v>125</v>
       </c>
-      <c r="D135" t="s">
-        <v>229</v>
+      <c r="D135">
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -3430,14 +3845,17 @@
       <c r="C136" t="s">
         <v>125</v>
       </c>
-      <c r="D136" t="s">
-        <v>229</v>
+      <c r="D136">
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F136" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -3447,14 +3865,17 @@
       <c r="C137" t="s">
         <v>125</v>
       </c>
-      <c r="D137" t="s">
-        <v>229</v>
+      <c r="D137">
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F137" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -3464,14 +3885,17 @@
       <c r="C138" t="s">
         <v>125</v>
       </c>
-      <c r="D138" t="s">
-        <v>229</v>
+      <c r="D138">
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F138" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -3481,14 +3905,17 @@
       <c r="C139" t="s">
         <v>125</v>
       </c>
-      <c r="D139" t="s">
-        <v>229</v>
+      <c r="D139">
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F139" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -3498,14 +3925,17 @@
       <c r="C140" t="s">
         <v>7</v>
       </c>
-      <c r="D140" t="s">
-        <v>229</v>
+      <c r="D140">
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F140" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -3515,14 +3945,17 @@
       <c r="C141" t="s">
         <v>125</v>
       </c>
-      <c r="D141" t="s">
-        <v>229</v>
+      <c r="D141">
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F141" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -3532,14 +3965,17 @@
       <c r="C142" t="s">
         <v>125</v>
       </c>
-      <c r="D142" t="s">
-        <v>229</v>
+      <c r="D142">
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F142" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -3549,14 +3985,17 @@
       <c r="C143" t="s">
         <v>125</v>
       </c>
-      <c r="D143" t="s">
-        <v>229</v>
+      <c r="D143">
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F143" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -3566,14 +4005,17 @@
       <c r="C144" t="s">
         <v>7</v>
       </c>
-      <c r="D144" t="s">
-        <v>229</v>
+      <c r="D144">
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -3583,14 +4025,17 @@
       <c r="C145" t="s">
         <v>125</v>
       </c>
-      <c r="D145" t="s">
-        <v>229</v>
+      <c r="D145">
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -3600,14 +4045,17 @@
       <c r="C146" t="s">
         <v>7</v>
       </c>
-      <c r="D146" t="s">
-        <v>229</v>
+      <c r="D146">
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F146" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>154</v>
       </c>
@@ -3617,14 +4065,17 @@
       <c r="C147" t="s">
         <v>125</v>
       </c>
-      <c r="D147" t="s">
-        <v>229</v>
+      <c r="D147">
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F147" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -3634,14 +4085,17 @@
       <c r="C148" t="s">
         <v>125</v>
       </c>
-      <c r="D148" t="s">
-        <v>229</v>
+      <c r="D148">
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F148" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -3651,14 +4105,17 @@
       <c r="C149" t="s">
         <v>125</v>
       </c>
-      <c r="D149" t="s">
-        <v>229</v>
+      <c r="D149">
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F149" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -3668,14 +4125,17 @@
       <c r="C150" t="s">
         <v>7</v>
       </c>
-      <c r="D150" t="s">
-        <v>229</v>
+      <c r="D150">
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F150" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -3685,14 +4145,17 @@
       <c r="C151" t="s">
         <v>125</v>
       </c>
-      <c r="D151" t="s">
-        <v>229</v>
+      <c r="D151">
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F151" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -3702,14 +4165,17 @@
       <c r="C152" t="s">
         <v>125</v>
       </c>
-      <c r="D152" t="s">
-        <v>229</v>
+      <c r="D152">
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F152" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -3719,14 +4185,17 @@
       <c r="C153" t="s">
         <v>125</v>
       </c>
-      <c r="D153" t="s">
-        <v>229</v>
+      <c r="D153">
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F153" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -3736,14 +4205,17 @@
       <c r="C154" t="s">
         <v>125</v>
       </c>
-      <c r="D154" t="s">
-        <v>229</v>
+      <c r="D154">
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F154" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -3753,14 +4225,17 @@
       <c r="C155" t="s">
         <v>125</v>
       </c>
-      <c r="D155" t="s">
-        <v>229</v>
+      <c r="D155">
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F155" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -3770,14 +4245,17 @@
       <c r="C156" t="s">
         <v>7</v>
       </c>
-      <c r="D156" t="s">
-        <v>229</v>
+      <c r="D156">
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F156" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -3787,14 +4265,17 @@
       <c r="C157" t="s">
         <v>7</v>
       </c>
-      <c r="D157" t="s">
-        <v>229</v>
+      <c r="D157">
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F157" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -3804,14 +4285,17 @@
       <c r="C158" t="s">
         <v>125</v>
       </c>
-      <c r="D158" t="s">
-        <v>229</v>
+      <c r="D158">
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F158" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -3821,14 +4305,17 @@
       <c r="C159" t="s">
         <v>125</v>
       </c>
-      <c r="D159" t="s">
-        <v>229</v>
+      <c r="D159">
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F159" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -3838,14 +4325,17 @@
       <c r="C160" t="s">
         <v>125</v>
       </c>
-      <c r="D160" t="s">
-        <v>229</v>
+      <c r="D160">
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F160" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -3855,14 +4345,17 @@
       <c r="C161" t="s">
         <v>7</v>
       </c>
-      <c r="D161" t="s">
-        <v>229</v>
+      <c r="D161">
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F161" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -3872,14 +4365,17 @@
       <c r="C162" t="s">
         <v>125</v>
       </c>
-      <c r="D162" t="s">
-        <v>229</v>
+      <c r="D162">
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F162" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -3889,14 +4385,17 @@
       <c r="C163" t="s">
         <v>125</v>
       </c>
-      <c r="D163" t="s">
-        <v>229</v>
+      <c r="D163">
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F163" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -3906,14 +4405,17 @@
       <c r="C164" t="s">
         <v>125</v>
       </c>
-      <c r="D164" t="s">
-        <v>229</v>
+      <c r="D164">
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F164" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -3923,14 +4425,17 @@
       <c r="C165" t="s">
         <v>125</v>
       </c>
-      <c r="D165" t="s">
-        <v>229</v>
+      <c r="D165">
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -3940,14 +4445,17 @@
       <c r="C166" t="s">
         <v>125</v>
       </c>
-      <c r="D166" t="s">
-        <v>229</v>
+      <c r="D166">
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F166" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -3957,14 +4465,17 @@
       <c r="C167" t="s">
         <v>7</v>
       </c>
-      <c r="D167" t="s">
-        <v>229</v>
+      <c r="D167">
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -3974,14 +4485,17 @@
       <c r="C168" t="s">
         <v>125</v>
       </c>
-      <c r="D168" t="s">
-        <v>229</v>
+      <c r="D168">
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F168" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -3991,14 +4505,17 @@
       <c r="C169" t="s">
         <v>125</v>
       </c>
-      <c r="D169" t="s">
-        <v>229</v>
+      <c r="D169">
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F169" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -4008,14 +4525,17 @@
       <c r="C170" t="s">
         <v>7</v>
       </c>
-      <c r="D170" t="s">
-        <v>229</v>
+      <c r="D170">
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F170" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -4025,14 +4545,17 @@
       <c r="C171" t="s">
         <v>125</v>
       </c>
-      <c r="D171" t="s">
-        <v>229</v>
+      <c r="D171">
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F171" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -4042,14 +4565,17 @@
       <c r="C172" t="s">
         <v>125</v>
       </c>
-      <c r="D172" t="s">
-        <v>229</v>
+      <c r="D172">
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F172" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -4059,14 +4585,17 @@
       <c r="C173" t="s">
         <v>7</v>
       </c>
-      <c r="D173" t="s">
-        <v>229</v>
+      <c r="D173">
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F173" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>178</v>
       </c>
@@ -4076,14 +4605,17 @@
       <c r="C174" t="s">
         <v>125</v>
       </c>
-      <c r="D174" t="s">
-        <v>229</v>
+      <c r="D174">
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -4093,14 +4625,17 @@
       <c r="C175" t="s">
         <v>125</v>
       </c>
-      <c r="D175" t="s">
-        <v>229</v>
+      <c r="D175">
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F175" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -4110,14 +4645,17 @@
       <c r="C176" t="s">
         <v>125</v>
       </c>
-      <c r="D176" t="s">
-        <v>229</v>
+      <c r="D176">
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F176" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -4127,14 +4665,17 @@
       <c r="C177" t="s">
         <v>7</v>
       </c>
-      <c r="D177" t="s">
-        <v>229</v>
+      <c r="D177">
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F177" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>182</v>
       </c>
@@ -4144,14 +4685,17 @@
       <c r="C178" t="s">
         <v>125</v>
       </c>
-      <c r="D178" t="s">
-        <v>229</v>
+      <c r="D178">
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F178" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -4161,14 +4705,17 @@
       <c r="C179" t="s">
         <v>125</v>
       </c>
-      <c r="D179" t="s">
-        <v>229</v>
+      <c r="D179">
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F179" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -4178,14 +4725,17 @@
       <c r="C180" t="s">
         <v>125</v>
       </c>
-      <c r="D180" t="s">
-        <v>229</v>
+      <c r="D180">
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F180" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -4195,14 +4745,17 @@
       <c r="C181" t="s">
         <v>7</v>
       </c>
-      <c r="D181" t="s">
-        <v>229</v>
+      <c r="D181">
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F181" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>186</v>
       </c>
@@ -4212,14 +4765,17 @@
       <c r="C182" t="s">
         <v>125</v>
       </c>
-      <c r="D182" t="s">
-        <v>229</v>
+      <c r="D182">
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -4229,14 +4785,17 @@
       <c r="C183" t="s">
         <v>125</v>
       </c>
-      <c r="D183" t="s">
-        <v>229</v>
+      <c r="D183">
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -4246,14 +4805,17 @@
       <c r="C184" t="s">
         <v>125</v>
       </c>
-      <c r="D184" t="s">
-        <v>229</v>
+      <c r="D184">
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F184" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>189</v>
       </c>
@@ -4263,14 +4825,17 @@
       <c r="C185" t="s">
         <v>7</v>
       </c>
-      <c r="D185" t="s">
-        <v>229</v>
+      <c r="D185">
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -4280,14 +4845,17 @@
       <c r="C186" t="s">
         <v>125</v>
       </c>
-      <c r="D186" t="s">
-        <v>229</v>
+      <c r="D186">
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -4297,14 +4865,17 @@
       <c r="C187" t="s">
         <v>125</v>
       </c>
-      <c r="D187" t="s">
-        <v>229</v>
+      <c r="D187">
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F187" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -4314,14 +4885,17 @@
       <c r="C188" t="s">
         <v>125</v>
       </c>
-      <c r="D188" t="s">
-        <v>229</v>
+      <c r="D188">
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F188" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -4331,14 +4905,17 @@
       <c r="C189" t="s">
         <v>125</v>
       </c>
-      <c r="D189" t="s">
-        <v>229</v>
+      <c r="D189">
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F189" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -4348,14 +4925,17 @@
       <c r="C190" t="s">
         <v>7</v>
       </c>
-      <c r="D190" t="s">
-        <v>229</v>
+      <c r="D190">
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -4365,14 +4945,17 @@
       <c r="C191" t="s">
         <v>125</v>
       </c>
-      <c r="D191" t="s">
-        <v>229</v>
+      <c r="D191">
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F191" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -4382,14 +4965,17 @@
       <c r="C192" t="s">
         <v>125</v>
       </c>
-      <c r="D192" t="s">
-        <v>229</v>
+      <c r="D192">
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F192" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -4399,14 +4985,17 @@
       <c r="C193" t="s">
         <v>125</v>
       </c>
-      <c r="D193" t="s">
-        <v>229</v>
+      <c r="D193">
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F193" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -4416,14 +5005,17 @@
       <c r="C194" t="s">
         <v>125</v>
       </c>
-      <c r="D194" t="s">
-        <v>229</v>
+      <c r="D194">
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F194" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -4433,14 +5025,17 @@
       <c r="C195" t="s">
         <v>125</v>
       </c>
-      <c r="D195" t="s">
-        <v>229</v>
+      <c r="D195">
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F195" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4450,14 +5045,17 @@
       <c r="C196" t="s">
         <v>7</v>
       </c>
-      <c r="D196" t="s">
-        <v>229</v>
+      <c r="D196">
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -4467,14 +5065,17 @@
       <c r="C197" t="s">
         <v>7</v>
       </c>
-      <c r="D197" t="s">
-        <v>229</v>
+      <c r="D197">
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F197" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -4484,14 +5085,17 @@
       <c r="C198" t="s">
         <v>125</v>
       </c>
-      <c r="D198" t="s">
-        <v>229</v>
+      <c r="D198">
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -4501,14 +5105,17 @@
       <c r="C199" t="s">
         <v>125</v>
       </c>
-      <c r="D199" t="s">
-        <v>229</v>
+      <c r="D199">
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F199" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4518,14 +5125,17 @@
       <c r="C200" t="s">
         <v>125</v>
       </c>
-      <c r="D200" t="s">
-        <v>229</v>
+      <c r="D200">
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F200" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -4535,14 +5145,17 @@
       <c r="C201" t="s">
         <v>125</v>
       </c>
-      <c r="D201" t="s">
-        <v>229</v>
+      <c r="D201">
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F201" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -4552,14 +5165,17 @@
       <c r="C202" t="s">
         <v>125</v>
       </c>
-      <c r="D202" t="s">
-        <v>229</v>
+      <c r="D202">
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -4569,14 +5185,17 @@
       <c r="C203" t="s">
         <v>7</v>
       </c>
-      <c r="D203" t="s">
-        <v>229</v>
+      <c r="D203">
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F203" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4586,14 +5205,17 @@
       <c r="C204" t="s">
         <v>125</v>
       </c>
-      <c r="D204" t="s">
-        <v>229</v>
+      <c r="D204">
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F204" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -4603,14 +5225,17 @@
       <c r="C205" t="s">
         <v>125</v>
       </c>
-      <c r="D205" t="s">
-        <v>229</v>
+      <c r="D205">
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F205" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -4620,14 +5245,17 @@
       <c r="C206" t="s">
         <v>125</v>
       </c>
-      <c r="D206" t="s">
-        <v>229</v>
+      <c r="D206">
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F206" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -4637,14 +5265,17 @@
       <c r="C207" t="s">
         <v>7</v>
       </c>
-      <c r="D207" t="s">
-        <v>229</v>
+      <c r="D207">
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F207" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4654,14 +5285,17 @@
       <c r="C208" t="s">
         <v>125</v>
       </c>
-      <c r="D208" t="s">
-        <v>229</v>
+      <c r="D208">
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F208" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -4671,14 +5305,17 @@
       <c r="C209" t="s">
         <v>125</v>
       </c>
-      <c r="D209" t="s">
-        <v>229</v>
+      <c r="D209">
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F209" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -4688,14 +5325,17 @@
       <c r="C210" t="s">
         <v>125</v>
       </c>
-      <c r="D210" t="s">
-        <v>229</v>
+      <c r="D210">
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F210" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -4705,14 +5345,17 @@
       <c r="C211" t="s">
         <v>125</v>
       </c>
-      <c r="D211" t="s">
-        <v>229</v>
+      <c r="D211">
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F211" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4722,14 +5365,17 @@
       <c r="C212" t="s">
         <v>7</v>
       </c>
-      <c r="D212" t="s">
-        <v>229</v>
+      <c r="D212">
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F212" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4739,14 +5385,17 @@
       <c r="C213" t="s">
         <v>125</v>
       </c>
-      <c r="D213" t="s">
-        <v>229</v>
+      <c r="D213">
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F213" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4756,14 +5405,17 @@
       <c r="C214" t="s">
         <v>7</v>
       </c>
-      <c r="D214" t="s">
-        <v>229</v>
+      <c r="D214">
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F214" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4773,14 +5425,17 @@
       <c r="C215" t="s">
         <v>125</v>
       </c>
-      <c r="D215" t="s">
-        <v>229</v>
+      <c r="D215">
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F215" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -4790,14 +5445,17 @@
       <c r="C216" t="s">
         <v>125</v>
       </c>
-      <c r="D216" t="s">
-        <v>229</v>
+      <c r="D216">
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F216" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -4807,14 +5465,17 @@
       <c r="C217" t="s">
         <v>125</v>
       </c>
-      <c r="D217" t="s">
-        <v>229</v>
+      <c r="D217">
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F217" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>214</v>
       </c>
@@ -4824,14 +5485,17 @@
       <c r="C218" t="s">
         <v>125</v>
       </c>
-      <c r="D218" t="s">
-        <v>229</v>
+      <c r="D218">
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F218" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>214</v>
       </c>
@@ -4841,14 +5505,17 @@
       <c r="C219" t="s">
         <v>7</v>
       </c>
-      <c r="D219" t="s">
-        <v>229</v>
+      <c r="D219">
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F219" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>214</v>
       </c>
@@ -4858,14 +5525,17 @@
       <c r="C220" t="s">
         <v>125</v>
       </c>
-      <c r="D220" t="s">
-        <v>229</v>
+      <c r="D220">
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F220" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -4875,14 +5545,17 @@
       <c r="C221" t="s">
         <v>125</v>
       </c>
-      <c r="D221" t="s">
-        <v>229</v>
+      <c r="D221">
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F221" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>218</v>
       </c>
@@ -4892,14 +5565,17 @@
       <c r="C222" t="s">
         <v>7</v>
       </c>
-      <c r="D222" t="s">
-        <v>229</v>
+      <c r="D222">
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F222" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>218</v>
       </c>
@@ -4909,14 +5585,17 @@
       <c r="C223" t="s">
         <v>125</v>
       </c>
-      <c r="D223" t="s">
-        <v>229</v>
+      <c r="D223">
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F223" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>218</v>
       </c>
@@ -4926,14 +5605,17 @@
       <c r="C224" t="s">
         <v>125</v>
       </c>
-      <c r="D224" t="s">
-        <v>229</v>
+      <c r="D224">
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F224" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>221</v>
       </c>
@@ -4943,14 +5625,17 @@
       <c r="C225" t="s">
         <v>125</v>
       </c>
-      <c r="D225" t="s">
-        <v>229</v>
+      <c r="D225">
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>221</v>
       </c>
@@ -4960,14 +5645,17 @@
       <c r="C226" t="s">
         <v>7</v>
       </c>
-      <c r="D226" t="s">
-        <v>229</v>
+      <c r="D226">
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F226" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>221</v>
       </c>
@@ -4977,14 +5665,17 @@
       <c r="C227" t="s">
         <v>125</v>
       </c>
-      <c r="D227" t="s">
-        <v>229</v>
+      <c r="D227">
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>221</v>
       </c>
@@ -4994,14 +5685,17 @@
       <c r="C228" t="s">
         <v>125</v>
       </c>
-      <c r="D228" t="s">
-        <v>229</v>
+      <c r="D228">
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>224</v>
       </c>
@@ -5011,14 +5705,17 @@
       <c r="C229" t="s">
         <v>125</v>
       </c>
-      <c r="D229" t="s">
-        <v>229</v>
+      <c r="D229">
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>224</v>
       </c>
@@ -5028,14 +5725,17 @@
       <c r="C230" t="s">
         <v>125</v>
       </c>
-      <c r="D230" t="s">
-        <v>229</v>
+      <c r="D230">
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>224</v>
       </c>
@@ -5045,14 +5745,17 @@
       <c r="C231" t="s">
         <v>7</v>
       </c>
-      <c r="D231" t="s">
-        <v>229</v>
+      <c r="D231">
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>224</v>
       </c>
@@ -5062,14 +5765,17 @@
       <c r="C232" t="s">
         <v>125</v>
       </c>
-      <c r="D232" t="s">
-        <v>229</v>
+      <c r="D232">
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>226</v>
       </c>
@@ -5079,14 +5785,17 @@
       <c r="C233" t="s">
         <v>7</v>
       </c>
-      <c r="D233" t="s">
-        <v>229</v>
+      <c r="D233">
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F233" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>226</v>
       </c>
@@ -5096,14 +5805,17 @@
       <c r="C234" t="s">
         <v>125</v>
       </c>
-      <c r="D234" t="s">
-        <v>229</v>
+      <c r="D234">
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F234" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>226</v>
       </c>
@@ -5113,14 +5825,17 @@
       <c r="C235" t="s">
         <v>125</v>
       </c>
-      <c r="D235" t="s">
-        <v>229</v>
+      <c r="D235">
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="F235" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>226</v>
       </c>
@@ -5130,15 +5845,19 @@
       <c r="C236" t="s">
         <v>125</v>
       </c>
-      <c r="D236" t="s">
-        <v>229</v>
+      <c r="D236">
+        <v>10</v>
       </c>
       <c r="E236" t="s">
+        <v>229</v>
+      </c>
+      <c r="F236" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E116" xr:uid="{1F154C20-1910-4F3F-8727-DD143094D7AC}"/>
+  <autoFilter ref="A1:F116" xr:uid="{1F154C20-1910-4F3F-8727-DD143094D7AC}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dsfd.xlsx
+++ b/dsfd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F933DB5C-97C8-4BFA-9074-6AE2EA48095A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DB404-226F-49EF-9AD2-C74FB8D3FD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">questions!$A$1:$F$116</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1119,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="D260" sqref="D260"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,8 +1138,8 @@
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="124.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5854,6 +5862,9 @@
       <c r="F236" t="s">
         <v>230</v>
       </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F116" xr:uid="{1F154C20-1910-4F3F-8727-DD143094D7AC}"/>

--- a/dsfd.xlsx
+++ b/dsfd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B9E818-5640-4C73-9D3D-0ABB255D5DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331E70DC-96C7-472E-99E1-F772314AC9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7333" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6853" uniqueCount="583">
   <si>
     <t>question</t>
   </si>
@@ -2186,7 +2186,7 @@
   <dimension ref="A1:P596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R227" sqref="R227"/>
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6002,7 +6002,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -6028,31 +6028,19 @@
         <v>572</v>
       </c>
       <c r="I77" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J77" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K77" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L77" t="s">
-        <v>574</v>
-      </c>
-      <c r="M77" t="s">
-        <v>575</v>
-      </c>
-      <c r="N77" t="s">
-        <v>576</v>
-      </c>
-      <c r="O77" t="s">
-        <v>577</v>
-      </c>
-      <c r="P77" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -6078,31 +6066,19 @@
         <v>572</v>
       </c>
       <c r="I78" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J78" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K78" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L78" t="s">
-        <v>574</v>
-      </c>
-      <c r="M78" t="s">
-        <v>575</v>
-      </c>
-      <c r="N78" t="s">
-        <v>576</v>
-      </c>
-      <c r="O78" t="s">
-        <v>577</v>
-      </c>
-      <c r="P78" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -6128,31 +6104,19 @@
         <v>572</v>
       </c>
       <c r="I79" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J79" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K79" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L79" t="s">
-        <v>574</v>
-      </c>
-      <c r="M79" t="s">
-        <v>575</v>
-      </c>
-      <c r="N79" t="s">
-        <v>576</v>
-      </c>
-      <c r="O79" t="s">
-        <v>577</v>
-      </c>
-      <c r="P79" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -6178,31 +6142,19 @@
         <v>572</v>
       </c>
       <c r="I80" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J80" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K80" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L80" t="s">
-        <v>574</v>
-      </c>
-      <c r="M80" t="s">
-        <v>575</v>
-      </c>
-      <c r="N80" t="s">
-        <v>576</v>
-      </c>
-      <c r="O80" t="s">
-        <v>577</v>
-      </c>
-      <c r="P80" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -6228,31 +6180,19 @@
         <v>572</v>
       </c>
       <c r="I81" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J81" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K81" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L81" t="s">
-        <v>574</v>
-      </c>
-      <c r="M81" t="s">
-        <v>575</v>
-      </c>
-      <c r="N81" t="s">
-        <v>576</v>
-      </c>
-      <c r="O81" t="s">
-        <v>577</v>
-      </c>
-      <c r="P81" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -6278,31 +6218,19 @@
         <v>572</v>
       </c>
       <c r="I82" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J82" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K82" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L82" t="s">
-        <v>574</v>
-      </c>
-      <c r="M82" t="s">
-        <v>575</v>
-      </c>
-      <c r="N82" t="s">
-        <v>576</v>
-      </c>
-      <c r="O82" t="s">
-        <v>577</v>
-      </c>
-      <c r="P82" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -6328,31 +6256,19 @@
         <v>572</v>
       </c>
       <c r="I83" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J83" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K83" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L83" t="s">
-        <v>574</v>
-      </c>
-      <c r="M83" t="s">
-        <v>575</v>
-      </c>
-      <c r="N83" t="s">
-        <v>576</v>
-      </c>
-      <c r="O83" t="s">
-        <v>577</v>
-      </c>
-      <c r="P83" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>125</v>
       </c>
@@ -6378,31 +6294,19 @@
         <v>572</v>
       </c>
       <c r="I84" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J84" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K84" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L84" t="s">
-        <v>574</v>
-      </c>
-      <c r="M84" t="s">
-        <v>575</v>
-      </c>
-      <c r="N84" t="s">
-        <v>576</v>
-      </c>
-      <c r="O84" t="s">
-        <v>577</v>
-      </c>
-      <c r="P84" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -6428,31 +6332,19 @@
         <v>572</v>
       </c>
       <c r="I85" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J85" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K85" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L85" t="s">
-        <v>574</v>
-      </c>
-      <c r="M85" t="s">
-        <v>575</v>
-      </c>
-      <c r="N85" t="s">
-        <v>576</v>
-      </c>
-      <c r="O85" t="s">
-        <v>577</v>
-      </c>
-      <c r="P85" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -6478,31 +6370,19 @@
         <v>572</v>
       </c>
       <c r="I86" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J86" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K86" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L86" t="s">
-        <v>574</v>
-      </c>
-      <c r="M86" t="s">
-        <v>575</v>
-      </c>
-      <c r="N86" t="s">
-        <v>576</v>
-      </c>
-      <c r="O86" t="s">
-        <v>577</v>
-      </c>
-      <c r="P86" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -6528,31 +6408,19 @@
         <v>572</v>
       </c>
       <c r="I87" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J87" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K87" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L87" t="s">
-        <v>574</v>
-      </c>
-      <c r="M87" t="s">
-        <v>575</v>
-      </c>
-      <c r="N87" t="s">
-        <v>576</v>
-      </c>
-      <c r="O87" t="s">
-        <v>577</v>
-      </c>
-      <c r="P87" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -6578,31 +6446,19 @@
         <v>572</v>
       </c>
       <c r="I88" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J88" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K88" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L88" t="s">
-        <v>574</v>
-      </c>
-      <c r="M88" t="s">
-        <v>575</v>
-      </c>
-      <c r="N88" t="s">
-        <v>576</v>
-      </c>
-      <c r="O88" t="s">
-        <v>577</v>
-      </c>
-      <c r="P88" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -6628,31 +6484,19 @@
         <v>572</v>
       </c>
       <c r="I89" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J89" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K89" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L89" t="s">
-        <v>574</v>
-      </c>
-      <c r="M89" t="s">
-        <v>575</v>
-      </c>
-      <c r="N89" t="s">
-        <v>576</v>
-      </c>
-      <c r="O89" t="s">
-        <v>577</v>
-      </c>
-      <c r="P89" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -6678,31 +6522,19 @@
         <v>572</v>
       </c>
       <c r="I90" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J90" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K90" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L90" t="s">
-        <v>574</v>
-      </c>
-      <c r="M90" t="s">
-        <v>575</v>
-      </c>
-      <c r="N90" t="s">
-        <v>576</v>
-      </c>
-      <c r="O90" t="s">
-        <v>577</v>
-      </c>
-      <c r="P90" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -6728,31 +6560,19 @@
         <v>572</v>
       </c>
       <c r="I91" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J91" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K91" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L91" t="s">
-        <v>574</v>
-      </c>
-      <c r="M91" t="s">
-        <v>575</v>
-      </c>
-      <c r="N91" t="s">
-        <v>576</v>
-      </c>
-      <c r="O91" t="s">
-        <v>577</v>
-      </c>
-      <c r="P91" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -6778,31 +6598,19 @@
         <v>572</v>
       </c>
       <c r="I92" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J92" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K92" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L92" t="s">
-        <v>574</v>
-      </c>
-      <c r="M92" t="s">
-        <v>575</v>
-      </c>
-      <c r="N92" t="s">
-        <v>576</v>
-      </c>
-      <c r="O92" t="s">
-        <v>577</v>
-      </c>
-      <c r="P92" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>137</v>
       </c>
@@ -6828,31 +6636,19 @@
         <v>572</v>
       </c>
       <c r="I93" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J93" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K93" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L93" t="s">
-        <v>574</v>
-      </c>
-      <c r="M93" t="s">
-        <v>575</v>
-      </c>
-      <c r="N93" t="s">
-        <v>576</v>
-      </c>
-      <c r="O93" t="s">
-        <v>577</v>
-      </c>
-      <c r="P93" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -6878,31 +6674,19 @@
         <v>572</v>
       </c>
       <c r="I94" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J94" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K94" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L94" t="s">
-        <v>574</v>
-      </c>
-      <c r="M94" t="s">
-        <v>575</v>
-      </c>
-      <c r="N94" t="s">
-        <v>576</v>
-      </c>
-      <c r="O94" t="s">
-        <v>577</v>
-      </c>
-      <c r="P94" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>137</v>
       </c>
@@ -6928,31 +6712,19 @@
         <v>572</v>
       </c>
       <c r="I95" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J95" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K95" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L95" t="s">
-        <v>574</v>
-      </c>
-      <c r="M95" t="s">
-        <v>575</v>
-      </c>
-      <c r="N95" t="s">
-        <v>576</v>
-      </c>
-      <c r="O95" t="s">
-        <v>577</v>
-      </c>
-      <c r="P95" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>137</v>
       </c>
@@ -6978,31 +6750,19 @@
         <v>572</v>
       </c>
       <c r="I96" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J96" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K96" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L96" t="s">
-        <v>574</v>
-      </c>
-      <c r="M96" t="s">
-        <v>575</v>
-      </c>
-      <c r="N96" t="s">
-        <v>576</v>
-      </c>
-      <c r="O96" t="s">
-        <v>577</v>
-      </c>
-      <c r="P96" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>141</v>
       </c>
@@ -7028,31 +6788,19 @@
         <v>572</v>
       </c>
       <c r="I97" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J97" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K97" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L97" t="s">
-        <v>574</v>
-      </c>
-      <c r="M97" t="s">
-        <v>575</v>
-      </c>
-      <c r="N97" t="s">
-        <v>576</v>
-      </c>
-      <c r="O97" t="s">
-        <v>577</v>
-      </c>
-      <c r="P97" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -7078,31 +6826,19 @@
         <v>572</v>
       </c>
       <c r="I98" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J98" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K98" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L98" t="s">
-        <v>574</v>
-      </c>
-      <c r="M98" t="s">
-        <v>575</v>
-      </c>
-      <c r="N98" t="s">
-        <v>576</v>
-      </c>
-      <c r="O98" t="s">
-        <v>577</v>
-      </c>
-      <c r="P98" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>141</v>
       </c>
@@ -7128,31 +6864,19 @@
         <v>572</v>
       </c>
       <c r="I99" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J99" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K99" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L99" t="s">
-        <v>574</v>
-      </c>
-      <c r="M99" t="s">
-        <v>575</v>
-      </c>
-      <c r="N99" t="s">
-        <v>576</v>
-      </c>
-      <c r="O99" t="s">
-        <v>577</v>
-      </c>
-      <c r="P99" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -7178,31 +6902,19 @@
         <v>572</v>
       </c>
       <c r="I100" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J100" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K100" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L100" t="s">
-        <v>574</v>
-      </c>
-      <c r="M100" t="s">
-        <v>575</v>
-      </c>
-      <c r="N100" t="s">
-        <v>576</v>
-      </c>
-      <c r="O100" t="s">
-        <v>577</v>
-      </c>
-      <c r="P100" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>145</v>
       </c>
@@ -7228,31 +6940,19 @@
         <v>572</v>
       </c>
       <c r="I101" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J101" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K101" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L101" t="s">
-        <v>574</v>
-      </c>
-      <c r="M101" t="s">
-        <v>575</v>
-      </c>
-      <c r="N101" t="s">
-        <v>576</v>
-      </c>
-      <c r="O101" t="s">
-        <v>577</v>
-      </c>
-      <c r="P101" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -7278,31 +6978,19 @@
         <v>572</v>
       </c>
       <c r="I102" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J102" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K102" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L102" t="s">
-        <v>574</v>
-      </c>
-      <c r="M102" t="s">
-        <v>575</v>
-      </c>
-      <c r="N102" t="s">
-        <v>576</v>
-      </c>
-      <c r="O102" t="s">
-        <v>577</v>
-      </c>
-      <c r="P102" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>145</v>
       </c>
@@ -7328,31 +7016,19 @@
         <v>572</v>
       </c>
       <c r="I103" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J103" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K103" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L103" t="s">
-        <v>574</v>
-      </c>
-      <c r="M103" t="s">
-        <v>575</v>
-      </c>
-      <c r="N103" t="s">
-        <v>576</v>
-      </c>
-      <c r="O103" t="s">
-        <v>577</v>
-      </c>
-      <c r="P103" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>145</v>
       </c>
@@ -7378,31 +7054,19 @@
         <v>572</v>
       </c>
       <c r="I104" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J104" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K104" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L104" t="s">
-        <v>574</v>
-      </c>
-      <c r="M104" t="s">
-        <v>575</v>
-      </c>
-      <c r="N104" t="s">
-        <v>576</v>
-      </c>
-      <c r="O104" t="s">
-        <v>577</v>
-      </c>
-      <c r="P104" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>149</v>
       </c>
@@ -7428,31 +7092,19 @@
         <v>572</v>
       </c>
       <c r="I105" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J105" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K105" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L105" t="s">
-        <v>574</v>
-      </c>
-      <c r="M105" t="s">
-        <v>575</v>
-      </c>
-      <c r="N105" t="s">
-        <v>576</v>
-      </c>
-      <c r="O105" t="s">
-        <v>577</v>
-      </c>
-      <c r="P105" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>149</v>
       </c>
@@ -7478,31 +7130,19 @@
         <v>572</v>
       </c>
       <c r="I106" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J106" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K106" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L106" t="s">
-        <v>574</v>
-      </c>
-      <c r="M106" t="s">
-        <v>575</v>
-      </c>
-      <c r="N106" t="s">
-        <v>576</v>
-      </c>
-      <c r="O106" t="s">
-        <v>577</v>
-      </c>
-      <c r="P106" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>149</v>
       </c>
@@ -7528,31 +7168,19 @@
         <v>572</v>
       </c>
       <c r="I107" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J107" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K107" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L107" t="s">
-        <v>574</v>
-      </c>
-      <c r="M107" t="s">
-        <v>575</v>
-      </c>
-      <c r="N107" t="s">
-        <v>576</v>
-      </c>
-      <c r="O107" t="s">
-        <v>577</v>
-      </c>
-      <c r="P107" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>149</v>
       </c>
@@ -7578,31 +7206,19 @@
         <v>572</v>
       </c>
       <c r="I108" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J108" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K108" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L108" t="s">
-        <v>574</v>
-      </c>
-      <c r="M108" t="s">
-        <v>575</v>
-      </c>
-      <c r="N108" t="s">
-        <v>576</v>
-      </c>
-      <c r="O108" t="s">
-        <v>577</v>
-      </c>
-      <c r="P108" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>153</v>
       </c>
@@ -7628,31 +7244,19 @@
         <v>572</v>
       </c>
       <c r="I109" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J109" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K109" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L109" t="s">
-        <v>574</v>
-      </c>
-      <c r="M109" t="s">
-        <v>575</v>
-      </c>
-      <c r="N109" t="s">
-        <v>576</v>
-      </c>
-      <c r="O109" t="s">
-        <v>577</v>
-      </c>
-      <c r="P109" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>153</v>
       </c>
@@ -7678,31 +7282,19 @@
         <v>572</v>
       </c>
       <c r="I110" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J110" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K110" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L110" t="s">
-        <v>574</v>
-      </c>
-      <c r="M110" t="s">
-        <v>575</v>
-      </c>
-      <c r="N110" t="s">
-        <v>576</v>
-      </c>
-      <c r="O110" t="s">
-        <v>577</v>
-      </c>
-      <c r="P110" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>153</v>
       </c>
@@ -7728,31 +7320,19 @@
         <v>572</v>
       </c>
       <c r="I111" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J111" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K111" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L111" t="s">
-        <v>574</v>
-      </c>
-      <c r="M111" t="s">
-        <v>575</v>
-      </c>
-      <c r="N111" t="s">
-        <v>576</v>
-      </c>
-      <c r="O111" t="s">
-        <v>577</v>
-      </c>
-      <c r="P111" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -7778,31 +7358,19 @@
         <v>572</v>
       </c>
       <c r="I112" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J112" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K112" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L112" t="s">
-        <v>574</v>
-      </c>
-      <c r="M112" t="s">
-        <v>575</v>
-      </c>
-      <c r="N112" t="s">
-        <v>576</v>
-      </c>
-      <c r="O112" t="s">
-        <v>577</v>
-      </c>
-      <c r="P112" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>157</v>
       </c>
@@ -7828,31 +7396,19 @@
         <v>572</v>
       </c>
       <c r="I113" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J113" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K113" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L113" t="s">
-        <v>574</v>
-      </c>
-      <c r="M113" t="s">
-        <v>575</v>
-      </c>
-      <c r="N113" t="s">
-        <v>576</v>
-      </c>
-      <c r="O113" t="s">
-        <v>577</v>
-      </c>
-      <c r="P113" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>157</v>
       </c>
@@ -7878,31 +7434,19 @@
         <v>572</v>
       </c>
       <c r="I114" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J114" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K114" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L114" t="s">
-        <v>574</v>
-      </c>
-      <c r="M114" t="s">
-        <v>575</v>
-      </c>
-      <c r="N114" t="s">
-        <v>576</v>
-      </c>
-      <c r="O114" t="s">
-        <v>577</v>
-      </c>
-      <c r="P114" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>157</v>
       </c>
@@ -7928,31 +7472,19 @@
         <v>572</v>
       </c>
       <c r="I115" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J115" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K115" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L115" t="s">
-        <v>574</v>
-      </c>
-      <c r="M115" t="s">
-        <v>575</v>
-      </c>
-      <c r="N115" t="s">
-        <v>576</v>
-      </c>
-      <c r="O115" t="s">
-        <v>577</v>
-      </c>
-      <c r="P115" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>157</v>
       </c>
@@ -7978,31 +7510,19 @@
         <v>572</v>
       </c>
       <c r="I116" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J116" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K116" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L116" t="s">
-        <v>574</v>
-      </c>
-      <c r="M116" t="s">
-        <v>575</v>
-      </c>
-      <c r="N116" t="s">
-        <v>576</v>
-      </c>
-      <c r="O116" t="s">
-        <v>577</v>
-      </c>
-      <c r="P116" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>159</v>
       </c>
@@ -8028,31 +7548,19 @@
         <v>572</v>
       </c>
       <c r="I117" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J117" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K117" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L117" t="s">
-        <v>574</v>
-      </c>
-      <c r="M117" t="s">
-        <v>575</v>
-      </c>
-      <c r="N117" t="s">
-        <v>576</v>
-      </c>
-      <c r="O117" t="s">
-        <v>577</v>
-      </c>
-      <c r="P117" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>159</v>
       </c>
@@ -8078,31 +7586,19 @@
         <v>572</v>
       </c>
       <c r="I118" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J118" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K118" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L118" t="s">
-        <v>574</v>
-      </c>
-      <c r="M118" t="s">
-        <v>575</v>
-      </c>
-      <c r="N118" t="s">
-        <v>576</v>
-      </c>
-      <c r="O118" t="s">
-        <v>577</v>
-      </c>
-      <c r="P118" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>159</v>
       </c>
@@ -8128,31 +7624,19 @@
         <v>572</v>
       </c>
       <c r="I119" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J119" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K119" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L119" t="s">
-        <v>574</v>
-      </c>
-      <c r="M119" t="s">
-        <v>575</v>
-      </c>
-      <c r="N119" t="s">
-        <v>576</v>
-      </c>
-      <c r="O119" t="s">
-        <v>577</v>
-      </c>
-      <c r="P119" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>159</v>
       </c>
@@ -8178,31 +7662,19 @@
         <v>572</v>
       </c>
       <c r="I120" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J120" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K120" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L120" t="s">
-        <v>574</v>
-      </c>
-      <c r="M120" t="s">
-        <v>575</v>
-      </c>
-      <c r="N120" t="s">
-        <v>576</v>
-      </c>
-      <c r="O120" t="s">
-        <v>577</v>
-      </c>
-      <c r="P120" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>163</v>
       </c>
@@ -8228,31 +7700,19 @@
         <v>572</v>
       </c>
       <c r="I121" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J121" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K121" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L121" t="s">
-        <v>574</v>
-      </c>
-      <c r="M121" t="s">
-        <v>575</v>
-      </c>
-      <c r="N121" t="s">
-        <v>576</v>
-      </c>
-      <c r="O121" t="s">
-        <v>577</v>
-      </c>
-      <c r="P121" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>163</v>
       </c>
@@ -8278,31 +7738,19 @@
         <v>572</v>
       </c>
       <c r="I122" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J122" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K122" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L122" t="s">
-        <v>574</v>
-      </c>
-      <c r="M122" t="s">
-        <v>575</v>
-      </c>
-      <c r="N122" t="s">
-        <v>576</v>
-      </c>
-      <c r="O122" t="s">
-        <v>577</v>
-      </c>
-      <c r="P122" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>163</v>
       </c>
@@ -8328,31 +7776,19 @@
         <v>572</v>
       </c>
       <c r="I123" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J123" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K123" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L123" t="s">
-        <v>574</v>
-      </c>
-      <c r="M123" t="s">
-        <v>575</v>
-      </c>
-      <c r="N123" t="s">
-        <v>576</v>
-      </c>
-      <c r="O123" t="s">
-        <v>577</v>
-      </c>
-      <c r="P123" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -8378,31 +7814,19 @@
         <v>572</v>
       </c>
       <c r="I124" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J124" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K124" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L124" t="s">
-        <v>574</v>
-      </c>
-      <c r="M124" t="s">
-        <v>575</v>
-      </c>
-      <c r="N124" t="s">
-        <v>576</v>
-      </c>
-      <c r="O124" t="s">
-        <v>577</v>
-      </c>
-      <c r="P124" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>166</v>
       </c>
@@ -8428,31 +7852,19 @@
         <v>572</v>
       </c>
       <c r="I125" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J125" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K125" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L125" t="s">
-        <v>574</v>
-      </c>
-      <c r="M125" t="s">
-        <v>575</v>
-      </c>
-      <c r="N125" t="s">
-        <v>576</v>
-      </c>
-      <c r="O125" t="s">
-        <v>577</v>
-      </c>
-      <c r="P125" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>166</v>
       </c>
@@ -8478,31 +7890,19 @@
         <v>572</v>
       </c>
       <c r="I126" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J126" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K126" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L126" t="s">
-        <v>574</v>
-      </c>
-      <c r="M126" t="s">
-        <v>575</v>
-      </c>
-      <c r="N126" t="s">
-        <v>576</v>
-      </c>
-      <c r="O126" t="s">
-        <v>577</v>
-      </c>
-      <c r="P126" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -8528,31 +7928,19 @@
         <v>572</v>
       </c>
       <c r="I127" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J127" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K127" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L127" t="s">
-        <v>574</v>
-      </c>
-      <c r="M127" t="s">
-        <v>575</v>
-      </c>
-      <c r="N127" t="s">
-        <v>576</v>
-      </c>
-      <c r="O127" t="s">
-        <v>577</v>
-      </c>
-      <c r="P127" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>166</v>
       </c>
@@ -8578,31 +7966,19 @@
         <v>572</v>
       </c>
       <c r="I128" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J128" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K128" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L128" t="s">
-        <v>574</v>
-      </c>
-      <c r="M128" t="s">
-        <v>575</v>
-      </c>
-      <c r="N128" t="s">
-        <v>576</v>
-      </c>
-      <c r="O128" t="s">
-        <v>577</v>
-      </c>
-      <c r="P128" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>170</v>
       </c>
@@ -8628,31 +8004,19 @@
         <v>572</v>
       </c>
       <c r="I129" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J129" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K129" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L129" t="s">
-        <v>574</v>
-      </c>
-      <c r="M129" t="s">
-        <v>575</v>
-      </c>
-      <c r="N129" t="s">
-        <v>576</v>
-      </c>
-      <c r="O129" t="s">
-        <v>577</v>
-      </c>
-      <c r="P129" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>170</v>
       </c>
@@ -8678,31 +8042,19 @@
         <v>572</v>
       </c>
       <c r="I130" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J130" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K130" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L130" t="s">
-        <v>574</v>
-      </c>
-      <c r="M130" t="s">
-        <v>575</v>
-      </c>
-      <c r="N130" t="s">
-        <v>576</v>
-      </c>
-      <c r="O130" t="s">
-        <v>577</v>
-      </c>
-      <c r="P130" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>170</v>
       </c>
@@ -8728,31 +8080,19 @@
         <v>572</v>
       </c>
       <c r="I131" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J131" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K131" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L131" t="s">
-        <v>574</v>
-      </c>
-      <c r="M131" t="s">
-        <v>575</v>
-      </c>
-      <c r="N131" t="s">
-        <v>576</v>
-      </c>
-      <c r="O131" t="s">
-        <v>577</v>
-      </c>
-      <c r="P131" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -8778,31 +8118,19 @@
         <v>572</v>
       </c>
       <c r="I132" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J132" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K132" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L132" t="s">
-        <v>574</v>
-      </c>
-      <c r="M132" t="s">
-        <v>575</v>
-      </c>
-      <c r="N132" t="s">
-        <v>576</v>
-      </c>
-      <c r="O132" t="s">
-        <v>577</v>
-      </c>
-      <c r="P132" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>173</v>
       </c>
@@ -8828,31 +8156,19 @@
         <v>572</v>
       </c>
       <c r="I133" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J133" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K133" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L133" t="s">
-        <v>574</v>
-      </c>
-      <c r="M133" t="s">
-        <v>575</v>
-      </c>
-      <c r="N133" t="s">
-        <v>576</v>
-      </c>
-      <c r="O133" t="s">
-        <v>577</v>
-      </c>
-      <c r="P133" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -8878,31 +8194,19 @@
         <v>572</v>
       </c>
       <c r="I134" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J134" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K134" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L134" t="s">
-        <v>574</v>
-      </c>
-      <c r="M134" t="s">
-        <v>575</v>
-      </c>
-      <c r="N134" t="s">
-        <v>576</v>
-      </c>
-      <c r="O134" t="s">
-        <v>577</v>
-      </c>
-      <c r="P134" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>173</v>
       </c>
@@ -8928,31 +8232,19 @@
         <v>572</v>
       </c>
       <c r="I135" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J135" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K135" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L135" t="s">
-        <v>574</v>
-      </c>
-      <c r="M135" t="s">
-        <v>575</v>
-      </c>
-      <c r="N135" t="s">
-        <v>576</v>
-      </c>
-      <c r="O135" t="s">
-        <v>577</v>
-      </c>
-      <c r="P135" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -8978,31 +8270,19 @@
         <v>572</v>
       </c>
       <c r="I136" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J136" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K136" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L136" t="s">
-        <v>574</v>
-      </c>
-      <c r="M136" t="s">
-        <v>575</v>
-      </c>
-      <c r="N136" t="s">
-        <v>576</v>
-      </c>
-      <c r="O136" t="s">
-        <v>577</v>
-      </c>
-      <c r="P136" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>177</v>
       </c>
@@ -9028,31 +8308,19 @@
         <v>572</v>
       </c>
       <c r="I137" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J137" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K137" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L137" t="s">
-        <v>574</v>
-      </c>
-      <c r="M137" t="s">
-        <v>575</v>
-      </c>
-      <c r="N137" t="s">
-        <v>576</v>
-      </c>
-      <c r="O137" t="s">
-        <v>577</v>
-      </c>
-      <c r="P137" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>177</v>
       </c>
@@ -9078,31 +8346,19 @@
         <v>572</v>
       </c>
       <c r="I138" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J138" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K138" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L138" t="s">
-        <v>574</v>
-      </c>
-      <c r="M138" t="s">
-        <v>575</v>
-      </c>
-      <c r="N138" t="s">
-        <v>576</v>
-      </c>
-      <c r="O138" t="s">
-        <v>577</v>
-      </c>
-      <c r="P138" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>177</v>
       </c>
@@ -9128,31 +8384,19 @@
         <v>572</v>
       </c>
       <c r="I139" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J139" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K139" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L139" t="s">
-        <v>574</v>
-      </c>
-      <c r="M139" t="s">
-        <v>575</v>
-      </c>
-      <c r="N139" t="s">
-        <v>576</v>
-      </c>
-      <c r="O139" t="s">
-        <v>577</v>
-      </c>
-      <c r="P139" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>177</v>
       </c>
@@ -9178,31 +8422,19 @@
         <v>572</v>
       </c>
       <c r="I140" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J140" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K140" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L140" t="s">
-        <v>574</v>
-      </c>
-      <c r="M140" t="s">
-        <v>575</v>
-      </c>
-      <c r="N140" t="s">
-        <v>576</v>
-      </c>
-      <c r="O140" t="s">
-        <v>577</v>
-      </c>
-      <c r="P140" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>181</v>
       </c>
@@ -9228,31 +8460,19 @@
         <v>572</v>
       </c>
       <c r="I141" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J141" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K141" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L141" t="s">
-        <v>574</v>
-      </c>
-      <c r="M141" t="s">
-        <v>575</v>
-      </c>
-      <c r="N141" t="s">
-        <v>576</v>
-      </c>
-      <c r="O141" t="s">
-        <v>577</v>
-      </c>
-      <c r="P141" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>181</v>
       </c>
@@ -9278,31 +8498,19 @@
         <v>572</v>
       </c>
       <c r="I142" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J142" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K142" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L142" t="s">
-        <v>574</v>
-      </c>
-      <c r="M142" t="s">
-        <v>575</v>
-      </c>
-      <c r="N142" t="s">
-        <v>576</v>
-      </c>
-      <c r="O142" t="s">
-        <v>577</v>
-      </c>
-      <c r="P142" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>181</v>
       </c>
@@ -9328,31 +8536,19 @@
         <v>572</v>
       </c>
       <c r="I143" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J143" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K143" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L143" t="s">
-        <v>574</v>
-      </c>
-      <c r="M143" t="s">
-        <v>575</v>
-      </c>
-      <c r="N143" t="s">
-        <v>576</v>
-      </c>
-      <c r="O143" t="s">
-        <v>577</v>
-      </c>
-      <c r="P143" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>181</v>
       </c>
@@ -9378,31 +8574,19 @@
         <v>572</v>
       </c>
       <c r="I144" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J144" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K144" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L144" t="s">
-        <v>574</v>
-      </c>
-      <c r="M144" t="s">
-        <v>575</v>
-      </c>
-      <c r="N144" t="s">
-        <v>576</v>
-      </c>
-      <c r="O144" t="s">
-        <v>577</v>
-      </c>
-      <c r="P144" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -9428,31 +8612,19 @@
         <v>572</v>
       </c>
       <c r="I145" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J145" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K145" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L145" t="s">
-        <v>574</v>
-      </c>
-      <c r="M145" t="s">
-        <v>575</v>
-      </c>
-      <c r="N145" t="s">
-        <v>576</v>
-      </c>
-      <c r="O145" t="s">
-        <v>577</v>
-      </c>
-      <c r="P145" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -9478,31 +8650,19 @@
         <v>572</v>
       </c>
       <c r="I146" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J146" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K146" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L146" t="s">
-        <v>574</v>
-      </c>
-      <c r="M146" t="s">
-        <v>575</v>
-      </c>
-      <c r="N146" t="s">
-        <v>576</v>
-      </c>
-      <c r="O146" t="s">
-        <v>577</v>
-      </c>
-      <c r="P146" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>184</v>
       </c>
@@ -9528,31 +8688,19 @@
         <v>572</v>
       </c>
       <c r="I147" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J147" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K147" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L147" t="s">
-        <v>574</v>
-      </c>
-      <c r="M147" t="s">
-        <v>575</v>
-      </c>
-      <c r="N147" t="s">
-        <v>576</v>
-      </c>
-      <c r="O147" t="s">
-        <v>577</v>
-      </c>
-      <c r="P147" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -9578,31 +8726,19 @@
         <v>572</v>
       </c>
       <c r="I148" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J148" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K148" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L148" t="s">
-        <v>574</v>
-      </c>
-      <c r="M148" t="s">
-        <v>575</v>
-      </c>
-      <c r="N148" t="s">
-        <v>576</v>
-      </c>
-      <c r="O148" t="s">
-        <v>577</v>
-      </c>
-      <c r="P148" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -9628,31 +8764,19 @@
         <v>572</v>
       </c>
       <c r="I149" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J149" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K149" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L149" t="s">
-        <v>574</v>
-      </c>
-      <c r="M149" t="s">
-        <v>575</v>
-      </c>
-      <c r="N149" t="s">
-        <v>576</v>
-      </c>
-      <c r="O149" t="s">
-        <v>577</v>
-      </c>
-      <c r="P149" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>187</v>
       </c>
@@ -9678,31 +8802,19 @@
         <v>572</v>
       </c>
       <c r="I150" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J150" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K150" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L150" t="s">
-        <v>574</v>
-      </c>
-      <c r="M150" t="s">
-        <v>575</v>
-      </c>
-      <c r="N150" t="s">
-        <v>576</v>
-      </c>
-      <c r="O150" t="s">
-        <v>577</v>
-      </c>
-      <c r="P150" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -9728,31 +8840,19 @@
         <v>572</v>
       </c>
       <c r="I151" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J151" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K151" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L151" t="s">
-        <v>574</v>
-      </c>
-      <c r="M151" t="s">
-        <v>575</v>
-      </c>
-      <c r="N151" t="s">
-        <v>576</v>
-      </c>
-      <c r="O151" t="s">
-        <v>577</v>
-      </c>
-      <c r="P151" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -9778,31 +8878,19 @@
         <v>572</v>
       </c>
       <c r="I152" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J152" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K152" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L152" t="s">
-        <v>574</v>
-      </c>
-      <c r="M152" t="s">
-        <v>575</v>
-      </c>
-      <c r="N152" t="s">
-        <v>576</v>
-      </c>
-      <c r="O152" t="s">
-        <v>577</v>
-      </c>
-      <c r="P152" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>190</v>
       </c>
@@ -9828,31 +8916,19 @@
         <v>572</v>
       </c>
       <c r="I153" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J153" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K153" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L153" t="s">
-        <v>574</v>
-      </c>
-      <c r="M153" t="s">
-        <v>575</v>
-      </c>
-      <c r="N153" t="s">
-        <v>576</v>
-      </c>
-      <c r="O153" t="s">
-        <v>577</v>
-      </c>
-      <c r="P153" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -9878,31 +8954,19 @@
         <v>572</v>
       </c>
       <c r="I154" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J154" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K154" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L154" t="s">
-        <v>574</v>
-      </c>
-      <c r="M154" t="s">
-        <v>575</v>
-      </c>
-      <c r="N154" t="s">
-        <v>576</v>
-      </c>
-      <c r="O154" t="s">
-        <v>577</v>
-      </c>
-      <c r="P154" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>190</v>
       </c>
@@ -9928,31 +8992,19 @@
         <v>572</v>
       </c>
       <c r="I155" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J155" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K155" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L155" t="s">
-        <v>574</v>
-      </c>
-      <c r="M155" t="s">
-        <v>575</v>
-      </c>
-      <c r="N155" t="s">
-        <v>576</v>
-      </c>
-      <c r="O155" t="s">
-        <v>577</v>
-      </c>
-      <c r="P155" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>190</v>
       </c>
@@ -9978,31 +9030,19 @@
         <v>572</v>
       </c>
       <c r="I156" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J156" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K156" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L156" t="s">
-        <v>574</v>
-      </c>
-      <c r="M156" t="s">
-        <v>575</v>
-      </c>
-      <c r="N156" t="s">
-        <v>576</v>
-      </c>
-      <c r="O156" t="s">
-        <v>577</v>
-      </c>
-      <c r="P156" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>194</v>
       </c>
@@ -10028,31 +9068,19 @@
         <v>572</v>
       </c>
       <c r="I157" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J157" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K157" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L157" t="s">
-        <v>574</v>
-      </c>
-      <c r="M157" t="s">
-        <v>575</v>
-      </c>
-      <c r="N157" t="s">
-        <v>576</v>
-      </c>
-      <c r="O157" t="s">
-        <v>577</v>
-      </c>
-      <c r="P157" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>194</v>
       </c>
@@ -10078,31 +9106,19 @@
         <v>572</v>
       </c>
       <c r="I158" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J158" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K158" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L158" t="s">
-        <v>574</v>
-      </c>
-      <c r="M158" t="s">
-        <v>575</v>
-      </c>
-      <c r="N158" t="s">
-        <v>576</v>
-      </c>
-      <c r="O158" t="s">
-        <v>577</v>
-      </c>
-      <c r="P158" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>194</v>
       </c>
@@ -10128,31 +9144,19 @@
         <v>572</v>
       </c>
       <c r="I159" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J159" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K159" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L159" t="s">
-        <v>574</v>
-      </c>
-      <c r="M159" t="s">
-        <v>575</v>
-      </c>
-      <c r="N159" t="s">
-        <v>576</v>
-      </c>
-      <c r="O159" t="s">
-        <v>577</v>
-      </c>
-      <c r="P159" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>194</v>
       </c>
@@ -10178,31 +9182,19 @@
         <v>572</v>
       </c>
       <c r="I160" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J160" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K160" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L160" t="s">
-        <v>574</v>
-      </c>
-      <c r="M160" t="s">
-        <v>575</v>
-      </c>
-      <c r="N160" t="s">
-        <v>576</v>
-      </c>
-      <c r="O160" t="s">
-        <v>577</v>
-      </c>
-      <c r="P160" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>198</v>
       </c>
@@ -10228,31 +9220,19 @@
         <v>572</v>
       </c>
       <c r="I161" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J161" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K161" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L161" t="s">
-        <v>574</v>
-      </c>
-      <c r="M161" t="s">
-        <v>575</v>
-      </c>
-      <c r="N161" t="s">
-        <v>576</v>
-      </c>
-      <c r="O161" t="s">
-        <v>577</v>
-      </c>
-      <c r="P161" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>198</v>
       </c>
@@ -10278,31 +9258,19 @@
         <v>572</v>
       </c>
       <c r="I162" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J162" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K162" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L162" t="s">
-        <v>574</v>
-      </c>
-      <c r="M162" t="s">
-        <v>575</v>
-      </c>
-      <c r="N162" t="s">
-        <v>576</v>
-      </c>
-      <c r="O162" t="s">
-        <v>577</v>
-      </c>
-      <c r="P162" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>198</v>
       </c>
@@ -10328,31 +9296,19 @@
         <v>572</v>
       </c>
       <c r="I163" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J163" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K163" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L163" t="s">
-        <v>574</v>
-      </c>
-      <c r="M163" t="s">
-        <v>575</v>
-      </c>
-      <c r="N163" t="s">
-        <v>576</v>
-      </c>
-      <c r="O163" t="s">
-        <v>577</v>
-      </c>
-      <c r="P163" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>198</v>
       </c>
@@ -10378,31 +9334,19 @@
         <v>572</v>
       </c>
       <c r="I164" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J164" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K164" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L164" t="s">
-        <v>574</v>
-      </c>
-      <c r="M164" t="s">
-        <v>575</v>
-      </c>
-      <c r="N164" t="s">
-        <v>576</v>
-      </c>
-      <c r="O164" t="s">
-        <v>577</v>
-      </c>
-      <c r="P164" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>202</v>
       </c>
@@ -10428,31 +9372,19 @@
         <v>572</v>
       </c>
       <c r="I165" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J165" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K165" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L165" t="s">
-        <v>574</v>
-      </c>
-      <c r="M165" t="s">
-        <v>575</v>
-      </c>
-      <c r="N165" t="s">
-        <v>576</v>
-      </c>
-      <c r="O165" t="s">
-        <v>577</v>
-      </c>
-      <c r="P165" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>202</v>
       </c>
@@ -10478,31 +9410,19 @@
         <v>572</v>
       </c>
       <c r="I166" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J166" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K166" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L166" t="s">
-        <v>574</v>
-      </c>
-      <c r="M166" t="s">
-        <v>575</v>
-      </c>
-      <c r="N166" t="s">
-        <v>576</v>
-      </c>
-      <c r="O166" t="s">
-        <v>577</v>
-      </c>
-      <c r="P166" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>202</v>
       </c>
@@ -10528,31 +9448,19 @@
         <v>572</v>
       </c>
       <c r="I167" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J167" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K167" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L167" t="s">
-        <v>574</v>
-      </c>
-      <c r="M167" t="s">
-        <v>575</v>
-      </c>
-      <c r="N167" t="s">
-        <v>576</v>
-      </c>
-      <c r="O167" t="s">
-        <v>577</v>
-      </c>
-      <c r="P167" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>202</v>
       </c>
@@ -10578,31 +9486,19 @@
         <v>572</v>
       </c>
       <c r="I168" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J168" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K168" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L168" t="s">
-        <v>574</v>
-      </c>
-      <c r="M168" t="s">
-        <v>575</v>
-      </c>
-      <c r="N168" t="s">
-        <v>576</v>
-      </c>
-      <c r="O168" t="s">
-        <v>577</v>
-      </c>
-      <c r="P168" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>206</v>
       </c>
@@ -10628,31 +9524,19 @@
         <v>572</v>
       </c>
       <c r="I169" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J169" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K169" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L169" t="s">
-        <v>574</v>
-      </c>
-      <c r="M169" t="s">
-        <v>575</v>
-      </c>
-      <c r="N169" t="s">
-        <v>576</v>
-      </c>
-      <c r="O169" t="s">
-        <v>577</v>
-      </c>
-      <c r="P169" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>206</v>
       </c>
@@ -10678,31 +9562,19 @@
         <v>572</v>
       </c>
       <c r="I170" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J170" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K170" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L170" t="s">
-        <v>574</v>
-      </c>
-      <c r="M170" t="s">
-        <v>575</v>
-      </c>
-      <c r="N170" t="s">
-        <v>576</v>
-      </c>
-      <c r="O170" t="s">
-        <v>577</v>
-      </c>
-      <c r="P170" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>206</v>
       </c>
@@ -10728,31 +9600,19 @@
         <v>572</v>
       </c>
       <c r="I171" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J171" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K171" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L171" t="s">
-        <v>574</v>
-      </c>
-      <c r="M171" t="s">
-        <v>575</v>
-      </c>
-      <c r="N171" t="s">
-        <v>576</v>
-      </c>
-      <c r="O171" t="s">
-        <v>577</v>
-      </c>
-      <c r="P171" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>206</v>
       </c>
@@ -10778,31 +9638,19 @@
         <v>572</v>
       </c>
       <c r="I172" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J172" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K172" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L172" t="s">
-        <v>574</v>
-      </c>
-      <c r="M172" t="s">
-        <v>575</v>
-      </c>
-      <c r="N172" t="s">
-        <v>576</v>
-      </c>
-      <c r="O172" t="s">
-        <v>577</v>
-      </c>
-      <c r="P172" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>208</v>
       </c>
@@ -10828,31 +9676,19 @@
         <v>572</v>
       </c>
       <c r="I173" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J173" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K173" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L173" t="s">
-        <v>574</v>
-      </c>
-      <c r="M173" t="s">
-        <v>575</v>
-      </c>
-      <c r="N173" t="s">
-        <v>576</v>
-      </c>
-      <c r="O173" t="s">
-        <v>577</v>
-      </c>
-      <c r="P173" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>208</v>
       </c>
@@ -10878,31 +9714,19 @@
         <v>572</v>
       </c>
       <c r="I174" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J174" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K174" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L174" t="s">
-        <v>574</v>
-      </c>
-      <c r="M174" t="s">
-        <v>575</v>
-      </c>
-      <c r="N174" t="s">
-        <v>576</v>
-      </c>
-      <c r="O174" t="s">
-        <v>577</v>
-      </c>
-      <c r="P174" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>208</v>
       </c>
@@ -10928,31 +9752,19 @@
         <v>572</v>
       </c>
       <c r="I175" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J175" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K175" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L175" t="s">
-        <v>574</v>
-      </c>
-      <c r="M175" t="s">
-        <v>575</v>
-      </c>
-      <c r="N175" t="s">
-        <v>576</v>
-      </c>
-      <c r="O175" t="s">
-        <v>577</v>
-      </c>
-      <c r="P175" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>208</v>
       </c>
@@ -10978,31 +9790,19 @@
         <v>572</v>
       </c>
       <c r="I176" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J176" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K176" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L176" t="s">
-        <v>574</v>
-      </c>
-      <c r="M176" t="s">
-        <v>575</v>
-      </c>
-      <c r="N176" t="s">
-        <v>576</v>
-      </c>
-      <c r="O176" t="s">
-        <v>577</v>
-      </c>
-      <c r="P176" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>209</v>
       </c>
@@ -11028,31 +9828,19 @@
         <v>572</v>
       </c>
       <c r="I177" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J177" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K177" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L177" t="s">
-        <v>574</v>
-      </c>
-      <c r="M177" t="s">
-        <v>575</v>
-      </c>
-      <c r="N177" t="s">
-        <v>576</v>
-      </c>
-      <c r="O177" t="s">
-        <v>577</v>
-      </c>
-      <c r="P177" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>209</v>
       </c>
@@ -11078,31 +9866,19 @@
         <v>572</v>
       </c>
       <c r="I178" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J178" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K178" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L178" t="s">
-        <v>574</v>
-      </c>
-      <c r="M178" t="s">
-        <v>575</v>
-      </c>
-      <c r="N178" t="s">
-        <v>576</v>
-      </c>
-      <c r="O178" t="s">
-        <v>577</v>
-      </c>
-      <c r="P178" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>209</v>
       </c>
@@ -11128,31 +9904,19 @@
         <v>572</v>
       </c>
       <c r="I179" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J179" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K179" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L179" t="s">
-        <v>574</v>
-      </c>
-      <c r="M179" t="s">
-        <v>575</v>
-      </c>
-      <c r="N179" t="s">
-        <v>576</v>
-      </c>
-      <c r="O179" t="s">
-        <v>577</v>
-      </c>
-      <c r="P179" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -11178,31 +9942,19 @@
         <v>572</v>
       </c>
       <c r="I180" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J180" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K180" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L180" t="s">
-        <v>574</v>
-      </c>
-      <c r="M180" t="s">
-        <v>575</v>
-      </c>
-      <c r="N180" t="s">
-        <v>576</v>
-      </c>
-      <c r="O180" t="s">
-        <v>577</v>
-      </c>
-      <c r="P180" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>213</v>
       </c>
@@ -11228,31 +9980,19 @@
         <v>572</v>
       </c>
       <c r="I181" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J181" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K181" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L181" t="s">
-        <v>574</v>
-      </c>
-      <c r="M181" t="s">
-        <v>575</v>
-      </c>
-      <c r="N181" t="s">
-        <v>576</v>
-      </c>
-      <c r="O181" t="s">
-        <v>577</v>
-      </c>
-      <c r="P181" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>213</v>
       </c>
@@ -11278,31 +10018,19 @@
         <v>572</v>
       </c>
       <c r="I182" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J182" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K182" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L182" t="s">
-        <v>574</v>
-      </c>
-      <c r="M182" t="s">
-        <v>575</v>
-      </c>
-      <c r="N182" t="s">
-        <v>576</v>
-      </c>
-      <c r="O182" t="s">
-        <v>577</v>
-      </c>
-      <c r="P182" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>213</v>
       </c>
@@ -11328,31 +10056,19 @@
         <v>572</v>
       </c>
       <c r="I183" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J183" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K183" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L183" t="s">
-        <v>574</v>
-      </c>
-      <c r="M183" t="s">
-        <v>575</v>
-      </c>
-      <c r="N183" t="s">
-        <v>576</v>
-      </c>
-      <c r="O183" t="s">
-        <v>577</v>
-      </c>
-      <c r="P183" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>213</v>
       </c>
@@ -11378,31 +10094,19 @@
         <v>572</v>
       </c>
       <c r="I184" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J184" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K184" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L184" t="s">
-        <v>574</v>
-      </c>
-      <c r="M184" t="s">
-        <v>575</v>
-      </c>
-      <c r="N184" t="s">
-        <v>576</v>
-      </c>
-      <c r="O184" t="s">
-        <v>577</v>
-      </c>
-      <c r="P184" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>216</v>
       </c>
@@ -11428,31 +10132,19 @@
         <v>572</v>
       </c>
       <c r="I185" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J185" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K185" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L185" t="s">
-        <v>574</v>
-      </c>
-      <c r="M185" t="s">
-        <v>575</v>
-      </c>
-      <c r="N185" t="s">
-        <v>576</v>
-      </c>
-      <c r="O185" t="s">
-        <v>577</v>
-      </c>
-      <c r="P185" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>216</v>
       </c>
@@ -11478,31 +10170,19 @@
         <v>572</v>
       </c>
       <c r="I186" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J186" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K186" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L186" t="s">
-        <v>574</v>
-      </c>
-      <c r="M186" t="s">
-        <v>575</v>
-      </c>
-      <c r="N186" t="s">
-        <v>576</v>
-      </c>
-      <c r="O186" t="s">
-        <v>577</v>
-      </c>
-      <c r="P186" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>216</v>
       </c>
@@ -11528,31 +10208,19 @@
         <v>572</v>
       </c>
       <c r="I187" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J187" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K187" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L187" t="s">
-        <v>574</v>
-      </c>
-      <c r="M187" t="s">
-        <v>575</v>
-      </c>
-      <c r="N187" t="s">
-        <v>576</v>
-      </c>
-      <c r="O187" t="s">
-        <v>577</v>
-      </c>
-      <c r="P187" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>216</v>
       </c>
@@ -11578,31 +10246,19 @@
         <v>572</v>
       </c>
       <c r="I188" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J188" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K188" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L188" t="s">
-        <v>574</v>
-      </c>
-      <c r="M188" t="s">
-        <v>575</v>
-      </c>
-      <c r="N188" t="s">
-        <v>576</v>
-      </c>
-      <c r="O188" t="s">
-        <v>577</v>
-      </c>
-      <c r="P188" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>219</v>
       </c>
@@ -11628,31 +10284,19 @@
         <v>572</v>
       </c>
       <c r="I189" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J189" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K189" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L189" t="s">
-        <v>574</v>
-      </c>
-      <c r="M189" t="s">
-        <v>575</v>
-      </c>
-      <c r="N189" t="s">
-        <v>576</v>
-      </c>
-      <c r="O189" t="s">
-        <v>577</v>
-      </c>
-      <c r="P189" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>219</v>
       </c>
@@ -11678,31 +10322,19 @@
         <v>572</v>
       </c>
       <c r="I190" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J190" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K190" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L190" t="s">
-        <v>574</v>
-      </c>
-      <c r="M190" t="s">
-        <v>575</v>
-      </c>
-      <c r="N190" t="s">
-        <v>576</v>
-      </c>
-      <c r="O190" t="s">
-        <v>577</v>
-      </c>
-      <c r="P190" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>219</v>
       </c>
@@ -11728,31 +10360,19 @@
         <v>572</v>
       </c>
       <c r="I191" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J191" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K191" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L191" t="s">
-        <v>574</v>
-      </c>
-      <c r="M191" t="s">
-        <v>575</v>
-      </c>
-      <c r="N191" t="s">
-        <v>576</v>
-      </c>
-      <c r="O191" t="s">
-        <v>577</v>
-      </c>
-      <c r="P191" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>219</v>
       </c>
@@ -11778,31 +10398,19 @@
         <v>572</v>
       </c>
       <c r="I192" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J192" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K192" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L192" t="s">
-        <v>574</v>
-      </c>
-      <c r="M192" t="s">
-        <v>575</v>
-      </c>
-      <c r="N192" t="s">
-        <v>576</v>
-      </c>
-      <c r="O192" t="s">
-        <v>577</v>
-      </c>
-      <c r="P192" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>221</v>
       </c>
@@ -11828,31 +10436,19 @@
         <v>572</v>
       </c>
       <c r="I193" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J193" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K193" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L193" t="s">
-        <v>574</v>
-      </c>
-      <c r="M193" t="s">
-        <v>575</v>
-      </c>
-      <c r="N193" t="s">
-        <v>576</v>
-      </c>
-      <c r="O193" t="s">
-        <v>577</v>
-      </c>
-      <c r="P193" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>221</v>
       </c>
@@ -11878,31 +10474,19 @@
         <v>572</v>
       </c>
       <c r="I194" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J194" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K194" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L194" t="s">
-        <v>574</v>
-      </c>
-      <c r="M194" t="s">
-        <v>575</v>
-      </c>
-      <c r="N194" t="s">
-        <v>576</v>
-      </c>
-      <c r="O194" t="s">
-        <v>577</v>
-      </c>
-      <c r="P194" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>221</v>
       </c>
@@ -11928,31 +10512,19 @@
         <v>572</v>
       </c>
       <c r="I195" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J195" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K195" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L195" t="s">
-        <v>574</v>
-      </c>
-      <c r="M195" t="s">
-        <v>575</v>
-      </c>
-      <c r="N195" t="s">
-        <v>576</v>
-      </c>
-      <c r="O195" t="s">
-        <v>577</v>
-      </c>
-      <c r="P195" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>221</v>
       </c>
@@ -11978,31 +10550,19 @@
         <v>572</v>
       </c>
       <c r="I196" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J196" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K196" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L196" t="s">
-        <v>574</v>
-      </c>
-      <c r="M196" t="s">
-        <v>575</v>
-      </c>
-      <c r="N196" t="s">
-        <v>576</v>
-      </c>
-      <c r="O196" t="s">
-        <v>577</v>
-      </c>
-      <c r="P196" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -12040,7 +10600,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -12078,7 +10638,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -12116,7 +10676,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -12154,7 +10714,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -12192,7 +10752,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -12230,7 +10790,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -12268,7 +10828,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -12306,7 +10866,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>251</v>
       </c>
@@ -12344,7 +10904,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>251</v>
       </c>
@@ -12382,7 +10942,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>251</v>
       </c>
@@ -12420,7 +10980,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>251</v>
       </c>
@@ -12458,7 +11018,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -12496,7 +11056,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -12534,7 +11094,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -12572,7 +11132,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -12610,7 +11170,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -12648,7 +11208,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -12686,7 +11246,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -12724,7 +11284,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -12762,7 +11322,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -12800,7 +11360,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -12838,7 +11398,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -12876,7 +11436,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -12914,7 +11474,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>29</v>
       </c>
@@ -12952,7 +11512,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>29</v>
       </c>
@@ -12990,7 +11550,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>29</v>
       </c>
@@ -13028,7 +11588,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>29</v>
       </c>
@@ -13066,7 +11626,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>30</v>
       </c>
@@ -13104,7 +11664,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>30</v>
       </c>
@@ -13142,7 +11702,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>30</v>
       </c>
@@ -13180,7 +11740,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -13218,7 +11778,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>31</v>
       </c>
@@ -13256,7 +11816,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>31</v>
       </c>
@@ -13294,7 +11854,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>31</v>
       </c>
@@ -13332,7 +11892,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>31</v>
       </c>
@@ -13370,7 +11930,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>32</v>
       </c>
@@ -13408,7 +11968,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>32</v>
       </c>
@@ -13446,7 +12006,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>32</v>
       </c>
@@ -13484,7 +12044,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>32</v>
       </c>
@@ -13522,7 +12082,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>33</v>
       </c>
@@ -13560,7 +12120,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>33</v>
       </c>
@@ -13598,7 +12158,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>33</v>
       </c>
@@ -13636,7 +12196,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>33</v>
       </c>
@@ -13674,7 +12234,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>38</v>
       </c>
@@ -13712,7 +12272,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>38</v>
       </c>
@@ -13750,7 +12310,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>38</v>
       </c>
@@ -13788,7 +12348,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>38</v>
       </c>
@@ -13826,7 +12386,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>43</v>
       </c>
@@ -13864,7 +12424,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>43</v>
       </c>
@@ -13902,7 +12462,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>43</v>
       </c>
@@ -13940,7 +12500,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>43</v>
       </c>
@@ -13978,7 +12538,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>46</v>
       </c>
@@ -14016,7 +12576,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>46</v>
       </c>
@@ -14054,7 +12614,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>46</v>
       </c>
@@ -14092,7 +12652,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>46</v>
       </c>
@@ -14130,7 +12690,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>50</v>
       </c>
@@ -14168,7 +12728,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>50</v>
       </c>
@@ -14206,7 +12766,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>50</v>
       </c>
@@ -14244,7 +12804,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>50</v>
       </c>
@@ -14282,7 +12842,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>53</v>
       </c>
@@ -14320,7 +12880,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>53</v>
       </c>
@@ -14358,7 +12918,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>53</v>
       </c>
@@ -14396,7 +12956,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>53</v>
       </c>
@@ -14434,7 +12994,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>58</v>
       </c>
@@ -14472,7 +13032,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>58</v>
       </c>
@@ -14510,7 +13070,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>58</v>
       </c>
@@ -14548,7 +13108,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>58</v>
       </c>
@@ -14586,7 +13146,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>63</v>
       </c>
@@ -14624,7 +13184,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>63</v>
       </c>
@@ -14662,7 +13222,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>63</v>
       </c>
@@ -14700,7 +13260,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -14738,7 +13298,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>68</v>
       </c>
@@ -14776,7 +13336,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>68</v>
       </c>
@@ -14814,7 +13374,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>68</v>
       </c>
@@ -14852,7 +13412,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>68</v>
       </c>
@@ -14890,7 +13450,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>69</v>
       </c>
@@ -14928,7 +13488,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>69</v>
       </c>
@@ -14966,7 +13526,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>69</v>
       </c>
@@ -15004,7 +13564,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>69</v>
       </c>
@@ -15042,7 +13602,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>74</v>
       </c>
@@ -15080,7 +13640,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>74</v>
       </c>
@@ -15118,7 +13678,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>74</v>
       </c>
@@ -15156,7 +13716,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>74</v>
       </c>
@@ -15194,7 +13754,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>79</v>
       </c>
@@ -15232,7 +13792,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>79</v>
       </c>
@@ -15270,7 +13830,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>79</v>
       </c>
@@ -15308,7 +13868,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>79</v>
       </c>
@@ -15346,7 +13906,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>84</v>
       </c>
@@ -15384,7 +13944,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>84</v>
       </c>
@@ -15422,7 +13982,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>84</v>
       </c>
@@ -15460,7 +14020,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>84</v>
       </c>
@@ -15498,7 +14058,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>89</v>
       </c>
@@ -15536,7 +14096,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>89</v>
       </c>
@@ -15574,7 +14134,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>89</v>
       </c>
@@ -15612,7 +14172,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>89</v>
       </c>
@@ -15650,7 +14210,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>94</v>
       </c>
@@ -15688,7 +14248,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>94</v>
       </c>
@@ -15726,7 +14286,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>94</v>
       </c>
@@ -15764,7 +14324,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>94</v>
       </c>
@@ -15802,7 +14362,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>95</v>
       </c>
@@ -15840,7 +14400,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>95</v>
       </c>
@@ -15878,7 +14438,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>95</v>
       </c>
@@ -15916,7 +14476,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>95</v>
       </c>
@@ -15954,7 +14514,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>100</v>
       </c>
@@ -15992,7 +14552,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>100</v>
       </c>
@@ -16030,7 +14590,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>100</v>
       </c>
@@ -16068,7 +14628,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>100</v>
       </c>
@@ -16106,7 +14666,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>105</v>
       </c>
@@ -16144,7 +14704,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>105</v>
       </c>
@@ -16182,7 +14742,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>105</v>
       </c>
@@ -16220,7 +14780,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>105</v>
       </c>
@@ -16258,7 +14818,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>110</v>
       </c>
@@ -16296,7 +14856,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>110</v>
       </c>
@@ -16334,7 +14894,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>110</v>
       </c>
@@ -16372,7 +14932,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>110</v>
       </c>
@@ -16410,7 +14970,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>115</v>
       </c>
@@ -16448,7 +15008,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>115</v>
       </c>
@@ -16486,7 +15046,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>115</v>
       </c>
@@ -16524,7 +15084,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>115</v>
       </c>
@@ -16562,7 +15122,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>261</v>
       </c>
@@ -16600,7 +15160,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>261</v>
       </c>
@@ -16638,7 +15198,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>261</v>
       </c>
@@ -16676,7 +15236,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>261</v>
       </c>
@@ -16714,7 +15274,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>266</v>
       </c>
@@ -16752,7 +15312,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>266</v>
       </c>
@@ -16790,7 +15350,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>266</v>
       </c>
@@ -16828,7 +15388,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>266</v>
       </c>
@@ -16866,7 +15426,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>271</v>
       </c>
@@ -16904,7 +15464,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>271</v>
       </c>
@@ -16942,7 +15502,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>271</v>
       </c>
@@ -16980,7 +15540,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>271</v>
       </c>
@@ -17018,7 +15578,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>276</v>
       </c>
@@ -17056,7 +15616,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>276</v>
       </c>
@@ -17094,7 +15654,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>276</v>
       </c>
@@ -17132,7 +15692,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>276</v>
       </c>
@@ -17170,7 +15730,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>281</v>
       </c>
@@ -17208,7 +15768,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>281</v>
       </c>
@@ -17246,7 +15806,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>281</v>
       </c>
@@ -17284,7 +15844,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>281</v>
       </c>
@@ -17322,7 +15882,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>285</v>
       </c>
@@ -17360,7 +15920,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>285</v>
       </c>
@@ -17398,7 +15958,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>285</v>
       </c>
@@ -17436,7 +15996,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>285</v>
       </c>
@@ -17474,7 +16034,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>290</v>
       </c>
@@ -17512,7 +16072,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>290</v>
       </c>
@@ -17550,7 +16110,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>290</v>
       </c>
@@ -17588,7 +16148,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>290</v>
       </c>
@@ -17626,7 +16186,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>295</v>
       </c>
@@ -17664,7 +16224,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>295</v>
       </c>
@@ -17702,7 +16262,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>295</v>
       </c>
@@ -17740,7 +16300,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>295</v>
       </c>
@@ -17778,7 +16338,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>300</v>
       </c>
@@ -17816,7 +16376,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>300</v>
       </c>
@@ -17854,7 +16414,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>300</v>
       </c>
@@ -17892,7 +16452,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>300</v>
       </c>
@@ -17930,7 +16490,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>305</v>
       </c>
@@ -17968,7 +16528,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>305</v>
       </c>
@@ -18006,7 +16566,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>305</v>
       </c>
@@ -18044,7 +16604,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>305</v>
       </c>
@@ -18082,7 +16642,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>310</v>
       </c>
@@ -18120,7 +16680,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>310</v>
       </c>
@@ -18158,7 +16718,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>310</v>
       </c>
@@ -18196,7 +16756,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>310</v>
       </c>
@@ -18234,7 +16794,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>315</v>
       </c>
@@ -18272,7 +16832,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>315</v>
       </c>
@@ -18310,7 +16870,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>315</v>
       </c>
@@ -18348,7 +16908,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>315</v>
       </c>
@@ -18386,7 +16946,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>320</v>
       </c>
@@ -18424,7 +16984,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>320</v>
       </c>
@@ -18462,7 +17022,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>320</v>
       </c>
@@ -18500,7 +17060,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>320</v>
       </c>
@@ -18538,7 +17098,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>325</v>
       </c>
@@ -18576,7 +17136,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>325</v>
       </c>
@@ -18614,7 +17174,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>325</v>
       </c>
@@ -18652,7 +17212,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>325</v>
       </c>
@@ -18690,7 +17250,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>330</v>
       </c>
@@ -18728,7 +17288,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>330</v>
       </c>
@@ -18766,7 +17326,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>330</v>
       </c>
@@ -18804,7 +17364,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>330</v>
       </c>
@@ -18842,7 +17402,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>335</v>
       </c>
@@ -18880,7 +17440,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>335</v>
       </c>
@@ -18918,7 +17478,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>335</v>
       </c>
@@ -18956,7 +17516,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>335</v>
       </c>
@@ -18994,7 +17554,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>338</v>
       </c>
@@ -19032,7 +17592,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>338</v>
       </c>
@@ -19070,7 +17630,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>338</v>
       </c>
@@ -19108,7 +17668,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>338</v>
       </c>
@@ -19146,7 +17706,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>343</v>
       </c>
@@ -19184,7 +17744,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>343</v>
       </c>
@@ -19222,7 +17782,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>343</v>
       </c>
@@ -19260,7 +17820,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>343</v>
       </c>
@@ -19298,7 +17858,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>346</v>
       </c>
@@ -19336,7 +17896,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>346</v>
       </c>
@@ -19374,7 +17934,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>346</v>
       </c>
@@ -19412,7 +17972,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>346</v>
       </c>
@@ -19450,7 +18010,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>351</v>
       </c>
@@ -19488,7 +18048,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>351</v>
       </c>
@@ -19526,7 +18086,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>351</v>
       </c>
@@ -19564,7 +18124,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>351</v>
       </c>
@@ -19602,7 +18162,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>352</v>
       </c>
@@ -19640,7 +18200,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>352</v>
       </c>
@@ -19678,7 +18238,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>352</v>
       </c>
@@ -19716,7 +18276,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>352</v>
       </c>
@@ -19754,7 +18314,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>357</v>
       </c>
@@ -19792,7 +18352,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>357</v>
       </c>
@@ -19830,7 +18390,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>357</v>
       </c>
@@ -19868,7 +18428,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>357</v>
       </c>
@@ -19906,7 +18466,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>362</v>
       </c>
@@ -19944,7 +18504,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>362</v>
       </c>
@@ -19982,7 +18542,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>362</v>
       </c>
@@ -20020,7 +18580,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>362</v>
       </c>
@@ -20058,7 +18618,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>367</v>
       </c>
@@ -20096,7 +18656,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>367</v>
       </c>
@@ -20134,7 +18694,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>367</v>
       </c>
@@ -20172,7 +18732,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>367</v>
       </c>
@@ -20210,7 +18770,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>368</v>
       </c>
@@ -20248,7 +18808,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>368</v>
       </c>
@@ -20286,7 +18846,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>368</v>
       </c>
@@ -20324,7 +18884,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>368</v>
       </c>
@@ -20362,7 +18922,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>373</v>
       </c>
@@ -20400,7 +18960,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>373</v>
       </c>
@@ -20438,7 +18998,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>373</v>
       </c>
@@ -20476,7 +19036,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>373</v>
       </c>
@@ -20514,7 +19074,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>378</v>
       </c>
@@ -20552,7 +19112,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>378</v>
       </c>
@@ -20590,7 +19150,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>378</v>
       </c>
@@ -20628,7 +19188,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>378</v>
       </c>
@@ -20666,7 +19226,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>383</v>
       </c>
@@ -20704,7 +19264,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>383</v>
       </c>
@@ -20742,7 +19302,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>383</v>
       </c>
@@ -20780,7 +19340,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>383</v>
       </c>
@@ -20818,7 +19378,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>388</v>
       </c>
@@ -20856,7 +19416,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>388</v>
       </c>
@@ -20894,7 +19454,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>388</v>
       </c>
@@ -20932,7 +19492,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>388</v>
       </c>
@@ -20970,7 +19530,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>393</v>
       </c>
@@ -21008,7 +19568,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>393</v>
       </c>
@@ -21046,7 +19606,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>393</v>
       </c>
@@ -21084,7 +19644,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>393</v>
       </c>
@@ -21122,7 +19682,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>398</v>
       </c>
@@ -21160,7 +19720,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>398</v>
       </c>
@@ -21198,7 +19758,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>398</v>
       </c>
@@ -21236,7 +19796,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>398</v>
       </c>
@@ -21274,7 +19834,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>402</v>
       </c>
@@ -21312,7 +19872,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>402</v>
       </c>
@@ -21350,7 +19910,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>402</v>
       </c>
@@ -21388,7 +19948,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>402</v>
       </c>
@@ -21426,7 +19986,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>407</v>
       </c>
@@ -21464,7 +20024,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>407</v>
       </c>
@@ -21502,7 +20062,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>407</v>
       </c>
@@ -21540,7 +20100,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>407</v>
       </c>
@@ -21578,7 +20138,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>412</v>
       </c>
@@ -21616,7 +20176,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>412</v>
       </c>
@@ -21654,7 +20214,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>412</v>
       </c>
@@ -21692,7 +20252,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>412</v>
       </c>
@@ -21730,7 +20290,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>416</v>
       </c>
@@ -21768,7 +20328,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>416</v>
       </c>
@@ -21806,7 +20366,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>416</v>
       </c>
@@ -21844,7 +20404,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>416</v>
       </c>
@@ -21882,7 +20442,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>421</v>
       </c>
@@ -21920,7 +20480,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>421</v>
       </c>
@@ -21958,7 +20518,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>421</v>
       </c>
@@ -21996,7 +20556,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>421</v>
       </c>
@@ -22034,7 +20594,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>426</v>
       </c>
@@ -22072,7 +20632,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>426</v>
       </c>
@@ -22110,7 +20670,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>426</v>
       </c>
@@ -22148,7 +20708,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>426</v>
       </c>
@@ -22186,7 +20746,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>431</v>
       </c>
@@ -22224,7 +20784,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>431</v>
       </c>
@@ -22262,7 +20822,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>431</v>
       </c>
@@ -22300,7 +20860,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>431</v>
       </c>
@@ -22338,7 +20898,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>436</v>
       </c>
@@ -22376,7 +20936,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>436</v>
       </c>
@@ -22414,7 +20974,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>436</v>
       </c>
@@ -22452,7 +21012,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>436</v>
       </c>
@@ -22490,7 +21050,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>441</v>
       </c>
@@ -22528,7 +21088,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>441</v>
       </c>
@@ -22566,7 +21126,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>441</v>
       </c>
@@ -22604,7 +21164,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>441</v>
       </c>
@@ -22642,7 +21202,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>446</v>
       </c>
@@ -22680,7 +21240,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>446</v>
       </c>
@@ -22718,7 +21278,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>446</v>
       </c>
@@ -22756,7 +21316,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>446</v>
       </c>
@@ -22794,7 +21354,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>447</v>
       </c>
@@ -22832,7 +21392,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>447</v>
       </c>
@@ -22870,7 +21430,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>447</v>
       </c>
@@ -22908,7 +21468,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>447</v>
       </c>
@@ -22946,7 +21506,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>452</v>
       </c>
@@ -22984,7 +21544,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>452</v>
       </c>
@@ -23022,7 +21582,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>452</v>
       </c>
@@ -23060,7 +21620,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>452</v>
       </c>
@@ -23098,7 +21658,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>457</v>
       </c>
@@ -23136,7 +21696,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>457</v>
       </c>
@@ -23174,7 +21734,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>457</v>
       </c>
@@ -23212,7 +21772,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>457</v>
       </c>
@@ -23250,7 +21810,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>462</v>
       </c>
@@ -23288,7 +21848,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>462</v>
       </c>
@@ -23326,7 +21886,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>462</v>
       </c>
@@ -23364,7 +21924,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>462</v>
       </c>
@@ -23402,7 +21962,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>463</v>
       </c>
@@ -23440,7 +22000,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>463</v>
       </c>
@@ -23478,7 +22038,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>463</v>
       </c>
@@ -23516,7 +22076,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>463</v>
       </c>
@@ -23554,7 +22114,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>464</v>
       </c>
@@ -23592,7 +22152,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>464</v>
       </c>
@@ -23630,7 +22190,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>464</v>
       </c>
@@ -23668,7 +22228,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>464</v>
       </c>
@@ -23706,7 +22266,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>467</v>
       </c>
@@ -23744,7 +22304,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>467</v>
       </c>
@@ -23782,7 +22342,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>467</v>
       </c>
@@ -23820,7 +22380,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>467</v>
       </c>
@@ -23858,7 +22418,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>468</v>
       </c>
@@ -23896,7 +22456,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>468</v>
       </c>
@@ -23934,7 +22494,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>468</v>
       </c>
@@ -23972,7 +22532,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>468</v>
       </c>
@@ -24010,7 +22570,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>473</v>
       </c>
@@ -24048,7 +22608,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>473</v>
       </c>
@@ -24086,7 +22646,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>473</v>
       </c>
@@ -24124,7 +22684,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>473</v>
       </c>
@@ -24162,7 +22722,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>478</v>
       </c>
@@ -24200,7 +22760,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>478</v>
       </c>
@@ -24238,7 +22798,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>478</v>
       </c>
@@ -24276,7 +22836,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>478</v>
       </c>
@@ -24314,7 +22874,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>483</v>
       </c>
@@ -24352,7 +22912,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>483</v>
       </c>
@@ -24390,7 +22950,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>483</v>
       </c>
@@ -24428,7 +22988,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>483</v>
       </c>
@@ -24466,7 +23026,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>488</v>
       </c>
@@ -24504,7 +23064,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>488</v>
       </c>
@@ -24542,7 +23102,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>488</v>
       </c>
@@ -24580,7 +23140,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>488</v>
       </c>
@@ -24618,7 +23178,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>489</v>
       </c>
@@ -24656,7 +23216,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>489</v>
       </c>
@@ -24694,7 +23254,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>489</v>
       </c>
@@ -24732,7 +23292,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>489</v>
       </c>
@@ -24770,7 +23330,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>492</v>
       </c>
@@ -24808,7 +23368,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>492</v>
       </c>
@@ -24846,7 +23406,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>492</v>
       </c>
@@ -24884,7 +23444,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>492</v>
       </c>
@@ -24922,7 +23482,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>497</v>
       </c>
@@ -24960,7 +23520,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>497</v>
       </c>
@@ -24998,7 +23558,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>497</v>
       </c>
@@ -25036,7 +23596,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>497</v>
       </c>
@@ -25074,7 +23634,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>502</v>
       </c>
@@ -25112,7 +23672,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>502</v>
       </c>
@@ -25150,7 +23710,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>502</v>
       </c>
@@ -25188,7 +23748,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>502</v>
       </c>
@@ -25226,7 +23786,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>507</v>
       </c>
@@ -25264,7 +23824,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>507</v>
       </c>
@@ -25302,7 +23862,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>507</v>
       </c>
@@ -25340,7 +23900,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>507</v>
       </c>
@@ -25378,7 +23938,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>508</v>
       </c>
@@ -25416,7 +23976,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>508</v>
       </c>
@@ -25454,7 +24014,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>508</v>
       </c>
@@ -25492,7 +24052,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>508</v>
       </c>
@@ -25530,7 +24090,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>513</v>
       </c>
@@ -25568,7 +24128,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>513</v>
       </c>
@@ -25606,7 +24166,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>513</v>
       </c>
@@ -25644,7 +24204,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>513</v>
       </c>
@@ -25682,7 +24242,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>517</v>
       </c>
@@ -25720,7 +24280,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>517</v>
       </c>
@@ -25758,7 +24318,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>517</v>
       </c>
@@ -25796,7 +24356,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>517</v>
       </c>
@@ -25834,7 +24394,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>521</v>
       </c>
@@ -25872,7 +24432,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>521</v>
       </c>
@@ -25910,7 +24470,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>521</v>
       </c>
@@ -25948,7 +24508,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>521</v>
       </c>
@@ -25986,7 +24546,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>526</v>
       </c>
@@ -26024,7 +24584,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>526</v>
       </c>
@@ -26062,7 +24622,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>526</v>
       </c>
@@ -26100,7 +24660,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>526</v>
       </c>
@@ -26138,7 +24698,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>527</v>
       </c>
@@ -26176,7 +24736,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>527</v>
       </c>
@@ -26214,7 +24774,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>527</v>
       </c>
@@ -26252,7 +24812,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>527</v>
       </c>
@@ -26290,7 +24850,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>532</v>
       </c>
@@ -26328,7 +24888,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>532</v>
       </c>
@@ -26366,7 +24926,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>532</v>
       </c>
@@ -26404,7 +24964,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>532</v>
       </c>
@@ -26442,7 +25002,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>536</v>
       </c>
@@ -26480,7 +25040,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>536</v>
       </c>
@@ -26518,7 +25078,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>536</v>
       </c>
@@ -26556,7 +25116,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>536</v>
       </c>
@@ -26594,7 +25154,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>541</v>
       </c>
@@ -26632,7 +25192,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>541</v>
       </c>
@@ -26670,7 +25230,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>541</v>
       </c>
@@ -26708,7 +25268,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>541</v>
       </c>
@@ -26746,7 +25306,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>546</v>
       </c>
@@ -26784,7 +25344,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>546</v>
       </c>
@@ -26822,7 +25382,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>546</v>
       </c>
@@ -26860,7 +25420,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>546</v>
       </c>
@@ -26898,7 +25458,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>551</v>
       </c>
@@ -26936,7 +25496,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>551</v>
       </c>
@@ -26974,7 +25534,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>551</v>
       </c>
@@ -27012,7 +25572,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>551</v>
       </c>
@@ -27050,7 +25610,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>556</v>
       </c>
@@ -27088,7 +25648,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>556</v>
       </c>
@@ -27126,7 +25686,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>556</v>
       </c>
@@ -27164,7 +25724,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>556</v>
       </c>
@@ -27206,7 +25766,7 @@
   <autoFilter ref="A1:F596" xr:uid="{1F154C20-1910-4F3F-8727-DD143094D7AC}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Сосуды под давлением"/>
+        <filter val="ЛОТО"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dsfd.xlsx
+++ b/dsfd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331E70DC-96C7-472E-99E1-F772314AC9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD2CD60-AC37-483B-8EF5-DCAEDF37EEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="15" windowWidth="27840" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6853" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7414" uniqueCount="657">
   <si>
     <t>question</t>
   </si>
@@ -1829,6 +1829,236 @@
   </si>
   <si>
     <t>Руководитель службы охраны труда</t>
+  </si>
+  <si>
+    <t>Стеллаж это:</t>
+  </si>
+  <si>
+    <t>Транспортная тара, предназначенная для формирования и хранения пакетов при осуществлении механизированных погрузочно-разгрузочных, транспортных и складских операций.</t>
+  </si>
+  <si>
+    <t>Горизонтальная балка, имеющая только одну жестко фиксированную опору.</t>
+  </si>
+  <si>
+    <t>Стационарная сборно-разборная многоярусная конструкция, предназначенная для хранения тарных и штучных грузов.</t>
+  </si>
+  <si>
+    <t>Горизонтальная плоскость, применяемая совместно с балками или вместо них, представляющая собой металлический либо другой настил, на котором размещают грузы.</t>
+  </si>
+  <si>
+    <t>Отметьте верную формировку термина.</t>
+  </si>
+  <si>
+    <t>Фронтальный стеллаж (стеллаж прямого доступа): Стеллаж, предназначенный для хранения грузов на поддонах, тарных и штучных грузов, грузонесущая поверхность которого выполнена в виде двух или более балок с возможностью установки на них полок.</t>
+  </si>
+  <si>
+    <t>Набивной (глубинный) стеллаж: Стеллаж, предназначенный для хранения тарных грузов и грузов на поддонах, пространственная конструкция которого представляет собой стеллажные рамы, горизонтальные балки, установленные по верху рам и стоек, и грузонесущие направляющие; представляет собой несколько каналов, в которые последовательно укладывают поддоны.</t>
+  </si>
+  <si>
+    <t>Консольный стеллаж: Стеллаж, предназначенный для хранения преимущественно длинномерных грузов, несущая поверхность которого выполнена в виде ряда консолей, прикрепленных к вертикальным стойкам и связанных между собой раскосной системой.,</t>
+  </si>
+  <si>
+    <t>Все варианты верны.</t>
+  </si>
+  <si>
+    <t>Какие требования к напольному покрытию для установки стеллажей?</t>
+  </si>
+  <si>
+    <t>Стеллажи должны быть установлены на площадке с твердым покрытием, имеющей уклон не более 0,01. Допускаются не ровности пола.</t>
+  </si>
+  <si>
+    <t>Стеллажи должны быть установлены на ровной площадке с твердым покрытием, имеющей уклон не более 0,1.</t>
+  </si>
+  <si>
+    <t>Стеллажи должны быть установлены на ровной площадке с твердым покрытием, имеющей уклон не более 0,002.</t>
+  </si>
+  <si>
+    <t>Стеллажи должны быть установлены на ровной площадке с твердым покрытием, имеющей уклон не более 0,004.</t>
+  </si>
+  <si>
+    <t>Для каких целей поводится техническое освидетельствование:</t>
+  </si>
+  <si>
+    <t>Чтобы установить, что параметры стеллажей соответствуют требованиям настоящего стандарта и паспортным данным.</t>
+  </si>
+  <si>
+    <t>Чтобы установить, что стеллажи находятся в состоянии, обеспечивающем их безопасную эксплуатацию.</t>
+  </si>
+  <si>
+    <t>Чтобы установить, что:
+- параметры стеллажей соответствуют требованиям настоящего стандарта и паспортным данным;
+- стеллажи находятся в состоянии, обеспечивающем их безопасную эксплуатацию.</t>
+  </si>
+  <si>
+    <t>Техническое освидетельствование не является обязательным.</t>
+  </si>
+  <si>
+    <t>Как часто проводится полное техническое освидетельствование?</t>
+  </si>
+  <si>
+    <t>не реже одного раза в 12 мес</t>
+  </si>
+  <si>
+    <t>не реже двух раз в 12 мес</t>
+  </si>
+  <si>
+    <t>не реже одного раза в 3 года</t>
+  </si>
+  <si>
+    <t>не реже одного раза в 5 лет</t>
+  </si>
+  <si>
+    <t>Гарантийный срок эксплуатации стелажжей установленный изготовителем:</t>
+  </si>
+  <si>
+    <t>более 24 мес с момента ввода стеллажей в эксплуатацию.</t>
+  </si>
+  <si>
+    <t>не менее 24 мес с момента покупки стеллажей.</t>
+  </si>
+  <si>
+    <t>не менее 24 мес с момента ввода стеллажей в эксплуатацию.</t>
+  </si>
+  <si>
+    <t>не менее 36 мес с момента ввода стеллажей в эксплуатацию.</t>
+  </si>
+  <si>
+    <t>Требуется ли проведение инстуктажа по эксплуатации стеллажей?</t>
+  </si>
+  <si>
+    <t>Стеллажи эксплуатируются в соответствии с инструкцией по эксплуатации, предоставленной предприятием-изготовителем. Дополнительный инстуктаж не требуется.</t>
+  </si>
+  <si>
+    <t>Инстуктаж не требуется. Эксплуатирующее предприятие назначает сотрудника, ответственного за эксплуатацию стеллажей.</t>
+  </si>
+  <si>
+    <t>Инстуктаж не требуется.</t>
+  </si>
+  <si>
+    <t>Стеллажи эксплуатируются в соответствии с инструкцией по эксплуатации, предоставленной предприятием-изготовителем.
+Эксплуатирующее предприятие назначает сотрудника, ответственного за эксплуатацию стеллажей.
+Дополнительно проводится инструктаж по эксплуатации стелажжей. Проведение погрузочно-разгрузочных работ осуществляют в соответствии с Приказом Министерства труда и социальной защиты РФ от 28 октября 2020 г. N 753н "Об утверждении Правил по охране труда при погрузочно-разгрузочных работах и размещении грузов".</t>
+  </si>
+  <si>
+    <t>Ответственный за эксплуатацию стеллажей обязан:</t>
+  </si>
+  <si>
+    <t>Соблюдать мероприятия по безопасной эксплуатации стеллажей и инструктировать персонал о правилах безопасной эксплуатации стеллажей.</t>
+  </si>
+  <si>
+    <t>Еженедельно проводить внешний осмотр стеллажей на предмет выявления возможных повреждений.</t>
+  </si>
+  <si>
+    <t>Следить за наличием на стеллажах информации о высоте уровней хранения, максимально допустимой нагрузке на каждый из уровней хранения, дате проведения испытаний, номере стеллажа.</t>
+  </si>
+  <si>
+    <t>Где фиксируются данные о результатах осмотров и испытаний стеллажей?</t>
+  </si>
+  <si>
+    <t>Результаты осмотров, испытаний нигде не фиксируются.</t>
+  </si>
+  <si>
+    <t>Результаты осмотров, испытаний стеллажей не проводятся.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результаты осмотров, испытаний стеллажей </t>
+  </si>
+  <si>
+    <t>Результаты осмотров, испытаний отражать в журнале результатов осмотра стеллажей.</t>
+  </si>
+  <si>
+    <t>При частичном техническом освидетельствовании проводят:</t>
+  </si>
+  <si>
+    <t>Технический осмотр стеллажей на наличие повреждений. В случае выявления повреждения сотрудник, ответственный за эксплуатацию, должен незамедлительно классифицировать повреждение и определить необходимость замены поврежденного элемента. С поврежденных балок необходимо незамедлительно снять нагрузку. В случае выявления недопустимых повреждений стоек разгрузке подлежат по одной секции в каждую сторону от поврежденной стойки.</t>
+  </si>
+  <si>
+    <t>Визуальный осмотр.</t>
+  </si>
+  <si>
+    <t>Осмотр расположения стеллажей.</t>
+  </si>
+  <si>
+    <t>Осмотр наличия стеллажей.</t>
+  </si>
+  <si>
+    <t>Условия изменения конфигурации стеллажей.</t>
+  </si>
+  <si>
+    <t>Изменение конфигурации стеллажей самостоятельно  проводится по мере необходимости.</t>
+  </si>
+  <si>
+    <t>Изменение конфигурации можно проводить при зазгруженных стеллажах в месте проведения изменений.</t>
+  </si>
+  <si>
+    <t>После проведения изменения конфигурации стеллажейне требуется обновлять данные на информационных табличках и указания о максимальных допустимых нагрузках.</t>
+  </si>
+  <si>
+    <t>Любое изменение конфигурации стеллажей может привести к изменению несущей способности и поэтому должно быть обязательно согласовано с предприятием-изготовителем либо с поставщиком стеллажей, если в паспорте на стеллажи не указано иное. При отсутствии возможности получения указанного согласования изменение конфигурации стеллажей проводят только на основании расчетов несущей способности.</t>
+  </si>
+  <si>
+    <t>Отметьте Требования по размещению грузов на консольных стеллажах.</t>
+  </si>
+  <si>
+    <t>Груз на стелажах размещается без учета габаритной длины складируемых грузов.</t>
+  </si>
+  <si>
+    <t>Требования по размещению грузов на консольных стеллажах.</t>
+  </si>
+  <si>
+    <t>Эксплуатирующее предприятие при необходимости не обязано проводить согласование размещения стеллажей и грузов на них с органами санитарного, пожарного и других видов контроля (надзора).</t>
+  </si>
+  <si>
+    <t>Груз на консольных стеллажах располагают таким образом, чтобы единицы груза, расположенные на одном уровне, не касались друг друга.</t>
+  </si>
+  <si>
+    <t>Груз размещается на стеллажах по своему усмотрению.</t>
+  </si>
+  <si>
+    <t>При эксплуатации стеллажей отклонение стоек от вертикальной плоскости не должно быть более:</t>
+  </si>
+  <si>
+    <t>1/200 высоты стойки стеллажа для широкопроходной системы хранения;
+1/350 высоты стойки стеллажа для узкопроходной системы хранения.</t>
+  </si>
+  <si>
+    <t>1/400 высоты стойки стеллажа для широкопроходной системы хранения;
+1/550 высоты стойки стеллажа для узкопроходной системы хранения.</t>
+  </si>
+  <si>
+    <t>1/150 высоты стойки стеллажа для широкопроходной системы хранения;
+1/750 высоты стойки стеллажа для узкопроходной системы хранения.</t>
+  </si>
+  <si>
+    <t>1/50 высоты стойки стеллажа для широкопроходной системы хранения;
+1/70 высоты стойки стеллажа для узкопроходной системы хранения.</t>
+  </si>
+  <si>
+    <t>После завершения монтажных работ необходимо:</t>
+  </si>
+  <si>
+    <t>не оформляя акт приемки между эксплуатирующим предприятием и организацией, проводившей монтаж, начать эксплуатацию стеллажа.</t>
+  </si>
+  <si>
+    <t>принять в работу стеллаж.</t>
+  </si>
+  <si>
+    <t>установить информационные таблички размером не менее А4 с указанием высот уровней хранения и максимальной допустимой нагрузки на каждый из уровней хранения. Данные таблички могут либо входить в комплект поставки, либо быть установлены эксплуатирующим предприятием.</t>
+  </si>
+  <si>
+    <t>оприходывать стеллаж.</t>
+  </si>
+  <si>
+    <t>Эксплуатация стеллажей</t>
+  </si>
+  <si>
+    <t>Тест на знание правил эксплупатации стеллажей (ГОСТ Р 55525-201) для ответственных за эксплуатацию стеллажей</t>
+  </si>
+  <si>
+    <t>Мочалов Федор Андреевич</t>
+  </si>
+  <si>
+    <t>Менеджер по управлению цепью поставок</t>
   </si>
 </sst>
 </file>
@@ -2182,11 +2412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P596"/>
+  <dimension ref="A1:P652"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" topLeftCell="A623" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O597" sqref="O597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,7 +2481,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2531,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2352,7 +2581,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2402,7 +2631,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2452,7 +2681,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2502,7 +2731,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2552,7 +2781,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2602,7 +2831,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2652,7 +2881,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2702,7 +2931,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2752,7 +2981,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2802,7 +3031,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2852,7 +3081,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2902,7 +3131,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2952,7 +3181,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3002,7 +3231,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3052,7 +3281,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3102,7 +3331,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3152,7 +3381,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3202,7 +3431,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3252,7 +3481,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3302,7 +3531,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3352,7 +3581,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3402,7 +3631,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -3452,7 +3681,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3502,7 +3731,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -3552,7 +3781,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -3602,7 +3831,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -3652,7 +3881,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -3702,7 +3931,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -3752,7 +3981,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -3802,7 +4031,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3852,7 +4081,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3902,7 +4131,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -3952,7 +4181,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -4002,7 +4231,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4052,7 +4281,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -4102,7 +4331,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -4152,7 +4381,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -4202,7 +4431,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -4252,7 +4481,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4302,7 +4531,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -4352,7 +4581,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -4402,7 +4631,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -4452,7 +4681,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -4502,7 +4731,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4552,7 +4781,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -4602,7 +4831,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -4652,7 +4881,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -4702,7 +4931,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -4752,7 +4981,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -4802,7 +5031,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -4852,7 +5081,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -4902,7 +5131,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -4952,7 +5181,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -5002,7 +5231,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -5052,7 +5281,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -5102,7 +5331,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -5152,7 +5381,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -5202,7 +5431,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -5252,7 +5481,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -5302,7 +5531,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -5352,7 +5581,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -5402,7 +5631,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -5452,7 +5681,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -5502,7 +5731,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -5552,7 +5781,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -5602,7 +5831,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -5652,7 +5881,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -5702,7 +5931,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>110</v>
       </c>
@@ -5752,7 +5981,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>110</v>
       </c>
@@ -5802,7 +6031,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -5852,7 +6081,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -5902,7 +6131,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -5952,7 +6181,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -10562,7 +10791,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -10600,7 +10829,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -10638,7 +10867,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -10676,7 +10905,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -10714,7 +10943,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -10752,7 +10981,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -10790,7 +11019,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -10828,7 +11057,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -10866,7 +11095,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>251</v>
       </c>
@@ -10904,7 +11133,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>251</v>
       </c>
@@ -10942,7 +11171,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>251</v>
       </c>
@@ -10980,7 +11209,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>251</v>
       </c>
@@ -11018,7 +11247,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -11056,7 +11285,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -11094,7 +11323,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -11132,7 +11361,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -11170,7 +11399,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -11208,7 +11437,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -11246,7 +11475,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -11284,7 +11513,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -11322,7 +11551,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -11360,7 +11589,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -11398,7 +11627,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -11436,7 +11665,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -11474,7 +11703,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>29</v>
       </c>
@@ -11512,7 +11741,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>29</v>
       </c>
@@ -11550,7 +11779,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>29</v>
       </c>
@@ -11588,7 +11817,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>29</v>
       </c>
@@ -11626,7 +11855,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>30</v>
       </c>
@@ -11664,7 +11893,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>30</v>
       </c>
@@ -11702,7 +11931,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>30</v>
       </c>
@@ -11740,7 +11969,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>30</v>
       </c>
@@ -11778,7 +12007,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>31</v>
       </c>
@@ -11816,7 +12045,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>31</v>
       </c>
@@ -11854,7 +12083,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>31</v>
       </c>
@@ -11892,7 +12121,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>31</v>
       </c>
@@ -11930,7 +12159,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>32</v>
       </c>
@@ -11968,7 +12197,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>32</v>
       </c>
@@ -12006,7 +12235,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>32</v>
       </c>
@@ -12044,7 +12273,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>32</v>
       </c>
@@ -12082,7 +12311,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>33</v>
       </c>
@@ -12120,7 +12349,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>33</v>
       </c>
@@ -12158,7 +12387,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>33</v>
       </c>
@@ -12196,7 +12425,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>33</v>
       </c>
@@ -12234,7 +12463,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>38</v>
       </c>
@@ -12272,7 +12501,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>38</v>
       </c>
@@ -12310,7 +12539,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>38</v>
       </c>
@@ -12348,7 +12577,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>38</v>
       </c>
@@ -12386,7 +12615,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>43</v>
       </c>
@@ -12424,7 +12653,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>43</v>
       </c>
@@ -12462,7 +12691,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>43</v>
       </c>
@@ -12500,7 +12729,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>43</v>
       </c>
@@ -12538,7 +12767,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>46</v>
       </c>
@@ -12576,7 +12805,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>46</v>
       </c>
@@ -12614,7 +12843,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>46</v>
       </c>
@@ -12652,7 +12881,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>46</v>
       </c>
@@ -12690,7 +12919,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>50</v>
       </c>
@@ -12728,7 +12957,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>50</v>
       </c>
@@ -12766,7 +12995,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>50</v>
       </c>
@@ -12804,7 +13033,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>50</v>
       </c>
@@ -12842,7 +13071,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>53</v>
       </c>
@@ -12880,7 +13109,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>53</v>
       </c>
@@ -12918,7 +13147,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>53</v>
       </c>
@@ -12956,7 +13185,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>53</v>
       </c>
@@ -12994,7 +13223,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>58</v>
       </c>
@@ -13032,7 +13261,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>58</v>
       </c>
@@ -13070,7 +13299,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>58</v>
       </c>
@@ -13108,7 +13337,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>58</v>
       </c>
@@ -13146,7 +13375,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>63</v>
       </c>
@@ -13184,7 +13413,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>63</v>
       </c>
@@ -13222,7 +13451,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>63</v>
       </c>
@@ -13260,7 +13489,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -13298,7 +13527,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>68</v>
       </c>
@@ -13336,7 +13565,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>68</v>
       </c>
@@ -13374,7 +13603,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>68</v>
       </c>
@@ -13412,7 +13641,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>68</v>
       </c>
@@ -13450,7 +13679,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>69</v>
       </c>
@@ -13488,7 +13717,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>69</v>
       </c>
@@ -13526,7 +13755,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>69</v>
       </c>
@@ -13564,7 +13793,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>69</v>
       </c>
@@ -13602,7 +13831,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>74</v>
       </c>
@@ -13640,7 +13869,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>74</v>
       </c>
@@ -13678,7 +13907,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>74</v>
       </c>
@@ -13716,7 +13945,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>74</v>
       </c>
@@ -13754,7 +13983,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>79</v>
       </c>
@@ -13792,7 +14021,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>79</v>
       </c>
@@ -13830,7 +14059,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>79</v>
       </c>
@@ -13868,7 +14097,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>79</v>
       </c>
@@ -13906,7 +14135,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>84</v>
       </c>
@@ -13944,7 +14173,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>84</v>
       </c>
@@ -13982,7 +14211,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>84</v>
       </c>
@@ -14020,7 +14249,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>84</v>
       </c>
@@ -14058,7 +14287,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>89</v>
       </c>
@@ -14096,7 +14325,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>89</v>
       </c>
@@ -14134,7 +14363,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>89</v>
       </c>
@@ -14172,7 +14401,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>89</v>
       </c>
@@ -14210,7 +14439,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>94</v>
       </c>
@@ -14248,7 +14477,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>94</v>
       </c>
@@ -14286,7 +14515,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>94</v>
       </c>
@@ -14324,7 +14553,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>94</v>
       </c>
@@ -14362,7 +14591,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>95</v>
       </c>
@@ -14400,7 +14629,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>95</v>
       </c>
@@ -14438,7 +14667,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>95</v>
       </c>
@@ -14476,7 +14705,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>95</v>
       </c>
@@ -14514,7 +14743,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>100</v>
       </c>
@@ -14552,7 +14781,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>100</v>
       </c>
@@ -14590,7 +14819,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>100</v>
       </c>
@@ -14628,7 +14857,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>100</v>
       </c>
@@ -14666,7 +14895,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>105</v>
       </c>
@@ -14704,7 +14933,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>105</v>
       </c>
@@ -14742,7 +14971,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>105</v>
       </c>
@@ -14780,7 +15009,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>105</v>
       </c>
@@ -14818,7 +15047,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>110</v>
       </c>
@@ -14856,7 +15085,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>110</v>
       </c>
@@ -14894,7 +15123,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>110</v>
       </c>
@@ -14932,7 +15161,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>110</v>
       </c>
@@ -14970,7 +15199,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>115</v>
       </c>
@@ -15008,7 +15237,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>115</v>
       </c>
@@ -15046,7 +15275,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>115</v>
       </c>
@@ -15084,7 +15313,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>115</v>
       </c>
@@ -15122,7 +15351,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>261</v>
       </c>
@@ -15160,7 +15389,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>261</v>
       </c>
@@ -15198,7 +15427,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>261</v>
       </c>
@@ -15236,7 +15465,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>261</v>
       </c>
@@ -15274,7 +15503,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>266</v>
       </c>
@@ -15312,7 +15541,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>266</v>
       </c>
@@ -15350,7 +15579,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>266</v>
       </c>
@@ -15388,7 +15617,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>266</v>
       </c>
@@ -15426,7 +15655,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>271</v>
       </c>
@@ -15464,7 +15693,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>271</v>
       </c>
@@ -15502,7 +15731,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>271</v>
       </c>
@@ -15540,7 +15769,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>271</v>
       </c>
@@ -15578,7 +15807,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>276</v>
       </c>
@@ -15616,7 +15845,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>276</v>
       </c>
@@ -15654,7 +15883,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>276</v>
       </c>
@@ -15692,7 +15921,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>276</v>
       </c>
@@ -15730,7 +15959,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>281</v>
       </c>
@@ -15768,7 +15997,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>281</v>
       </c>
@@ -15806,7 +16035,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>281</v>
       </c>
@@ -15844,7 +16073,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>281</v>
       </c>
@@ -15882,7 +16111,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>285</v>
       </c>
@@ -15920,7 +16149,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>285</v>
       </c>
@@ -15958,7 +16187,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>285</v>
       </c>
@@ -15996,7 +16225,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>285</v>
       </c>
@@ -16034,7 +16263,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>290</v>
       </c>
@@ -16072,7 +16301,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>290</v>
       </c>
@@ -16110,7 +16339,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>290</v>
       </c>
@@ -16148,7 +16377,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>290</v>
       </c>
@@ -16186,7 +16415,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>295</v>
       </c>
@@ -16224,7 +16453,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>295</v>
       </c>
@@ -16262,7 +16491,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>295</v>
       </c>
@@ -16300,7 +16529,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>295</v>
       </c>
@@ -16338,7 +16567,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>300</v>
       </c>
@@ -16376,7 +16605,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>300</v>
       </c>
@@ -16414,7 +16643,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>300</v>
       </c>
@@ -16452,7 +16681,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>300</v>
       </c>
@@ -16490,7 +16719,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>305</v>
       </c>
@@ -16528,7 +16757,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>305</v>
       </c>
@@ -16566,7 +16795,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>305</v>
       </c>
@@ -16604,7 +16833,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>305</v>
       </c>
@@ -16642,7 +16871,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>310</v>
       </c>
@@ -16680,7 +16909,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>310</v>
       </c>
@@ -16718,7 +16947,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>310</v>
       </c>
@@ -16756,7 +16985,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>310</v>
       </c>
@@ -16794,7 +17023,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>315</v>
       </c>
@@ -16832,7 +17061,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>315</v>
       </c>
@@ -16870,7 +17099,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>315</v>
       </c>
@@ -16908,7 +17137,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>315</v>
       </c>
@@ -16946,7 +17175,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>320</v>
       </c>
@@ -16984,7 +17213,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>320</v>
       </c>
@@ -17022,7 +17251,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>320</v>
       </c>
@@ -17060,7 +17289,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>320</v>
       </c>
@@ -17098,7 +17327,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>325</v>
       </c>
@@ -17136,7 +17365,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>325</v>
       </c>
@@ -17174,7 +17403,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>325</v>
       </c>
@@ -17212,7 +17441,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>325</v>
       </c>
@@ -17250,7 +17479,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>330</v>
       </c>
@@ -17288,7 +17517,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>330</v>
       </c>
@@ -17326,7 +17555,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>330</v>
       </c>
@@ -17364,7 +17593,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>330</v>
       </c>
@@ -17402,7 +17631,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>335</v>
       </c>
@@ -17440,7 +17669,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>335</v>
       </c>
@@ -17478,7 +17707,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>335</v>
       </c>
@@ -17516,7 +17745,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>335</v>
       </c>
@@ -17554,7 +17783,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>338</v>
       </c>
@@ -17592,7 +17821,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>338</v>
       </c>
@@ -17630,7 +17859,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>338</v>
       </c>
@@ -17668,7 +17897,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>338</v>
       </c>
@@ -17706,7 +17935,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>343</v>
       </c>
@@ -17744,7 +17973,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>343</v>
       </c>
@@ -17782,7 +18011,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>343</v>
       </c>
@@ -17820,7 +18049,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>343</v>
       </c>
@@ -17858,7 +18087,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>346</v>
       </c>
@@ -17896,7 +18125,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>346</v>
       </c>
@@ -17934,7 +18163,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>346</v>
       </c>
@@ -17972,7 +18201,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>346</v>
       </c>
@@ -18010,7 +18239,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>351</v>
       </c>
@@ -18048,7 +18277,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>351</v>
       </c>
@@ -18086,7 +18315,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>351</v>
       </c>
@@ -18124,7 +18353,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>351</v>
       </c>
@@ -18162,7 +18391,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>352</v>
       </c>
@@ -18200,7 +18429,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>352</v>
       </c>
@@ -18238,7 +18467,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>352</v>
       </c>
@@ -18276,7 +18505,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>352</v>
       </c>
@@ -18314,7 +18543,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>357</v>
       </c>
@@ -18352,7 +18581,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>357</v>
       </c>
@@ -18390,7 +18619,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>357</v>
       </c>
@@ -18428,7 +18657,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>357</v>
       </c>
@@ -18466,7 +18695,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>362</v>
       </c>
@@ -18504,7 +18733,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>362</v>
       </c>
@@ -18542,7 +18771,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>362</v>
       </c>
@@ -18580,7 +18809,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>362</v>
       </c>
@@ -18618,7 +18847,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>367</v>
       </c>
@@ -18656,7 +18885,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>367</v>
       </c>
@@ -18694,7 +18923,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>367</v>
       </c>
@@ -18732,7 +18961,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>367</v>
       </c>
@@ -18770,7 +18999,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>368</v>
       </c>
@@ -18808,7 +19037,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>368</v>
       </c>
@@ -18846,7 +19075,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>368</v>
       </c>
@@ -18884,7 +19113,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>368</v>
       </c>
@@ -18922,7 +19151,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>373</v>
       </c>
@@ -18960,7 +19189,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>373</v>
       </c>
@@ -18998,7 +19227,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>373</v>
       </c>
@@ -19036,7 +19265,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>373</v>
       </c>
@@ -19074,7 +19303,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>378</v>
       </c>
@@ -19112,7 +19341,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>378</v>
       </c>
@@ -19150,7 +19379,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>378</v>
       </c>
@@ -19188,7 +19417,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>378</v>
       </c>
@@ -19226,7 +19455,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>383</v>
       </c>
@@ -19264,7 +19493,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>383</v>
       </c>
@@ -19302,7 +19531,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>383</v>
       </c>
@@ -19340,7 +19569,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>383</v>
       </c>
@@ -19378,7 +19607,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>388</v>
       </c>
@@ -19416,7 +19645,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>388</v>
       </c>
@@ -19454,7 +19683,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>388</v>
       </c>
@@ -19492,7 +19721,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>388</v>
       </c>
@@ -19530,7 +19759,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>393</v>
       </c>
@@ -19568,7 +19797,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>393</v>
       </c>
@@ -19606,7 +19835,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>393</v>
       </c>
@@ -19644,7 +19873,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>393</v>
       </c>
@@ -19682,7 +19911,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>398</v>
       </c>
@@ -19720,7 +19949,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>398</v>
       </c>
@@ -19758,7 +19987,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>398</v>
       </c>
@@ -19796,7 +20025,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>398</v>
       </c>
@@ -19834,7 +20063,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>402</v>
       </c>
@@ -19872,7 +20101,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>402</v>
       </c>
@@ -19910,7 +20139,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>402</v>
       </c>
@@ -19948,7 +20177,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>402</v>
       </c>
@@ -19986,7 +20215,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>407</v>
       </c>
@@ -20024,7 +20253,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>407</v>
       </c>
@@ -20062,7 +20291,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>407</v>
       </c>
@@ -20100,7 +20329,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>407</v>
       </c>
@@ -20138,7 +20367,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>412</v>
       </c>
@@ -20176,7 +20405,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>412</v>
       </c>
@@ -20214,7 +20443,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>412</v>
       </c>
@@ -20252,7 +20481,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>412</v>
       </c>
@@ -20290,7 +20519,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>416</v>
       </c>
@@ -20328,7 +20557,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>416</v>
       </c>
@@ -20366,7 +20595,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>416</v>
       </c>
@@ -20404,7 +20633,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>416</v>
       </c>
@@ -20442,7 +20671,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>421</v>
       </c>
@@ -20480,7 +20709,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>421</v>
       </c>
@@ -20518,7 +20747,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>421</v>
       </c>
@@ -20556,7 +20785,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>421</v>
       </c>
@@ -20594,7 +20823,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>426</v>
       </c>
@@ -20632,7 +20861,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>426</v>
       </c>
@@ -20670,7 +20899,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>426</v>
       </c>
@@ -20708,7 +20937,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>426</v>
       </c>
@@ -20746,7 +20975,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>431</v>
       </c>
@@ -20784,7 +21013,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>431</v>
       </c>
@@ -20822,7 +21051,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>431</v>
       </c>
@@ -20860,7 +21089,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>431</v>
       </c>
@@ -20898,7 +21127,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>436</v>
       </c>
@@ -20936,7 +21165,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>436</v>
       </c>
@@ -20974,7 +21203,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>436</v>
       </c>
@@ -21012,7 +21241,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>436</v>
       </c>
@@ -21050,7 +21279,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>441</v>
       </c>
@@ -21088,7 +21317,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>441</v>
       </c>
@@ -21126,7 +21355,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>441</v>
       </c>
@@ -21164,7 +21393,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>441</v>
       </c>
@@ -21202,7 +21431,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>446</v>
       </c>
@@ -21240,7 +21469,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>446</v>
       </c>
@@ -21278,7 +21507,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>446</v>
       </c>
@@ -21316,7 +21545,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>446</v>
       </c>
@@ -21354,7 +21583,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>447</v>
       </c>
@@ -21392,7 +21621,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>447</v>
       </c>
@@ -21430,7 +21659,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>447</v>
       </c>
@@ -21468,7 +21697,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>447</v>
       </c>
@@ -21506,7 +21735,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>452</v>
       </c>
@@ -21544,7 +21773,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>452</v>
       </c>
@@ -21582,7 +21811,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>452</v>
       </c>
@@ -21620,7 +21849,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>452</v>
       </c>
@@ -21658,7 +21887,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>457</v>
       </c>
@@ -21696,7 +21925,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>457</v>
       </c>
@@ -21734,7 +21963,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>457</v>
       </c>
@@ -21772,7 +22001,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>457</v>
       </c>
@@ -21810,7 +22039,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>462</v>
       </c>
@@ -21848,7 +22077,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>462</v>
       </c>
@@ -21886,7 +22115,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>462</v>
       </c>
@@ -21924,7 +22153,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>462</v>
       </c>
@@ -21962,7 +22191,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>463</v>
       </c>
@@ -22000,7 +22229,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>463</v>
       </c>
@@ -22038,7 +22267,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>463</v>
       </c>
@@ -22076,7 +22305,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>463</v>
       </c>
@@ -22114,7 +22343,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>464</v>
       </c>
@@ -22152,7 +22381,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>464</v>
       </c>
@@ -22190,7 +22419,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>464</v>
       </c>
@@ -22228,7 +22457,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>464</v>
       </c>
@@ -22266,7 +22495,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>467</v>
       </c>
@@ -22304,7 +22533,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>467</v>
       </c>
@@ -22342,7 +22571,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>467</v>
       </c>
@@ -22380,7 +22609,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>467</v>
       </c>
@@ -22418,7 +22647,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>468</v>
       </c>
@@ -22456,7 +22685,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>468</v>
       </c>
@@ -22494,7 +22723,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>468</v>
       </c>
@@ -22532,7 +22761,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>468</v>
       </c>
@@ -22570,7 +22799,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>473</v>
       </c>
@@ -22608,7 +22837,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>473</v>
       </c>
@@ -22646,7 +22875,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>473</v>
       </c>
@@ -22684,7 +22913,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>473</v>
       </c>
@@ -22722,7 +22951,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>478</v>
       </c>
@@ -22760,7 +22989,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>478</v>
       </c>
@@ -22798,7 +23027,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>478</v>
       </c>
@@ -22836,7 +23065,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>478</v>
       </c>
@@ -22874,7 +23103,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>483</v>
       </c>
@@ -22912,7 +23141,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>483</v>
       </c>
@@ -22950,7 +23179,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>483</v>
       </c>
@@ -22988,7 +23217,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>483</v>
       </c>
@@ -23026,7 +23255,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>488</v>
       </c>
@@ -23064,7 +23293,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>488</v>
       </c>
@@ -23102,7 +23331,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>488</v>
       </c>
@@ -23140,7 +23369,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>488</v>
       </c>
@@ -23178,7 +23407,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>489</v>
       </c>
@@ -23216,7 +23445,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>489</v>
       </c>
@@ -23254,7 +23483,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>489</v>
       </c>
@@ -23292,7 +23521,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>489</v>
       </c>
@@ -23330,7 +23559,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>492</v>
       </c>
@@ -23368,7 +23597,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>492</v>
       </c>
@@ -23406,7 +23635,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>492</v>
       </c>
@@ -23444,7 +23673,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>492</v>
       </c>
@@ -23482,7 +23711,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>497</v>
       </c>
@@ -23520,7 +23749,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>497</v>
       </c>
@@ -23558,7 +23787,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>497</v>
       </c>
@@ -23596,7 +23825,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>497</v>
       </c>
@@ -23634,7 +23863,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>502</v>
       </c>
@@ -23672,7 +23901,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>502</v>
       </c>
@@ -23710,7 +23939,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>502</v>
       </c>
@@ -23748,7 +23977,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>502</v>
       </c>
@@ -23786,7 +24015,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>507</v>
       </c>
@@ -23824,7 +24053,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>507</v>
       </c>
@@ -23862,7 +24091,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>507</v>
       </c>
@@ -23900,7 +24129,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>507</v>
       </c>
@@ -23938,7 +24167,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>508</v>
       </c>
@@ -23976,7 +24205,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>508</v>
       </c>
@@ -24014,7 +24243,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>508</v>
       </c>
@@ -24052,7 +24281,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>508</v>
       </c>
@@ -24090,7 +24319,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>513</v>
       </c>
@@ -24128,7 +24357,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>513</v>
       </c>
@@ -24166,7 +24395,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>513</v>
       </c>
@@ -24204,7 +24433,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>513</v>
       </c>
@@ -24242,7 +24471,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>517</v>
       </c>
@@ -24280,7 +24509,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>517</v>
       </c>
@@ -24318,7 +24547,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>517</v>
       </c>
@@ -24356,7 +24585,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>517</v>
       </c>
@@ -24394,7 +24623,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>521</v>
       </c>
@@ -24432,7 +24661,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>521</v>
       </c>
@@ -24470,7 +24699,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>521</v>
       </c>
@@ -24508,7 +24737,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>521</v>
       </c>
@@ -24546,7 +24775,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>526</v>
       </c>
@@ -24584,7 +24813,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>526</v>
       </c>
@@ -24622,7 +24851,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>526</v>
       </c>
@@ -24660,7 +24889,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>526</v>
       </c>
@@ -24698,7 +24927,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>527</v>
       </c>
@@ -24736,7 +24965,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>527</v>
       </c>
@@ -24774,7 +25003,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>527</v>
       </c>
@@ -24812,7 +25041,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>527</v>
       </c>
@@ -24850,7 +25079,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>532</v>
       </c>
@@ -24888,7 +25117,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>532</v>
       </c>
@@ -24926,7 +25155,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>532</v>
       </c>
@@ -24964,7 +25193,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>532</v>
       </c>
@@ -25002,7 +25231,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>536</v>
       </c>
@@ -25040,7 +25269,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>536</v>
       </c>
@@ -25078,7 +25307,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>536</v>
       </c>
@@ -25116,7 +25345,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>536</v>
       </c>
@@ -25154,7 +25383,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>541</v>
       </c>
@@ -25192,7 +25421,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>541</v>
       </c>
@@ -25230,7 +25459,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>541</v>
       </c>
@@ -25268,7 +25497,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>541</v>
       </c>
@@ -25306,7 +25535,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>546</v>
       </c>
@@ -25344,7 +25573,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>546</v>
       </c>
@@ -25382,7 +25611,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>546</v>
       </c>
@@ -25420,7 +25649,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>546</v>
       </c>
@@ -25458,7 +25687,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>551</v>
       </c>
@@ -25496,7 +25725,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>551</v>
       </c>
@@ -25534,7 +25763,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>551</v>
       </c>
@@ -25572,7 +25801,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>551</v>
       </c>
@@ -25610,7 +25839,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>556</v>
       </c>
@@ -25648,7 +25877,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>556</v>
       </c>
@@ -25686,7 +25915,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>556</v>
       </c>
@@ -25724,7 +25953,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>556</v>
       </c>
@@ -25762,14 +25991,1971 @@
         <v>581</v>
       </c>
     </row>
+    <row r="597" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>583</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C597" t="s">
+        <v>120</v>
+      </c>
+      <c r="D597">
+        <v>10</v>
+      </c>
+      <c r="E597" t="s">
+        <v>653</v>
+      </c>
+      <c r="F597" t="s">
+        <v>654</v>
+      </c>
+      <c r="G597" t="s">
+        <v>575</v>
+      </c>
+      <c r="H597" t="s">
+        <v>576</v>
+      </c>
+      <c r="I597" t="s">
+        <v>571</v>
+      </c>
+      <c r="J597" t="s">
+        <v>582</v>
+      </c>
+      <c r="K597" t="s">
+        <v>655</v>
+      </c>
+      <c r="L597" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>583</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C598" t="s">
+        <v>120</v>
+      </c>
+      <c r="D598">
+        <v>10</v>
+      </c>
+      <c r="E598" t="s">
+        <v>653</v>
+      </c>
+      <c r="F598" t="s">
+        <v>654</v>
+      </c>
+      <c r="G598" t="s">
+        <v>575</v>
+      </c>
+      <c r="H598" t="s">
+        <v>576</v>
+      </c>
+      <c r="I598" t="s">
+        <v>571</v>
+      </c>
+      <c r="J598" t="s">
+        <v>582</v>
+      </c>
+      <c r="L598" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>583</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C599" t="s">
+        <v>7</v>
+      </c>
+      <c r="D599">
+        <v>10</v>
+      </c>
+      <c r="E599" t="s">
+        <v>653</v>
+      </c>
+      <c r="F599" t="s">
+        <v>654</v>
+      </c>
+      <c r="G599" t="s">
+        <v>575</v>
+      </c>
+      <c r="H599" t="s">
+        <v>576</v>
+      </c>
+      <c r="I599" t="s">
+        <v>571</v>
+      </c>
+      <c r="J599" t="s">
+        <v>582</v>
+      </c>
+      <c r="L599" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>583</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C600" t="s">
+        <v>120</v>
+      </c>
+      <c r="D600">
+        <v>10</v>
+      </c>
+      <c r="E600" t="s">
+        <v>653</v>
+      </c>
+      <c r="F600" t="s">
+        <v>654</v>
+      </c>
+      <c r="G600" t="s">
+        <v>575</v>
+      </c>
+      <c r="H600" t="s">
+        <v>576</v>
+      </c>
+      <c r="I600" t="s">
+        <v>571</v>
+      </c>
+      <c r="J600" t="s">
+        <v>582</v>
+      </c>
+      <c r="L600" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>588</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C601" t="s">
+        <v>120</v>
+      </c>
+      <c r="D601">
+        <v>10</v>
+      </c>
+      <c r="E601" t="s">
+        <v>653</v>
+      </c>
+      <c r="F601" t="s">
+        <v>654</v>
+      </c>
+      <c r="G601" t="s">
+        <v>575</v>
+      </c>
+      <c r="H601" t="s">
+        <v>576</v>
+      </c>
+      <c r="I601" t="s">
+        <v>571</v>
+      </c>
+      <c r="J601" t="s">
+        <v>582</v>
+      </c>
+      <c r="L601" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>588</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C602" t="s">
+        <v>120</v>
+      </c>
+      <c r="D602">
+        <v>10</v>
+      </c>
+      <c r="E602" t="s">
+        <v>653</v>
+      </c>
+      <c r="F602" t="s">
+        <v>654</v>
+      </c>
+      <c r="G602" t="s">
+        <v>575</v>
+      </c>
+      <c r="H602" t="s">
+        <v>576</v>
+      </c>
+      <c r="I602" t="s">
+        <v>571</v>
+      </c>
+      <c r="J602" t="s">
+        <v>582</v>
+      </c>
+      <c r="L602" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>588</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C603" t="s">
+        <v>120</v>
+      </c>
+      <c r="D603">
+        <v>10</v>
+      </c>
+      <c r="E603" t="s">
+        <v>653</v>
+      </c>
+      <c r="F603" t="s">
+        <v>654</v>
+      </c>
+      <c r="G603" t="s">
+        <v>575</v>
+      </c>
+      <c r="H603" t="s">
+        <v>576</v>
+      </c>
+      <c r="I603" t="s">
+        <v>571</v>
+      </c>
+      <c r="J603" t="s">
+        <v>582</v>
+      </c>
+      <c r="L603" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>588</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C604" t="s">
+        <v>7</v>
+      </c>
+      <c r="D604">
+        <v>10</v>
+      </c>
+      <c r="E604" t="s">
+        <v>653</v>
+      </c>
+      <c r="F604" t="s">
+        <v>654</v>
+      </c>
+      <c r="G604" t="s">
+        <v>575</v>
+      </c>
+      <c r="H604" t="s">
+        <v>576</v>
+      </c>
+      <c r="I604" t="s">
+        <v>571</v>
+      </c>
+      <c r="J604" t="s">
+        <v>582</v>
+      </c>
+      <c r="L604" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>593</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C605" t="s">
+        <v>120</v>
+      </c>
+      <c r="D605">
+        <v>10</v>
+      </c>
+      <c r="E605" t="s">
+        <v>653</v>
+      </c>
+      <c r="F605" t="s">
+        <v>654</v>
+      </c>
+      <c r="G605" t="s">
+        <v>575</v>
+      </c>
+      <c r="H605" t="s">
+        <v>576</v>
+      </c>
+      <c r="I605" t="s">
+        <v>571</v>
+      </c>
+      <c r="J605" t="s">
+        <v>582</v>
+      </c>
+      <c r="L605" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>593</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C606" t="s">
+        <v>120</v>
+      </c>
+      <c r="D606">
+        <v>10</v>
+      </c>
+      <c r="E606" t="s">
+        <v>653</v>
+      </c>
+      <c r="F606" t="s">
+        <v>654</v>
+      </c>
+      <c r="G606" t="s">
+        <v>575</v>
+      </c>
+      <c r="H606" t="s">
+        <v>576</v>
+      </c>
+      <c r="I606" t="s">
+        <v>571</v>
+      </c>
+      <c r="J606" t="s">
+        <v>582</v>
+      </c>
+      <c r="L606" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>593</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C607" t="s">
+        <v>7</v>
+      </c>
+      <c r="D607">
+        <v>10</v>
+      </c>
+      <c r="E607" t="s">
+        <v>653</v>
+      </c>
+      <c r="F607" t="s">
+        <v>654</v>
+      </c>
+      <c r="G607" t="s">
+        <v>575</v>
+      </c>
+      <c r="H607" t="s">
+        <v>576</v>
+      </c>
+      <c r="I607" t="s">
+        <v>571</v>
+      </c>
+      <c r="J607" t="s">
+        <v>582</v>
+      </c>
+      <c r="L607" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>593</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C608" t="s">
+        <v>120</v>
+      </c>
+      <c r="D608">
+        <v>10</v>
+      </c>
+      <c r="E608" t="s">
+        <v>653</v>
+      </c>
+      <c r="F608" t="s">
+        <v>654</v>
+      </c>
+      <c r="G608" t="s">
+        <v>575</v>
+      </c>
+      <c r="H608" t="s">
+        <v>576</v>
+      </c>
+      <c r="I608" t="s">
+        <v>571</v>
+      </c>
+      <c r="J608" t="s">
+        <v>582</v>
+      </c>
+      <c r="L608" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>598</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C609" t="s">
+        <v>120</v>
+      </c>
+      <c r="D609">
+        <v>10</v>
+      </c>
+      <c r="E609" t="s">
+        <v>653</v>
+      </c>
+      <c r="F609" t="s">
+        <v>654</v>
+      </c>
+      <c r="G609" t="s">
+        <v>575</v>
+      </c>
+      <c r="H609" t="s">
+        <v>576</v>
+      </c>
+      <c r="I609" t="s">
+        <v>571</v>
+      </c>
+      <c r="J609" t="s">
+        <v>582</v>
+      </c>
+      <c r="L609" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>598</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C610" t="s">
+        <v>120</v>
+      </c>
+      <c r="D610">
+        <v>10</v>
+      </c>
+      <c r="E610" t="s">
+        <v>653</v>
+      </c>
+      <c r="F610" t="s">
+        <v>654</v>
+      </c>
+      <c r="G610" t="s">
+        <v>575</v>
+      </c>
+      <c r="H610" t="s">
+        <v>576</v>
+      </c>
+      <c r="I610" t="s">
+        <v>571</v>
+      </c>
+      <c r="J610" t="s">
+        <v>582</v>
+      </c>
+      <c r="L610" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>598</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C611" t="s">
+        <v>7</v>
+      </c>
+      <c r="D611">
+        <v>10</v>
+      </c>
+      <c r="E611" t="s">
+        <v>653</v>
+      </c>
+      <c r="F611" t="s">
+        <v>654</v>
+      </c>
+      <c r="G611" t="s">
+        <v>575</v>
+      </c>
+      <c r="H611" t="s">
+        <v>576</v>
+      </c>
+      <c r="I611" t="s">
+        <v>571</v>
+      </c>
+      <c r="J611" t="s">
+        <v>582</v>
+      </c>
+      <c r="L611" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>598</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C612" t="s">
+        <v>120</v>
+      </c>
+      <c r="D612">
+        <v>10</v>
+      </c>
+      <c r="E612" t="s">
+        <v>653</v>
+      </c>
+      <c r="F612" t="s">
+        <v>654</v>
+      </c>
+      <c r="G612" t="s">
+        <v>575</v>
+      </c>
+      <c r="H612" t="s">
+        <v>576</v>
+      </c>
+      <c r="I612" t="s">
+        <v>571</v>
+      </c>
+      <c r="J612" t="s">
+        <v>582</v>
+      </c>
+      <c r="L612" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>603</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C613" t="s">
+        <v>7</v>
+      </c>
+      <c r="D613">
+        <v>10</v>
+      </c>
+      <c r="E613" t="s">
+        <v>653</v>
+      </c>
+      <c r="F613" t="s">
+        <v>654</v>
+      </c>
+      <c r="G613" t="s">
+        <v>575</v>
+      </c>
+      <c r="H613" t="s">
+        <v>576</v>
+      </c>
+      <c r="I613" t="s">
+        <v>571</v>
+      </c>
+      <c r="J613" t="s">
+        <v>582</v>
+      </c>
+      <c r="L613" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>603</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C614" t="s">
+        <v>120</v>
+      </c>
+      <c r="D614">
+        <v>10</v>
+      </c>
+      <c r="E614" t="s">
+        <v>653</v>
+      </c>
+      <c r="F614" t="s">
+        <v>654</v>
+      </c>
+      <c r="G614" t="s">
+        <v>575</v>
+      </c>
+      <c r="H614" t="s">
+        <v>576</v>
+      </c>
+      <c r="I614" t="s">
+        <v>571</v>
+      </c>
+      <c r="J614" t="s">
+        <v>582</v>
+      </c>
+      <c r="L614" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>603</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C615" t="s">
+        <v>120</v>
+      </c>
+      <c r="D615">
+        <v>10</v>
+      </c>
+      <c r="E615" t="s">
+        <v>653</v>
+      </c>
+      <c r="F615" t="s">
+        <v>654</v>
+      </c>
+      <c r="G615" t="s">
+        <v>575</v>
+      </c>
+      <c r="H615" t="s">
+        <v>576</v>
+      </c>
+      <c r="I615" t="s">
+        <v>571</v>
+      </c>
+      <c r="J615" t="s">
+        <v>582</v>
+      </c>
+      <c r="L615" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>603</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C616" t="s">
+        <v>120</v>
+      </c>
+      <c r="D616">
+        <v>10</v>
+      </c>
+      <c r="E616" t="s">
+        <v>653</v>
+      </c>
+      <c r="F616" t="s">
+        <v>654</v>
+      </c>
+      <c r="G616" t="s">
+        <v>575</v>
+      </c>
+      <c r="H616" t="s">
+        <v>576</v>
+      </c>
+      <c r="I616" t="s">
+        <v>571</v>
+      </c>
+      <c r="J616" t="s">
+        <v>582</v>
+      </c>
+      <c r="L616" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>608</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C617" t="s">
+        <v>120</v>
+      </c>
+      <c r="D617">
+        <v>10</v>
+      </c>
+      <c r="E617" t="s">
+        <v>653</v>
+      </c>
+      <c r="F617" t="s">
+        <v>654</v>
+      </c>
+      <c r="G617" t="s">
+        <v>575</v>
+      </c>
+      <c r="H617" t="s">
+        <v>576</v>
+      </c>
+      <c r="I617" t="s">
+        <v>571</v>
+      </c>
+      <c r="J617" t="s">
+        <v>582</v>
+      </c>
+      <c r="L617" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>608</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C618" t="s">
+        <v>120</v>
+      </c>
+      <c r="D618">
+        <v>10</v>
+      </c>
+      <c r="E618" t="s">
+        <v>653</v>
+      </c>
+      <c r="F618" t="s">
+        <v>654</v>
+      </c>
+      <c r="G618" t="s">
+        <v>575</v>
+      </c>
+      <c r="H618" t="s">
+        <v>576</v>
+      </c>
+      <c r="I618" t="s">
+        <v>571</v>
+      </c>
+      <c r="J618" t="s">
+        <v>582</v>
+      </c>
+      <c r="L618" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>608</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C619" t="s">
+        <v>7</v>
+      </c>
+      <c r="D619">
+        <v>10</v>
+      </c>
+      <c r="E619" t="s">
+        <v>653</v>
+      </c>
+      <c r="F619" t="s">
+        <v>654</v>
+      </c>
+      <c r="G619" t="s">
+        <v>575</v>
+      </c>
+      <c r="H619" t="s">
+        <v>576</v>
+      </c>
+      <c r="I619" t="s">
+        <v>571</v>
+      </c>
+      <c r="J619" t="s">
+        <v>582</v>
+      </c>
+      <c r="L619" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>608</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C620" t="s">
+        <v>120</v>
+      </c>
+      <c r="D620">
+        <v>10</v>
+      </c>
+      <c r="E620" t="s">
+        <v>653</v>
+      </c>
+      <c r="F620" t="s">
+        <v>654</v>
+      </c>
+      <c r="G620" t="s">
+        <v>575</v>
+      </c>
+      <c r="H620" t="s">
+        <v>576</v>
+      </c>
+      <c r="I620" t="s">
+        <v>571</v>
+      </c>
+      <c r="J620" t="s">
+        <v>582</v>
+      </c>
+      <c r="L620" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>613</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C621" t="s">
+        <v>120</v>
+      </c>
+      <c r="D621">
+        <v>10</v>
+      </c>
+      <c r="E621" t="s">
+        <v>653</v>
+      </c>
+      <c r="F621" t="s">
+        <v>654</v>
+      </c>
+      <c r="G621" t="s">
+        <v>575</v>
+      </c>
+      <c r="H621" t="s">
+        <v>576</v>
+      </c>
+      <c r="I621" t="s">
+        <v>571</v>
+      </c>
+      <c r="J621" t="s">
+        <v>582</v>
+      </c>
+      <c r="L621" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>613</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C622" t="s">
+        <v>120</v>
+      </c>
+      <c r="D622">
+        <v>10</v>
+      </c>
+      <c r="E622" t="s">
+        <v>653</v>
+      </c>
+      <c r="F622" t="s">
+        <v>654</v>
+      </c>
+      <c r="G622" t="s">
+        <v>575</v>
+      </c>
+      <c r="H622" t="s">
+        <v>576</v>
+      </c>
+      <c r="I622" t="s">
+        <v>571</v>
+      </c>
+      <c r="J622" t="s">
+        <v>582</v>
+      </c>
+      <c r="L622" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>613</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C623" t="s">
+        <v>120</v>
+      </c>
+      <c r="D623">
+        <v>10</v>
+      </c>
+      <c r="E623" t="s">
+        <v>653</v>
+      </c>
+      <c r="F623" t="s">
+        <v>654</v>
+      </c>
+      <c r="G623" t="s">
+        <v>575</v>
+      </c>
+      <c r="H623" t="s">
+        <v>576</v>
+      </c>
+      <c r="I623" t="s">
+        <v>571</v>
+      </c>
+      <c r="J623" t="s">
+        <v>582</v>
+      </c>
+      <c r="L623" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>613</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C624" t="s">
+        <v>7</v>
+      </c>
+      <c r="D624">
+        <v>10</v>
+      </c>
+      <c r="E624" t="s">
+        <v>653</v>
+      </c>
+      <c r="F624" t="s">
+        <v>654</v>
+      </c>
+      <c r="G624" t="s">
+        <v>575</v>
+      </c>
+      <c r="H624" t="s">
+        <v>576</v>
+      </c>
+      <c r="I624" t="s">
+        <v>571</v>
+      </c>
+      <c r="J624" t="s">
+        <v>582</v>
+      </c>
+      <c r="L624" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>618</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C625" t="s">
+        <v>120</v>
+      </c>
+      <c r="D625">
+        <v>10</v>
+      </c>
+      <c r="E625" t="s">
+        <v>653</v>
+      </c>
+      <c r="F625" t="s">
+        <v>654</v>
+      </c>
+      <c r="G625" t="s">
+        <v>575</v>
+      </c>
+      <c r="H625" t="s">
+        <v>576</v>
+      </c>
+      <c r="I625" t="s">
+        <v>571</v>
+      </c>
+      <c r="J625" t="s">
+        <v>582</v>
+      </c>
+      <c r="L625" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>618</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C626" t="s">
+        <v>120</v>
+      </c>
+      <c r="D626">
+        <v>10</v>
+      </c>
+      <c r="E626" t="s">
+        <v>653</v>
+      </c>
+      <c r="F626" t="s">
+        <v>654</v>
+      </c>
+      <c r="G626" t="s">
+        <v>575</v>
+      </c>
+      <c r="H626" t="s">
+        <v>576</v>
+      </c>
+      <c r="I626" t="s">
+        <v>571</v>
+      </c>
+      <c r="J626" t="s">
+        <v>582</v>
+      </c>
+      <c r="L626" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>618</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C627" t="s">
+        <v>120</v>
+      </c>
+      <c r="D627">
+        <v>10</v>
+      </c>
+      <c r="E627" t="s">
+        <v>653</v>
+      </c>
+      <c r="F627" t="s">
+        <v>654</v>
+      </c>
+      <c r="G627" t="s">
+        <v>575</v>
+      </c>
+      <c r="H627" t="s">
+        <v>576</v>
+      </c>
+      <c r="I627" t="s">
+        <v>571</v>
+      </c>
+      <c r="J627" t="s">
+        <v>582</v>
+      </c>
+      <c r="L627" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>618</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C628" t="s">
+        <v>7</v>
+      </c>
+      <c r="D628">
+        <v>10</v>
+      </c>
+      <c r="E628" t="s">
+        <v>653</v>
+      </c>
+      <c r="F628" t="s">
+        <v>654</v>
+      </c>
+      <c r="G628" t="s">
+        <v>575</v>
+      </c>
+      <c r="H628" t="s">
+        <v>576</v>
+      </c>
+      <c r="I628" t="s">
+        <v>571</v>
+      </c>
+      <c r="J628" t="s">
+        <v>582</v>
+      </c>
+      <c r="L628" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>622</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C629" t="s">
+        <v>120</v>
+      </c>
+      <c r="D629">
+        <v>10</v>
+      </c>
+      <c r="E629" t="s">
+        <v>653</v>
+      </c>
+      <c r="F629" t="s">
+        <v>654</v>
+      </c>
+      <c r="G629" t="s">
+        <v>575</v>
+      </c>
+      <c r="H629" t="s">
+        <v>576</v>
+      </c>
+      <c r="I629" t="s">
+        <v>571</v>
+      </c>
+      <c r="J629" t="s">
+        <v>582</v>
+      </c>
+      <c r="L629" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>622</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C630" t="s">
+        <v>120</v>
+      </c>
+      <c r="D630">
+        <v>10</v>
+      </c>
+      <c r="E630" t="s">
+        <v>653</v>
+      </c>
+      <c r="F630" t="s">
+        <v>654</v>
+      </c>
+      <c r="G630" t="s">
+        <v>575</v>
+      </c>
+      <c r="H630" t="s">
+        <v>576</v>
+      </c>
+      <c r="I630" t="s">
+        <v>571</v>
+      </c>
+      <c r="J630" t="s">
+        <v>582</v>
+      </c>
+      <c r="L630" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>622</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C631" t="s">
+        <v>120</v>
+      </c>
+      <c r="D631">
+        <v>10</v>
+      </c>
+      <c r="E631" t="s">
+        <v>653</v>
+      </c>
+      <c r="F631" t="s">
+        <v>654</v>
+      </c>
+      <c r="G631" t="s">
+        <v>575</v>
+      </c>
+      <c r="H631" t="s">
+        <v>576</v>
+      </c>
+      <c r="I631" t="s">
+        <v>571</v>
+      </c>
+      <c r="J631" t="s">
+        <v>582</v>
+      </c>
+      <c r="L631" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>622</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C632" t="s">
+        <v>7</v>
+      </c>
+      <c r="D632">
+        <v>10</v>
+      </c>
+      <c r="E632" t="s">
+        <v>653</v>
+      </c>
+      <c r="F632" t="s">
+        <v>654</v>
+      </c>
+      <c r="G632" t="s">
+        <v>575</v>
+      </c>
+      <c r="H632" t="s">
+        <v>576</v>
+      </c>
+      <c r="I632" t="s">
+        <v>571</v>
+      </c>
+      <c r="J632" t="s">
+        <v>582</v>
+      </c>
+      <c r="L632" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>627</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C633" t="s">
+        <v>7</v>
+      </c>
+      <c r="D633">
+        <v>10</v>
+      </c>
+      <c r="E633" t="s">
+        <v>653</v>
+      </c>
+      <c r="F633" t="s">
+        <v>654</v>
+      </c>
+      <c r="G633" t="s">
+        <v>575</v>
+      </c>
+      <c r="H633" t="s">
+        <v>576</v>
+      </c>
+      <c r="I633" t="s">
+        <v>571</v>
+      </c>
+      <c r="J633" t="s">
+        <v>582</v>
+      </c>
+      <c r="L633" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>627</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C634" t="s">
+        <v>120</v>
+      </c>
+      <c r="D634">
+        <v>10</v>
+      </c>
+      <c r="E634" t="s">
+        <v>653</v>
+      </c>
+      <c r="F634" t="s">
+        <v>654</v>
+      </c>
+      <c r="G634" t="s">
+        <v>575</v>
+      </c>
+      <c r="H634" t="s">
+        <v>576</v>
+      </c>
+      <c r="I634" t="s">
+        <v>571</v>
+      </c>
+      <c r="J634" t="s">
+        <v>582</v>
+      </c>
+      <c r="L634" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>627</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C635" t="s">
+        <v>120</v>
+      </c>
+      <c r="D635">
+        <v>10</v>
+      </c>
+      <c r="E635" t="s">
+        <v>653</v>
+      </c>
+      <c r="F635" t="s">
+        <v>654</v>
+      </c>
+      <c r="G635" t="s">
+        <v>575</v>
+      </c>
+      <c r="H635" t="s">
+        <v>576</v>
+      </c>
+      <c r="I635" t="s">
+        <v>571</v>
+      </c>
+      <c r="J635" t="s">
+        <v>582</v>
+      </c>
+      <c r="L635" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>627</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C636" t="s">
+        <v>120</v>
+      </c>
+      <c r="D636">
+        <v>10</v>
+      </c>
+      <c r="E636" t="s">
+        <v>653</v>
+      </c>
+      <c r="F636" t="s">
+        <v>654</v>
+      </c>
+      <c r="G636" t="s">
+        <v>575</v>
+      </c>
+      <c r="H636" t="s">
+        <v>576</v>
+      </c>
+      <c r="I636" t="s">
+        <v>571</v>
+      </c>
+      <c r="J636" t="s">
+        <v>582</v>
+      </c>
+      <c r="L636" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>632</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C637" t="s">
+        <v>120</v>
+      </c>
+      <c r="D637">
+        <v>10</v>
+      </c>
+      <c r="E637" t="s">
+        <v>653</v>
+      </c>
+      <c r="F637" t="s">
+        <v>654</v>
+      </c>
+      <c r="G637" t="s">
+        <v>575</v>
+      </c>
+      <c r="H637" t="s">
+        <v>576</v>
+      </c>
+      <c r="I637" t="s">
+        <v>571</v>
+      </c>
+      <c r="J637" t="s">
+        <v>582</v>
+      </c>
+      <c r="L637" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>632</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C638" t="s">
+        <v>120</v>
+      </c>
+      <c r="D638">
+        <v>10</v>
+      </c>
+      <c r="E638" t="s">
+        <v>653</v>
+      </c>
+      <c r="F638" t="s">
+        <v>654</v>
+      </c>
+      <c r="G638" t="s">
+        <v>575</v>
+      </c>
+      <c r="H638" t="s">
+        <v>576</v>
+      </c>
+      <c r="I638" t="s">
+        <v>571</v>
+      </c>
+      <c r="J638" t="s">
+        <v>582</v>
+      </c>
+      <c r="L638" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>632</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C639" t="s">
+        <v>120</v>
+      </c>
+      <c r="D639">
+        <v>10</v>
+      </c>
+      <c r="E639" t="s">
+        <v>653</v>
+      </c>
+      <c r="F639" t="s">
+        <v>654</v>
+      </c>
+      <c r="G639" t="s">
+        <v>575</v>
+      </c>
+      <c r="H639" t="s">
+        <v>576</v>
+      </c>
+      <c r="I639" t="s">
+        <v>571</v>
+      </c>
+      <c r="J639" t="s">
+        <v>582</v>
+      </c>
+      <c r="L639" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>632</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C640" t="s">
+        <v>7</v>
+      </c>
+      <c r="D640">
+        <v>10</v>
+      </c>
+      <c r="E640" t="s">
+        <v>653</v>
+      </c>
+      <c r="F640" t="s">
+        <v>654</v>
+      </c>
+      <c r="G640" t="s">
+        <v>575</v>
+      </c>
+      <c r="H640" t="s">
+        <v>576</v>
+      </c>
+      <c r="I640" t="s">
+        <v>571</v>
+      </c>
+      <c r="J640" t="s">
+        <v>582</v>
+      </c>
+      <c r="L640" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>637</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C641" t="s">
+        <v>120</v>
+      </c>
+      <c r="D641">
+        <v>10</v>
+      </c>
+      <c r="E641" t="s">
+        <v>653</v>
+      </c>
+      <c r="F641" t="s">
+        <v>654</v>
+      </c>
+      <c r="G641" t="s">
+        <v>575</v>
+      </c>
+      <c r="H641" t="s">
+        <v>576</v>
+      </c>
+      <c r="I641" t="s">
+        <v>571</v>
+      </c>
+      <c r="J641" t="s">
+        <v>582</v>
+      </c>
+      <c r="L641" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>639</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C642" t="s">
+        <v>120</v>
+      </c>
+      <c r="D642">
+        <v>10</v>
+      </c>
+      <c r="E642" t="s">
+        <v>653</v>
+      </c>
+      <c r="F642" t="s">
+        <v>654</v>
+      </c>
+      <c r="G642" t="s">
+        <v>575</v>
+      </c>
+      <c r="H642" t="s">
+        <v>576</v>
+      </c>
+      <c r="I642" t="s">
+        <v>571</v>
+      </c>
+      <c r="J642" t="s">
+        <v>582</v>
+      </c>
+      <c r="L642" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>639</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C643" t="s">
+        <v>7</v>
+      </c>
+      <c r="D643">
+        <v>10</v>
+      </c>
+      <c r="E643" t="s">
+        <v>653</v>
+      </c>
+      <c r="F643" t="s">
+        <v>654</v>
+      </c>
+      <c r="G643" t="s">
+        <v>575</v>
+      </c>
+      <c r="H643" t="s">
+        <v>576</v>
+      </c>
+      <c r="I643" t="s">
+        <v>571</v>
+      </c>
+      <c r="J643" t="s">
+        <v>582</v>
+      </c>
+      <c r="L643" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>639</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C644" t="s">
+        <v>120</v>
+      </c>
+      <c r="D644">
+        <v>10</v>
+      </c>
+      <c r="E644" t="s">
+        <v>653</v>
+      </c>
+      <c r="F644" t="s">
+        <v>654</v>
+      </c>
+      <c r="G644" t="s">
+        <v>575</v>
+      </c>
+      <c r="H644" t="s">
+        <v>576</v>
+      </c>
+      <c r="I644" t="s">
+        <v>571</v>
+      </c>
+      <c r="J644" t="s">
+        <v>582</v>
+      </c>
+      <c r="L644" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>643</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C645" t="s">
+        <v>7</v>
+      </c>
+      <c r="D645">
+        <v>10</v>
+      </c>
+      <c r="E645" t="s">
+        <v>653</v>
+      </c>
+      <c r="F645" t="s">
+        <v>654</v>
+      </c>
+      <c r="G645" t="s">
+        <v>575</v>
+      </c>
+      <c r="H645" t="s">
+        <v>576</v>
+      </c>
+      <c r="I645" t="s">
+        <v>571</v>
+      </c>
+      <c r="J645" t="s">
+        <v>582</v>
+      </c>
+      <c r="L645" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>643</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C646" t="s">
+        <v>120</v>
+      </c>
+      <c r="D646">
+        <v>10</v>
+      </c>
+      <c r="E646" t="s">
+        <v>653</v>
+      </c>
+      <c r="F646" t="s">
+        <v>654</v>
+      </c>
+      <c r="G646" t="s">
+        <v>575</v>
+      </c>
+      <c r="H646" t="s">
+        <v>576</v>
+      </c>
+      <c r="I646" t="s">
+        <v>571</v>
+      </c>
+      <c r="J646" t="s">
+        <v>582</v>
+      </c>
+      <c r="L646" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>643</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C647" t="s">
+        <v>120</v>
+      </c>
+      <c r="D647">
+        <v>10</v>
+      </c>
+      <c r="E647" t="s">
+        <v>653</v>
+      </c>
+      <c r="F647" t="s">
+        <v>654</v>
+      </c>
+      <c r="G647" t="s">
+        <v>575</v>
+      </c>
+      <c r="H647" t="s">
+        <v>576</v>
+      </c>
+      <c r="I647" t="s">
+        <v>571</v>
+      </c>
+      <c r="J647" t="s">
+        <v>582</v>
+      </c>
+      <c r="L647" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>643</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C648" t="s">
+        <v>120</v>
+      </c>
+      <c r="D648">
+        <v>10</v>
+      </c>
+      <c r="E648" t="s">
+        <v>653</v>
+      </c>
+      <c r="F648" t="s">
+        <v>654</v>
+      </c>
+      <c r="G648" t="s">
+        <v>575</v>
+      </c>
+      <c r="H648" t="s">
+        <v>576</v>
+      </c>
+      <c r="I648" t="s">
+        <v>571</v>
+      </c>
+      <c r="J648" t="s">
+        <v>582</v>
+      </c>
+      <c r="L648" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C649" t="s">
+        <v>120</v>
+      </c>
+      <c r="D649">
+        <v>10</v>
+      </c>
+      <c r="E649" t="s">
+        <v>653</v>
+      </c>
+      <c r="F649" t="s">
+        <v>654</v>
+      </c>
+      <c r="G649" t="s">
+        <v>575</v>
+      </c>
+      <c r="H649" t="s">
+        <v>576</v>
+      </c>
+      <c r="I649" t="s">
+        <v>571</v>
+      </c>
+      <c r="J649" t="s">
+        <v>582</v>
+      </c>
+      <c r="L649" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>648</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C650" t="s">
+        <v>120</v>
+      </c>
+      <c r="D650">
+        <v>10</v>
+      </c>
+      <c r="E650" t="s">
+        <v>653</v>
+      </c>
+      <c r="F650" t="s">
+        <v>654</v>
+      </c>
+      <c r="G650" t="s">
+        <v>575</v>
+      </c>
+      <c r="H650" t="s">
+        <v>576</v>
+      </c>
+      <c r="I650" t="s">
+        <v>571</v>
+      </c>
+      <c r="J650" t="s">
+        <v>582</v>
+      </c>
+      <c r="L650" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>648</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C651" t="s">
+        <v>7</v>
+      </c>
+      <c r="D651">
+        <v>10</v>
+      </c>
+      <c r="E651" t="s">
+        <v>653</v>
+      </c>
+      <c r="F651" t="s">
+        <v>654</v>
+      </c>
+      <c r="G651" t="s">
+        <v>575</v>
+      </c>
+      <c r="H651" t="s">
+        <v>576</v>
+      </c>
+      <c r="I651" t="s">
+        <v>571</v>
+      </c>
+      <c r="J651" t="s">
+        <v>582</v>
+      </c>
+      <c r="L651" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>648</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C652" t="s">
+        <v>120</v>
+      </c>
+      <c r="D652">
+        <v>10</v>
+      </c>
+      <c r="E652" t="s">
+        <v>653</v>
+      </c>
+      <c r="F652" t="s">
+        <v>654</v>
+      </c>
+      <c r="G652" t="s">
+        <v>575</v>
+      </c>
+      <c r="H652" t="s">
+        <v>576</v>
+      </c>
+      <c r="I652" t="s">
+        <v>571</v>
+      </c>
+      <c r="J652" t="s">
+        <v>582</v>
+      </c>
+      <c r="L652" t="s">
+        <v>656</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F596" xr:uid="{1F154C20-1910-4F3F-8727-DD143094D7AC}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="ЛОТО"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F596" xr:uid="{1F154C20-1910-4F3F-8727-DD143094D7AC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dsfd.xlsx
+++ b/dsfd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0231556\Music\smart-audit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD2CD60-AC37-483B-8EF5-DCAEDF37EEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5822698-EE02-4F75-ABE4-A8130D4B5FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="15" windowWidth="27840" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7414" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7502" uniqueCount="669">
   <si>
     <t>question</t>
   </si>
@@ -2059,6 +2059,42 @@
   </si>
   <si>
     <t>Менеджер по управлению цепью поставок</t>
+  </si>
+  <si>
+    <t>Как можно пересекать транспортеры/конвейерные ленты?</t>
+  </si>
+  <si>
+    <t>Можно перелазать через транспортеры</t>
+  </si>
+  <si>
+    <t>ИОТ №233 для оператора АЛУ</t>
+  </si>
+  <si>
+    <t>Можно проходить под транспортерами пригнувшись</t>
+  </si>
+  <si>
+    <t>Все варианты ответов</t>
+  </si>
+  <si>
+    <t>Можно пересекать транспортёры только по переходным мосткам</t>
+  </si>
+  <si>
+    <t>В каких случаях можно запускать машину без исправных устройств безопасности (датчиков движения, замков с концевиком)?</t>
+  </si>
+  <si>
+    <t>По распоряжению мастера</t>
+  </si>
+  <si>
+    <t>В аварийных ситуациях</t>
+  </si>
+  <si>
+    <t>В случае необходимости догнать план</t>
+  </si>
+  <si>
+    <t>Ни в каких</t>
+  </si>
+  <si>
+    <t>Тест на знание ИОТ №233 для оператора АЛУ</t>
   </si>
 </sst>
 </file>
@@ -2412,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P652"/>
+  <dimension ref="A1:P660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A623" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O597" sqref="O597"/>
+    <sheetView tabSelected="1" topLeftCell="A637" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J669" sqref="J669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27954,6 +27990,310 @@
         <v>656</v>
       </c>
     </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>657</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C653" t="s">
+        <v>120</v>
+      </c>
+      <c r="D653">
+        <v>2</v>
+      </c>
+      <c r="E653" t="s">
+        <v>659</v>
+      </c>
+      <c r="F653" t="s">
+        <v>668</v>
+      </c>
+      <c r="G653" t="s">
+        <v>575</v>
+      </c>
+      <c r="H653" t="s">
+        <v>576</v>
+      </c>
+      <c r="I653" t="s">
+        <v>571</v>
+      </c>
+      <c r="J653" t="s">
+        <v>582</v>
+      </c>
+      <c r="K653" t="s">
+        <v>573</v>
+      </c>
+      <c r="L653" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>657</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C654" t="s">
+        <v>120</v>
+      </c>
+      <c r="D654">
+        <v>2</v>
+      </c>
+      <c r="E654" t="s">
+        <v>659</v>
+      </c>
+      <c r="F654" t="s">
+        <v>668</v>
+      </c>
+      <c r="G654" t="s">
+        <v>575</v>
+      </c>
+      <c r="H654" t="s">
+        <v>576</v>
+      </c>
+      <c r="I654" t="s">
+        <v>571</v>
+      </c>
+      <c r="J654" t="s">
+        <v>582</v>
+      </c>
+      <c r="K654" t="s">
+        <v>573</v>
+      </c>
+      <c r="L654" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>657</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C655" t="s">
+        <v>120</v>
+      </c>
+      <c r="D655">
+        <v>2</v>
+      </c>
+      <c r="E655" t="s">
+        <v>659</v>
+      </c>
+      <c r="F655" t="s">
+        <v>668</v>
+      </c>
+      <c r="G655" t="s">
+        <v>575</v>
+      </c>
+      <c r="H655" t="s">
+        <v>576</v>
+      </c>
+      <c r="I655" t="s">
+        <v>571</v>
+      </c>
+      <c r="J655" t="s">
+        <v>582</v>
+      </c>
+      <c r="K655" t="s">
+        <v>573</v>
+      </c>
+      <c r="L655" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>657</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C656" t="s">
+        <v>7</v>
+      </c>
+      <c r="D656">
+        <v>2</v>
+      </c>
+      <c r="E656" t="s">
+        <v>659</v>
+      </c>
+      <c r="F656" t="s">
+        <v>668</v>
+      </c>
+      <c r="G656" t="s">
+        <v>575</v>
+      </c>
+      <c r="H656" t="s">
+        <v>576</v>
+      </c>
+      <c r="I656" t="s">
+        <v>571</v>
+      </c>
+      <c r="J656" t="s">
+        <v>582</v>
+      </c>
+      <c r="K656" t="s">
+        <v>573</v>
+      </c>
+      <c r="L656" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>663</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C657" t="s">
+        <v>120</v>
+      </c>
+      <c r="D657">
+        <v>2</v>
+      </c>
+      <c r="E657" t="s">
+        <v>659</v>
+      </c>
+      <c r="F657" t="s">
+        <v>668</v>
+      </c>
+      <c r="G657" t="s">
+        <v>575</v>
+      </c>
+      <c r="H657" t="s">
+        <v>576</v>
+      </c>
+      <c r="I657" t="s">
+        <v>571</v>
+      </c>
+      <c r="J657" t="s">
+        <v>582</v>
+      </c>
+      <c r="K657" t="s">
+        <v>573</v>
+      </c>
+      <c r="L657" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>663</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C658" t="s">
+        <v>120</v>
+      </c>
+      <c r="D658">
+        <v>2</v>
+      </c>
+      <c r="E658" t="s">
+        <v>659</v>
+      </c>
+      <c r="F658" t="s">
+        <v>668</v>
+      </c>
+      <c r="G658" t="s">
+        <v>575</v>
+      </c>
+      <c r="H658" t="s">
+        <v>576</v>
+      </c>
+      <c r="I658" t="s">
+        <v>571</v>
+      </c>
+      <c r="J658" t="s">
+        <v>582</v>
+      </c>
+      <c r="K658" t="s">
+        <v>573</v>
+      </c>
+      <c r="L658" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>663</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C659" t="s">
+        <v>120</v>
+      </c>
+      <c r="D659">
+        <v>2</v>
+      </c>
+      <c r="E659" t="s">
+        <v>659</v>
+      </c>
+      <c r="F659" t="s">
+        <v>668</v>
+      </c>
+      <c r="G659" t="s">
+        <v>575</v>
+      </c>
+      <c r="H659" t="s">
+        <v>576</v>
+      </c>
+      <c r="I659" t="s">
+        <v>571</v>
+      </c>
+      <c r="J659" t="s">
+        <v>582</v>
+      </c>
+      <c r="K659" t="s">
+        <v>573</v>
+      </c>
+      <c r="L659" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>663</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C660" t="s">
+        <v>7</v>
+      </c>
+      <c r="D660">
+        <v>2</v>
+      </c>
+      <c r="E660" t="s">
+        <v>659</v>
+      </c>
+      <c r="F660" t="s">
+        <v>668</v>
+      </c>
+      <c r="G660" t="s">
+        <v>575</v>
+      </c>
+      <c r="H660" t="s">
+        <v>576</v>
+      </c>
+      <c r="I660" t="s">
+        <v>571</v>
+      </c>
+      <c r="J660" t="s">
+        <v>582</v>
+      </c>
+      <c r="K660" t="s">
+        <v>573</v>
+      </c>
+      <c r="L660" t="s">
+        <v>574</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F596" xr:uid="{1F154C20-1910-4F3F-8727-DD143094D7AC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
